--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
@@ -700,13 +700,13 @@
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.93</v>
@@ -745,7 +745,7 @@
         <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -814,7 +814,7 @@
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>3.85</v>
@@ -838,16 +838,16 @@
         <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
@@ -904,7 +904,7 @@
         <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
         <v>130</v>
@@ -946,7 +946,7 @@
         <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -958,10 +958,10 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
@@ -973,16 +973,16 @@
         <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.24</v>
@@ -991,58 +991,58 @@
         <v>2.1</v>
       </c>
       <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
         <v>20</v>
       </c>
-      <c r="Y4" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>29</v>
-      </c>
       <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO4" t="n">
         <v>100</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1096,10 +1096,10 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>1.58</v>
@@ -1126,7 +1126,7 @@
         <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1144,16 +1144,16 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
@@ -1213,7 +1213,7 @@
         <v>1.68</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>6.8</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
@@ -1240,19 +1240,19 @@
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>1.18</v>
@@ -1378,10 +1378,10 @@
         <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1498,91 +1498,91 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN8" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1612,106 +1612,106 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G9" t="n">
         <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.91</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AF9" t="n">
         <v>30</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL9" t="n">
         <v>55</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>70</v>
-      </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1768,10 +1768,10 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.91</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
@@ -1783,70 +1783,70 @@
         <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>1.94</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
         <v>1.41</v>
       </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI10" t="n">
         <v>55</v>
       </c>
-      <c r="AF10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1888,7 +1888,7 @@
         <v>1.36</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
         <v>14</v>
@@ -1909,7 +1909,7 @@
         <v>2.32</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
         <v>2.32</v>
@@ -1921,10 +1921,10 @@
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>1.66</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
         <v>1.67</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
         <v>1.99</v>
@@ -2029,55 +2029,55 @@
         <v>2.06</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
         <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
         <v>1.94</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>25</v>
@@ -2086,43 +2086,43 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
         <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
         <v>5.3</v>
@@ -2176,19 +2176,19 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
         <v>2.6</v>
@@ -2197,7 +2197,7 @@
         <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>2.16</v>
@@ -2206,10 +2206,10 @@
         <v>1.23</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
@@ -2245,7 +2245,7 @@
         <v>130</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="G18" t="n">
         <v>2.32</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2875,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.75</v>
@@ -2965,10 +2965,10 @@
         <v>1.88</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
         <v>4.8</v>
@@ -2977,7 +2977,7 @@
         <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H23" t="n">
         <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
         <v>3.95</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
         <v>1.64</v>
@@ -3643,7 +3643,7 @@
         <v>2.56</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I24" t="n">
         <v>3.15</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>3.85</v>
@@ -3910,7 +3910,7 @@
         <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.55</v>
@@ -4072,16 +4072,16 @@
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q27" t="n">
         <v>1.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S27" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="T27" t="n">
         <v>1.56</v>
@@ -4096,22 +4096,22 @@
         <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
         <v>14.5</v>
@@ -4120,34 +4120,34 @@
         <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
         <v>36</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -4201,7 +4201,7 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
         <v>1.37</v>
@@ -4216,13 +4216,13 @@
         <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>22</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC28" t="n">
         <v>7.8</v>
@@ -4255,16 +4255,16 @@
         <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="n">
         <v>150</v>
@@ -4273,16 +4273,16 @@
         <v>65</v>
       </c>
       <c r="AL28" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
         <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AO28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -4450,7 +4450,7 @@
         <v>1.74</v>
       </c>
       <c r="G30" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
@@ -4585,7 +4585,7 @@
         <v>1.65</v>
       </c>
       <c r="G31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H31" t="n">
         <v>6.6</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y31" t="n">
         <v>19.5</v>
@@ -5398,7 +5398,7 @@
         <v>2.14</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
         <v>5.1</v>
@@ -5407,7 +5407,7 @@
         <v>3.65</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>1.94</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H38" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="I38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J38" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K38" t="n">
         <v>3.4</v>
@@ -5548,37 +5548,37 @@
         <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O38" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P38" t="n">
         <v>1.58</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R38" t="n">
         <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T38" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U38" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V38" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W38" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X38" t="n">
         <v>10</v>
@@ -5602,7 +5602,7 @@
         <v>15</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF38" t="n">
         <v>18</v>
@@ -5620,7 +5620,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>180</v>
       </c>
       <c r="AN38" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H39" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="I39" t="n">
         <v>4.2</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q39" t="n">
         <v>1.76</v>
@@ -6211,7 +6211,7 @@
         <v>2.32</v>
       </c>
       <c r="I43" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J43" t="n">
         <v>3.05</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6613,13 +6613,13 @@
         <v>3.15</v>
       </c>
       <c r="H46" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I46" t="n">
         <v>2.68</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K46" t="n">
         <v>3.35</v>
@@ -6631,7 +6631,7 @@
         <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="n">
         <v>1.39</v>
@@ -6652,7 +6652,7 @@
         <v>1.84</v>
       </c>
       <c r="U46" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
         <v>11</v>
@@ -6673,7 +6673,7 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC46" t="n">
         <v>7.2</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.3</v>
+        <v>2.38</v>
       </c>
       <c r="G47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="I47" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K47" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7288,16 +7288,16 @@
         <v>2.34</v>
       </c>
       <c r="H51" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3.85</v>
       </c>
       <c r="J51" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7426,13 +7426,13 @@
         <v>3.95</v>
       </c>
       <c r="I52" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K52" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -7711,7 +7711,7 @@
         <v>1.02</v>
       </c>
       <c r="N54" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O54" t="n">
         <v>1.11</v>
@@ -7747,7 +7747,7 @@
         <v>20</v>
       </c>
       <c r="Z54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA54" t="n">
         <v>17.5</v>
@@ -7762,7 +7762,7 @@
         <v>12</v>
       </c>
       <c r="AE54" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF54" t="n">
         <v>80</v>
@@ -7783,7 +7783,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM54" t="n">
         <v>55</v>
@@ -7855,7 +7855,7 @@
         <v>1.98</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R55" t="n">
         <v>1.38</v>
@@ -7972,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -7996,10 +7996,10 @@
         <v>1.58</v>
       </c>
       <c r="S56" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T56" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U56" t="n">
         <v>2.48</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y56" t="n">
         <v>12.5</v>
@@ -8038,7 +8038,7 @@
         <v>36</v>
       </c>
       <c r="AG56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH56" t="n">
         <v>17</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q57" t="n">
         <v>1.72</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G58" t="n">
         <v>1.92</v>
@@ -8236,7 +8236,7 @@
         <v>2.1</v>
       </c>
       <c r="I58" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="J58" t="n">
         <v>3.55</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G59" t="n">
         <v>3.3</v>
@@ -8377,7 +8377,7 @@
         <v>2.88</v>
       </c>
       <c r="K59" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>1.85</v>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H60" t="n">
         <v>3.55</v>
@@ -8635,7 +8635,7 @@
         <v>1.73</v>
       </c>
       <c r="G61" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="H61" t="n">
         <v>4.5</v>
@@ -8665,7 +8665,7 @@
         <v>1.98</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G62" t="n">
         <v>3.95</v>
       </c>
       <c r="H62" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I62" t="n">
         <v>2.38</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K62" t="n">
         <v>3.65</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H63" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I63" t="n">
         <v>6.2</v>
       </c>
       <c r="J63" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K63" t="n">
         <v>4.8</v>
@@ -8935,7 +8935,7 @@
         <v>2.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>2.04</v>
       </c>
       <c r="G65" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H65" t="n">
         <v>3.6</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9313,10 +9313,10 @@
         <v>1.29</v>
       </c>
       <c r="H66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I66" t="n">
         <v>13.5</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
       </c>
       <c r="J66" t="n">
         <v>6.8</v>
@@ -9343,7 +9343,7 @@
         <v>1.54</v>
       </c>
       <c r="R66" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S66" t="n">
         <v>2.36</v>
@@ -9352,7 +9352,7 @@
         <v>2.08</v>
       </c>
       <c r="U66" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -9379,13 +9379,13 @@
         <v>16</v>
       </c>
       <c r="AD66" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AE66" t="n">
         <v>240</v>
       </c>
       <c r="AF66" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG66" t="n">
         <v>11.5</v>
@@ -9397,7 +9397,7 @@
         <v>1000</v>
       </c>
       <c r="AJ66" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK66" t="n">
         <v>14</v>
@@ -9412,7 +9412,7 @@
         <v>4.1</v>
       </c>
       <c r="AO66" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67">
@@ -9442,109 +9442,109 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G67" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H67" t="n">
         <v>4.7</v>
       </c>
       <c r="I67" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J67" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K67" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L67" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O67" t="n">
         <v>1.32</v>
       </c>
       <c r="P67" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R67" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T67" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U67" t="n">
         <v>1.96</v>
       </c>
       <c r="V67" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W67" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X67" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y67" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA67" t="n">
         <v>150</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC67" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD67" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE67" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF67" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI67" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK67" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL67" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM67" t="n">
         <v>140</v>
       </c>
       <c r="AN67" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO67" t="n">
         <v>100</v>
@@ -9601,16 +9601,16 @@
         <v>1.09</v>
       </c>
       <c r="N68" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.4</v>
       </c>
       <c r="P68" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R68" t="n">
         <v>1.29</v>
@@ -9619,10 +9619,10 @@
         <v>4.1</v>
       </c>
       <c r="T68" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U68" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>13</v>
       </c>
       <c r="Z68" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA68" t="n">
         <v>80</v>
@@ -9655,22 +9655,22 @@
         <v>180</v>
       </c>
       <c r="AF68" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
       <c r="AG68" t="n">
         <v>11.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI68" t="n">
         <v>65</v>
       </c>
       <c r="AJ68" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK68" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL68" t="n">
         <v>170</v>
@@ -9853,19 +9853,19 @@
         <v>2.96</v>
       </c>
       <c r="H70" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I70" t="n">
         <v>2.66</v>
       </c>
       <c r="J70" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K70" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M70" t="n">
         <v>1.04</v>
@@ -9883,7 +9883,7 @@
         <v>1.6</v>
       </c>
       <c r="R70" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S70" t="n">
         <v>2.44</v>
@@ -9892,7 +9892,7 @@
         <v>1.54</v>
       </c>
       <c r="U70" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V70" t="n">
         <v>1.6</v>
@@ -9901,10 +9901,10 @@
         <v>1.51</v>
       </c>
       <c r="X70" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y70" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z70" t="n">
         <v>21</v>
@@ -9913,46 +9913,46 @@
         <v>38</v>
       </c>
       <c r="AB70" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD70" t="n">
         <v>13</v>
       </c>
       <c r="AE70" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF70" t="n">
         <v>24</v>
       </c>
       <c r="AG70" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI70" t="n">
         <v>32</v>
       </c>
       <c r="AJ70" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK70" t="n">
         <v>29</v>
       </c>
       <c r="AL70" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM70" t="n">
         <v>60</v>
       </c>
       <c r="AN70" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="71">
@@ -10003,7 +10003,7 @@
         <v>1.28</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
         <v>4.2</v>
@@ -10015,25 +10015,25 @@
         <v>2.12</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R71" t="n">
         <v>1.44</v>
       </c>
       <c r="S71" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T71" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U71" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V71" t="n">
         <v>1.14</v>
       </c>
       <c r="W71" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X71" t="n">
         <v>24</v>
@@ -10048,7 +10048,7 @@
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
         <v>13</v>
@@ -10120,13 +10120,13 @@
         <v>1.32</v>
       </c>
       <c r="G72" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H72" t="n">
         <v>11.5</v>
       </c>
       <c r="I72" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J72" t="n">
         <v>6</v>
@@ -10141,7 +10141,7 @@
         <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O72" t="n">
         <v>1.21</v>
@@ -10153,16 +10153,16 @@
         <v>1.64</v>
       </c>
       <c r="R72" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S72" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T72" t="n">
         <v>2.1</v>
       </c>
       <c r="U72" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -10180,7 +10180,7 @@
         <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="AB72" t="n">
         <v>9.6</v>
@@ -10213,7 +10213,7 @@
         <v>15.5</v>
       </c>
       <c r="AL72" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM72" t="n">
         <v>220</v>
@@ -10264,13 +10264,13 @@
         <v>4.1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K73" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L73" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M73" t="n">
         <v>1.07</v>
@@ -10282,10 +10282,10 @@
         <v>1.31</v>
       </c>
       <c r="P73" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R73" t="n">
         <v>1.34</v>
@@ -10306,13 +10306,13 @@
         <v>1.75</v>
       </c>
       <c r="X73" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z73" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA73" t="n">
         <v>1000</v>
@@ -10321,28 +10321,28 @@
         <v>10.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD73" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE73" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
         <v>15</v>
       </c>
       <c r="AG73" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ73" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK73" t="n">
         <v>25</v>
@@ -10354,10 +10354,10 @@
         <v>1000</v>
       </c>
       <c r="AN73" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO73" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -10426,7 +10426,7 @@
         <v>1.55</v>
       </c>
       <c r="S74" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T74" t="n">
         <v>1.62</v>
@@ -10450,7 +10450,7 @@
         <v>16</v>
       </c>
       <c r="AA74" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB74" t="n">
         <v>17</v>
@@ -10489,7 +10489,7 @@
         <v>65</v>
       </c>
       <c r="AN74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO74" t="n">
         <v>13</v>
@@ -10564,7 +10564,7 @@
         <v>3.2</v>
       </c>
       <c r="T75" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U75" t="n">
         <v>2.3</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H76" t="n">
         <v>3.25</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J76" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K76" t="n">
         <v>10.5</v>
@@ -10678,7 +10678,7 @@
         <v>1.3</v>
       </c>
       <c r="M76" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N76" t="n">
         <v>3.5</v>
@@ -10690,13 +10690,13 @@
         <v>1.91</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="R76" t="n">
         <v>1.12</v>
       </c>
       <c r="S76" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10708,7 +10708,7 @@
         <v>1.25</v>
       </c>
       <c r="W76" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10798,7 +10798,7 @@
         <v>2.96</v>
       </c>
       <c r="H77" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -10822,7 +10822,7 @@
         <v>1.55</v>
       </c>
       <c r="P77" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q77" t="n">
         <v>2.64</v>
@@ -10831,7 +10831,7 @@
         <v>1.2</v>
       </c>
       <c r="S77" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T77" t="n">
         <v>2.12</v>
@@ -11062,19 +11062,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G79" t="n">
         <v>5.6</v>
       </c>
       <c r="H79" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I79" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K79" t="n">
         <v>5.6</v>
@@ -11200,7 +11200,7 @@
         <v>1.63</v>
       </c>
       <c r="G80" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H80" t="n">
         <v>2.02</v>
@@ -11338,7 +11338,7 @@
         <v>5.3</v>
       </c>
       <c r="H81" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="I81" t="n">
         <v>2.26</v>
@@ -11350,7 +11350,7 @@
         <v>3.55</v>
       </c>
       <c r="L81" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="M81" t="n">
         <v>1.09</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="G82" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="H82" t="n">
-        <v>2.02</v>
+        <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="J82" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O83" t="n">
         <v>1.26</v>
@@ -11680,7 +11680,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG83" t="n">
         <v>24</v>
@@ -12157,7 +12157,7 @@
         <v>3.45</v>
       </c>
       <c r="K87" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -12418,10 +12418,10 @@
         <v>5.9</v>
       </c>
       <c r="H89" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I89" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J89" t="n">
         <v>4.1</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G90" t="n">
         <v>2.5</v>
       </c>
       <c r="H90" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
         <v>4.7</v>
       </c>
       <c r="J90" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K90" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G91" t="n">
         <v>1.59</v>
       </c>
       <c r="H91" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I91" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J91" t="n">
         <v>4.5</v>
@@ -12724,7 +12724,7 @@
         <v>3.1</v>
       </c>
       <c r="T91" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U91" t="n">
         <v>1.98</v>
@@ -12820,16 +12820,16 @@
         <v>1.3</v>
       </c>
       <c r="G92" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H92" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>1000</v>
       </c>
       <c r="J92" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K92" t="n">
         <v>950</v>
@@ -12850,7 +12850,7 @@
         <v>2.2</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12955,19 +12955,19 @@
         <v>4.1</v>
       </c>
       <c r="G93" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H93" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="I93" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J93" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K93" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -13096,7 +13096,7 @@
         <v>3.75</v>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J94" t="n">
         <v>3.65</v>
@@ -13105,7 +13105,7 @@
         <v>4.3</v>
       </c>
       <c r="L94" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M94" t="n">
         <v>1.05</v>
@@ -13132,7 +13132,7 @@
         <v>1.67</v>
       </c>
       <c r="U94" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V94" t="n">
         <v>1.25</v>
@@ -13141,7 +13141,7 @@
         <v>1.9</v>
       </c>
       <c r="X94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -13174,7 +13174,7 @@
         <v>21</v>
       </c>
       <c r="AI94" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ94" t="n">
         <v>28</v>
@@ -13183,10 +13183,10 @@
         <v>24</v>
       </c>
       <c r="AL94" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM94" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN94" t="n">
         <v>14.5</v>
@@ -13228,7 +13228,7 @@
         <v>4.3</v>
       </c>
       <c r="H95" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I95" t="n">
         <v>1.94</v>
@@ -13243,16 +13243,16 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O95" t="n">
         <v>1.24</v>
       </c>
       <c r="P95" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q95" t="n">
         <v>1.73</v>
@@ -13261,7 +13261,7 @@
         <v>1.52</v>
       </c>
       <c r="S95" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T95" t="n">
         <v>1.68</v>
@@ -13276,10 +13276,10 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y95" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z95" t="n">
         <v>13.5</v>
@@ -13288,7 +13288,7 @@
         <v>22</v>
       </c>
       <c r="AB95" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC95" t="n">
         <v>9.199999999999999</v>
@@ -13297,22 +13297,22 @@
         <v>10</v>
       </c>
       <c r="AE95" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG95" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI95" t="n">
         <v>32</v>
       </c>
       <c r="AJ95" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AK95" t="n">
         <v>60</v>
@@ -13324,10 +13324,10 @@
         <v>85</v>
       </c>
       <c r="AN95" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AO95" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -13387,7 +13387,7 @@
         <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q96" t="n">
         <v>1.49</v>
@@ -13402,7 +13402,7 @@
         <v>1.52</v>
       </c>
       <c r="U96" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -13435,10 +13435,10 @@
         <v>50</v>
       </c>
       <c r="AF96" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH96" t="n">
         <v>15.5</v>
@@ -13492,16 +13492,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G97" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H97" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I97" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J97" t="n">
         <v>4.6</v>
@@ -13525,7 +13525,7 @@
         <v>3.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13537,7 +13537,7 @@
         <v>1.47</v>
       </c>
       <c r="U97" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V97" t="n">
         <v>0</v>
@@ -13555,10 +13555,10 @@
         <v>17</v>
       </c>
       <c r="AA97" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB97" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC97" t="n">
         <v>12</v>
@@ -13567,16 +13567,16 @@
         <v>11.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF97" t="n">
         <v>44</v>
       </c>
       <c r="AG97" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH97" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI97" t="n">
         <v>23</v>
@@ -13597,7 +13597,7 @@
         <v>24</v>
       </c>
       <c r="AO97" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="98">
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G98" t="n">
         <v>4.6</v>
@@ -13636,7 +13636,7 @@
         <v>1.9</v>
       </c>
       <c r="I98" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="J98" t="n">
         <v>3.9</v>
@@ -13660,7 +13660,7 @@
         <v>2.24</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13837,7 +13837,7 @@
         <v>14</v>
       </c>
       <c r="AE99" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF99" t="n">
         <v>17.5</v>
@@ -13903,7 +13903,7 @@
         <v>3.45</v>
       </c>
       <c r="H100" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I100" t="n">
         <v>2.6</v>
@@ -14032,19 +14032,19 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G101" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J101" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K101" t="n">
         <v>3.8</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14167,10 +14167,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H102" t="n">
         <v>2.4</v>
@@ -14182,7 +14182,7 @@
         <v>3.2</v>
       </c>
       <c r="K102" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q102" t="n">
         <v>1.68</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G103" t="n">
         <v>2.36</v>
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q103" t="n">
         <v>1.66</v>
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G105" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H105" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I105" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J105" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K105" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>1.94</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14710,7 +14710,7 @@
         <v>3.3</v>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>2.2</v>
@@ -14740,7 +14740,7 @@
         <v>1.81</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14842,16 +14842,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G107" t="n">
         <v>1.82</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I107" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J107" t="n">
         <v>4.2</v>
@@ -14983,19 +14983,19 @@
         <v>5.5</v>
       </c>
       <c r="H108" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I108" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J108" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K108" t="n">
         <v>4.1</v>
       </c>
       <c r="L108" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M108" t="n">
         <v>1.07</v>
@@ -15004,7 +15004,7 @@
         <v>3.8</v>
       </c>
       <c r="O108" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P108" t="n">
         <v>1.94</v>
@@ -15052,13 +15052,13 @@
         <v>10.5</v>
       </c>
       <c r="AE108" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF108" t="n">
         <v>46</v>
       </c>
       <c r="AG108" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH108" t="n">
         <v>24</v>
@@ -15112,16 +15112,16 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G109" t="n">
         <v>1.22</v>
       </c>
       <c r="H109" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I109" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J109" t="n">
         <v>8.4</v>
@@ -15142,10 +15142,10 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G110" t="n">
         <v>6.6</v>
@@ -15274,25 +15274,25 @@
         <v>3.9</v>
       </c>
       <c r="O110" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P110" t="n">
         <v>2</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R110" t="n">
         <v>1.39</v>
       </c>
       <c r="S110" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T110" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U110" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V110" t="n">
         <v>0</v>
@@ -15301,49 +15301,49 @@
         <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y110" t="n">
         <v>10</v>
       </c>
       <c r="Z110" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA110" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB110" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC110" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD110" t="n">
         <v>12</v>
       </c>
       <c r="AE110" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF110" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG110" t="n">
         <v>28</v>
       </c>
       <c r="AH110" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI110" t="n">
         <v>1000</v>
       </c>
-      <c r="AI110" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ110" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK110" t="n">
         <v>100</v>
       </c>
       <c r="AL110" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM110" t="n">
         <v>140</v>
@@ -15352,7 +15352,7 @@
         <v>1000</v>
       </c>
       <c r="AO110" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="111">
@@ -15445,7 +15445,7 @@
         <v>13.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB111" t="n">
         <v>11.5</v>
@@ -15466,7 +15466,7 @@
         <v>17.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI111" t="n">
         <v>55</v>
@@ -15520,7 +15520,7 @@
         <v>1.32</v>
       </c>
       <c r="G112" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H112" t="n">
         <v>10</v>
@@ -15529,7 +15529,7 @@
         <v>10.5</v>
       </c>
       <c r="J112" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K112" t="n">
         <v>7</v>
@@ -15553,16 +15553,16 @@
         <v>1.44</v>
       </c>
       <c r="R112" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S112" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T112" t="n">
         <v>1.8</v>
       </c>
       <c r="U112" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V112" t="n">
         <v>0</v>
@@ -15583,7 +15583,7 @@
         <v>350</v>
       </c>
       <c r="AB112" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC112" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         <v>110</v>
       </c>
       <c r="AJ112" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK112" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
@@ -679,10 +679,10 @@
         <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.08</v>
@@ -709,7 +709,7 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
@@ -724,16 +724,16 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -745,13 +745,13 @@
         <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>110</v>
@@ -763,13 +763,13 @@
         <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.85</v>
@@ -835,13 +835,13 @@
         <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
         <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.98</v>
@@ -853,58 +853,58 @@
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
         <v>150</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
         <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
         <v>130</v>
@@ -943,7 +943,7 @@
         <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
         <v>5.4</v>
@@ -958,7 +958,7 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>3.6</v>
@@ -970,10 +970,10 @@
         <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
         <v>3.45</v>
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
         <v>2.1</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1027,7 +1027,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
@@ -1096,19 +1096,19 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
         <v>4.8</v>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
         <v>1.45</v>
@@ -1126,7 +1126,7 @@
         <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1138,46 +1138,46 @@
         <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G6" t="n">
         <v>1.68</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,25 +1231,25 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
         <v>2.02</v>
@@ -1258,10 +1258,10 @@
         <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>2.68</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H7" t="n">
         <v>2.42</v>
@@ -1366,88 +1366,88 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL7" t="n">
         <v>34</v>
       </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AM7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1507,7 +1507,7 @@
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
         <v>1.81</v>
@@ -1516,7 +1516,7 @@
         <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
         <v>1.74</v>
@@ -1528,7 +1528,7 @@
         <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
         <v>130</v>
@@ -1558,13 +1558,13 @@
         <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1573,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>120</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
         <v>2.22</v>
@@ -1624,7 +1624,7 @@
         <v>2.36</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.85</v>
@@ -1636,40 +1636,40 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
         <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>970</v>
@@ -1687,10 +1687,10 @@
         <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>970</v>
@@ -1702,16 +1702,16 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
@@ -1759,10 +1759,10 @@
         <v>3.55</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1789,10 +1789,10 @@
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
         <v>1.41</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>5.6</v>
@@ -1903,88 +1903,88 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>1.66</v>
+        <v>2.52</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>610</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="n">
         <v>50</v>
       </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>55</v>
-      </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H12" t="n">
         <v>1.99</v>
@@ -2050,16 +2050,16 @@
         <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U12" t="n">
         <v>2.5</v>
@@ -2068,7 +2068,7 @@
         <v>1.94</v>
       </c>
       <c r="W12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
         <v>24</v>
@@ -2077,7 +2077,7 @@
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
         <v>25</v>
@@ -2086,13 +2086,13 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>32</v>
@@ -2119,10 +2119,10 @@
         <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2158,19 +2158,19 @@
         <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I13" t="n">
         <v>1.85</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2182,22 +2182,22 @@
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
         <v>2.16</v>
@@ -2206,58 +2206,58 @@
         <v>1.23</v>
       </c>
       <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="n">
         <v>26</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AI13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CSM Slatina</t>
+          <t>CS Afumati</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CSM Satu Mare</t>
+          <t>CSC 1599 Selimbar</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2299,100 +2299,100 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.24</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.01</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>CS Gloria</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ACS Dumbravita</t>
+          <t>ACS Muscelul</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2434,100 +2434,100 @@
         <v>1000</v>
       </c>
       <c r="J15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="n">
         <v>1.01</v>
       </c>
-      <c r="K15" t="n">
-        <v>950</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
         <v>1.24</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.01</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2569,100 +2569,100 @@
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
         <v>950</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
         <v>1.24</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.01</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,12 +2683,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CS Afumati</t>
+          <t>CSM Slatina</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CSC 1599 Selimbar</t>
+          <t>CSM Satu Mare</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2704,106 +2704,106 @@
         <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
         <v>950</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
         <v>1.24</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.01</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,72 +2813,72 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>ACS Dumbravita</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>1.24</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>1.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2896,7 +2896,7 @@
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.25</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LKP Motor Lublin</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="H20" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>LKP Motor Lublin</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.24</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>3.95</v>
+        <v>2.78</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>2.46</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="G23" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,31 +3628,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Muangthong Utd</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.36</v>
+        <v>1.84</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
         <v>1.64</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Muangthong Utd</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H27" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R27" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>2.34</v>
       </c>
       <c r="G28" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="H28" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="I28" t="n">
-        <v>1.99</v>
+        <v>3.15</v>
       </c>
       <c r="J28" t="n">
         <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="R28" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>2.54</v>
       </c>
       <c r="T28" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL28" t="n">
         <v>34</v>
       </c>
-      <c r="AG28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>85</v>
-      </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,61 +4303,61 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CSM Scolar Resita</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bihor Oradea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="J29" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,64 +4366,64 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>CSM Scolar Resita</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ayutthaya United</t>
+          <t>Bihor Oradea</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
-        <v>6.6</v>
+        <v>950</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.91</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,66 +4568,66 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Ayutthaya United</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K31" t="n">
         <v>6.6</v>
       </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.24</v>
+        <v>1.64</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -4636,58 +4636,58 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.28</v>
+        <v>1.77</v>
       </c>
       <c r="G32" t="n">
-        <v>2.56</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>2.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,62 +4843,62 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.75</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
@@ -4906,58 +4906,58 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TSV Havelse</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>2.28</v>
       </c>
       <c r="G34" t="n">
-        <v>5.8</v>
+        <v>2.58</v>
       </c>
       <c r="H34" t="n">
-        <v>1.6</v>
+        <v>2.82</v>
       </c>
       <c r="I34" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>TSV Havelse</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.93</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>2.12</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.84</v>
+        <v>1.51</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="G36" t="n">
         <v>1.71</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1.9</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.82</v>
+        <v>1.23</v>
       </c>
       <c r="G37" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>2.82</v>
       </c>
       <c r="I37" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>1.85</v>
       </c>
       <c r="K37" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5527,40 +5527,40 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G38" t="n">
         <v>2.98</v>
       </c>
       <c r="H38" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J38" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="n">
         <v>3.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M38" t="n">
         <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O38" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R38" t="n">
         <v>1.21</v>
@@ -5569,25 +5569,25 @@
         <v>4.7</v>
       </c>
       <c r="T38" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V38" t="n">
         <v>1.42</v>
       </c>
       <c r="W38" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
@@ -5599,10 +5599,10 @@
         <v>7.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE38" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF38" t="n">
         <v>18</v>
@@ -5617,28 +5617,28 @@
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN38" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="G39" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>2.54</v>
+        <v>3.85</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,31 +5788,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -6058,12 +6058,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,36 +6188,36 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Puskas Akademia</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,31 +6328,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Puskas Akademia</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.02</v>
+        <v>2.92</v>
       </c>
       <c r="G44" t="n">
-        <v>2.24</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="I44" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="J44" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,36 +6458,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,61 +6598,61 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="G46" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="H46" t="n">
-        <v>2.66</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="J46" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="R46" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,64 +6661,64 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Slovacko</t>
+          <t>NK Maribor</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,62 +6868,62 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F48" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U48" t="n">
         <v>2.06</v>
       </c>
-      <c r="G48" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
@@ -6931,58 +6931,58 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7003,31 +7003,31 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Slovacko</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="G49" t="n">
-        <v>5.3</v>
+        <v>9.4</v>
       </c>
       <c r="H49" t="n">
-        <v>1.89</v>
+        <v>1.49</v>
       </c>
       <c r="I49" t="n">
-        <v>2.04</v>
+        <v>1.61</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K49" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,31 +7138,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>Zlin</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G50" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H50" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J50" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K50" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7171,16 +7171,16 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7273,31 +7273,31 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Zlin</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.08</v>
+        <v>4.4</v>
       </c>
       <c r="G51" t="n">
-        <v>2.34</v>
+        <v>5.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="I51" t="n">
-        <v>3.85</v>
+        <v>2.04</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7477,7 +7477,7 @@
         <v>15.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AA52" t="n">
         <v>80</v>
@@ -7504,19 +7504,19 @@
         <v>18</v>
       </c>
       <c r="AI52" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="n">
         <v>25</v>
       </c>
       <c r="AK52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL52" t="n">
         <v>36</v>
       </c>
       <c r="AM52" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN52" t="n">
         <v>14</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G53" t="n">
         <v>2.26</v>
@@ -7576,16 +7576,16 @@
         <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O53" t="n">
         <v>1.32</v>
       </c>
       <c r="P53" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R53" t="n">
         <v>1.37</v>
@@ -7612,7 +7612,7 @@
         <v>14</v>
       </c>
       <c r="Z53" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA53" t="n">
         <v>75</v>
@@ -7627,7 +7627,7 @@
         <v>15.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF53" t="n">
         <v>14</v>
@@ -7636,7 +7636,7 @@
         <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI53" t="n">
         <v>55</v>
@@ -7651,13 +7651,13 @@
         <v>40</v>
       </c>
       <c r="AM53" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN53" t="n">
         <v>17.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G54" t="n">
         <v>6.4</v>
@@ -7699,7 +7699,7 @@
         <v>1.54</v>
       </c>
       <c r="J54" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K54" t="n">
         <v>5.5</v>
@@ -7714,19 +7714,19 @@
         <v>8.6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P54" t="n">
         <v>3.55</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R54" t="n">
         <v>2.04</v>
       </c>
       <c r="S54" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T54" t="n">
         <v>1.52</v>
@@ -7741,55 +7741,55 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y54" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB54" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AC54" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF54" t="n">
         <v>80</v>
       </c>
       <c r="AG54" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH54" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI54" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ54" t="n">
         <v>180</v>
       </c>
       <c r="AK54" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL54" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN54" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AO54" t="n">
         <v>4.2</v>
@@ -7828,7 +7828,7 @@
         <v>4.2</v>
       </c>
       <c r="H55" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I55" t="n">
         <v>2.08</v>
@@ -7852,16 +7852,16 @@
         <v>1.32</v>
       </c>
       <c r="P55" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q55" t="n">
         <v>1.98</v>
       </c>
       <c r="R55" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S55" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T55" t="n">
         <v>1.82</v>
@@ -7876,46 +7876,46 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z55" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA55" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD55" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE55" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF55" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI55" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
         <v>60</v>
@@ -7924,10 +7924,10 @@
         <v>120</v>
       </c>
       <c r="AN55" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO55" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -7996,7 +7996,7 @@
         <v>1.58</v>
       </c>
       <c r="S56" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T56" t="n">
         <v>1.62</v>
@@ -8017,52 +8017,52 @@
         <v>12.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB56" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC56" t="n">
         <v>9.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG56" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI56" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ56" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="n">
         <v>48</v>
       </c>
       <c r="AL56" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM56" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AO56" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -8098,16 +8098,16 @@
         <v>1.84</v>
       </c>
       <c r="H57" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="G58" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H58" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I58" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J58" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K58" t="n">
         <v>1000</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="H59" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="I59" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K59" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G60" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H60" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I60" t="n">
         <v>5.7</v>
       </c>
       <c r="J60" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K60" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q60" t="n">
         <v>2.04</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,31 +8623,31 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.73</v>
+        <v>3.65</v>
       </c>
       <c r="G61" t="n">
-        <v>1.88</v>
+        <v>4.3</v>
       </c>
       <c r="H61" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="I61" t="n">
-        <v>5.8</v>
+        <v>2.36</v>
       </c>
       <c r="J61" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8773,13 +8773,13 @@
         <v>3.95</v>
       </c>
       <c r="H62" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I62" t="n">
         <v>2.38</v>
       </c>
       <c r="J62" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
         <v>3.65</v>
@@ -8800,7 +8800,7 @@
         <v>1.79</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>2.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,32 +9028,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.65</v>
+        <v>1.71</v>
       </c>
       <c r="G64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K64" t="n">
         <v>4.3</v>
       </c>
-      <c r="H64" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>4.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K65" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>1.29</v>
       </c>
       <c r="H66" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n">
         <v>13.5</v>
@@ -9352,7 +9352,7 @@
         <v>2.08</v>
       </c>
       <c r="U66" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -9361,19 +9361,19 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y66" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="Z66" t="n">
         <v>1000</v>
       </c>
       <c r="AA66" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="AB66" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC66" t="n">
         <v>16</v>
@@ -9382,10 +9382,10 @@
         <v>48</v>
       </c>
       <c r="AE66" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AF66" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG66" t="n">
         <v>11.5</v>
@@ -9412,7 +9412,7 @@
         <v>4.1</v>
       </c>
       <c r="AO66" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67">
@@ -9442,112 +9442,112 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="G67" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K67" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L67" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O67" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P67" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="R67" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="S67" t="n">
-        <v>3.45</v>
+        <v>1.33</v>
       </c>
       <c r="T67" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U67" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W67" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="X67" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y67" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Z67" t="n">
         <v>44</v>
       </c>
       <c r="AA67" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB67" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC67" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE67" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF67" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AG67" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI67" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL67" t="n">
         <v>44</v>
       </c>
       <c r="AM67" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN67" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AO67" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G68" t="n">
         <v>2.26</v>
@@ -9601,28 +9601,28 @@
         <v>1.09</v>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O68" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P68" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R68" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T68" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U68" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9631,28 +9631,28 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z68" t="n">
         <v>27</v>
       </c>
       <c r="AA68" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AB68" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC68" t="n">
         <v>7.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE68" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AF68" t="n">
         <v>13.5</v>
@@ -9661,28 +9661,28 @@
         <v>11.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI68" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ68" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK68" t="n">
         <v>27</v>
       </c>
       <c r="AL68" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AM68" t="n">
         <v>130</v>
       </c>
       <c r="AN68" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -9850,7 +9850,7 @@
         <v>2.72</v>
       </c>
       <c r="G70" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H70" t="n">
         <v>2.5</v>
@@ -9868,7 +9868,7 @@
         <v>1.29</v>
       </c>
       <c r="M70" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
         <v>4.9</v>
@@ -9877,7 +9877,7 @@
         <v>1.2</v>
       </c>
       <c r="P70" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q70" t="n">
         <v>1.6</v>
@@ -9898,61 +9898,61 @@
         <v>1.6</v>
       </c>
       <c r="W70" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X70" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z70" t="n">
         <v>23</v>
       </c>
-      <c r="Y70" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>21</v>
-      </c>
       <c r="AA70" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI70" t="n">
         <v>38</v>
       </c>
-      <c r="AB70" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ70" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL70" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM70" t="n">
         <v>60</v>
       </c>
       <c r="AN70" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO70" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="71">
@@ -9982,64 +9982,64 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="G71" t="n">
-        <v>1.62</v>
+        <v>3.05</v>
       </c>
       <c r="H71" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="I71" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J71" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K71" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="L71" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O71" t="n">
         <v>1.26</v>
       </c>
       <c r="P71" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R71" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S71" t="n">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="T71" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U71" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="W71" t="n">
-        <v>2.62</v>
+        <v>1.49</v>
       </c>
       <c r="X71" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z71" t="n">
         <v>1000</v>
@@ -10048,43 +10048,43 @@
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD71" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE71" t="n">
         <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG71" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH71" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI71" t="n">
         <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK71" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL71" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM71" t="n">
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10120,7 +10120,7 @@
         <v>1.32</v>
       </c>
       <c r="G72" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H72" t="n">
         <v>11.5</v>
@@ -10141,7 +10141,7 @@
         <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O72" t="n">
         <v>1.21</v>
@@ -10153,16 +10153,16 @@
         <v>1.64</v>
       </c>
       <c r="R72" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S72" t="n">
         <v>2.62</v>
       </c>
       <c r="T72" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U72" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -10180,19 +10180,19 @@
         <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="AB72" t="n">
         <v>9.6</v>
       </c>
       <c r="AC72" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD72" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE72" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF72" t="n">
         <v>8.199999999999999</v>
@@ -10201,19 +10201,19 @@
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI72" t="n">
         <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK72" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL72" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AM72" t="n">
         <v>220</v>
@@ -10258,46 +10258,46 @@
         <v>2.34</v>
       </c>
       <c r="H73" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K73" t="n">
         <v>3.95</v>
       </c>
       <c r="L73" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O73" t="n">
         <v>1.31</v>
       </c>
       <c r="P73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q73" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q73" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R73" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S73" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T73" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U73" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V73" t="n">
         <v>1.33</v>
@@ -10306,7 +10306,7 @@
         <v>1.75</v>
       </c>
       <c r="X73" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y73" t="n">
         <v>15</v>
@@ -10327,7 +10327,7 @@
         <v>16</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF73" t="n">
         <v>15</v>
@@ -10354,10 +10354,10 @@
         <v>1000</v>
       </c>
       <c r="AN73" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -10387,13 +10387,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G74" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I74" t="n">
         <v>2.3</v>
@@ -10414,10 +10414,10 @@
         <v>5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P74" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q74" t="n">
         <v>1.7</v>
@@ -10426,13 +10426,13 @@
         <v>1.55</v>
       </c>
       <c r="S74" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T74" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="U74" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y74" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z74" t="n">
         <v>16</v>
@@ -10453,7 +10453,7 @@
         <v>29</v>
       </c>
       <c r="AB74" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC74" t="n">
         <v>8.6</v>
@@ -10462,34 +10462,34 @@
         <v>11</v>
       </c>
       <c r="AE74" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG74" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH74" t="n">
         <v>14.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AJ74" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AK74" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL74" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM74" t="n">
         <v>65</v>
       </c>
       <c r="AN74" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AO74" t="n">
         <v>13</v>
@@ -10522,13 +10522,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G75" t="n">
         <v>2.4</v>
       </c>
       <c r="H75" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I75" t="n">
         <v>3.3</v>
@@ -10552,13 +10552,13 @@
         <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R75" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S75" t="n">
         <v>3.2</v>
@@ -10579,13 +10579,13 @@
         <v>16</v>
       </c>
       <c r="Y75" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA75" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB75" t="n">
         <v>11.5</v>
@@ -10594,10 +10594,10 @@
         <v>7.8</v>
       </c>
       <c r="AD75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE75" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF75" t="n">
         <v>16</v>
@@ -10609,13 +10609,13 @@
         <v>15.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ75" t="n">
         <v>32</v>
       </c>
       <c r="AK75" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL75" t="n">
         <v>36</v>
@@ -10627,7 +10627,7 @@
         <v>17</v>
       </c>
       <c r="AO75" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -10657,46 +10657,46 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G76" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I76" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
         <v>3.35</v>
       </c>
       <c r="K76" t="n">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
       <c r="L76" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O76" t="n">
         <v>1.28</v>
       </c>
       <c r="P76" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Q76" t="n">
         <v>1.69</v>
       </c>
       <c r="R76" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S76" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10792,13 +10792,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G77" t="n">
         <v>2.96</v>
       </c>
       <c r="H77" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -10822,7 +10822,7 @@
         <v>1.55</v>
       </c>
       <c r="P77" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q77" t="n">
         <v>2.64</v>
@@ -10837,7 +10837,7 @@
         <v>2.12</v>
       </c>
       <c r="U77" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -10852,10 +10852,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z77" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB77" t="n">
         <v>8.6</v>
@@ -10864,7 +10864,7 @@
         <v>7</v>
       </c>
       <c r="AD77" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE77" t="n">
         <v>48</v>
@@ -10876,28 +10876,28 @@
         <v>14</v>
       </c>
       <c r="AH77" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI77" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ77" t="n">
         <v>55</v>
       </c>
       <c r="AK77" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL77" t="n">
         <v>70</v>
       </c>
       <c r="AM77" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN77" t="n">
         <v>55</v>
       </c>
       <c r="AO77" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
@@ -10939,7 +10939,7 @@
         <v>5.8</v>
       </c>
       <c r="J78" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K78" t="n">
         <v>3.45</v>
@@ -11065,10 +11065,10 @@
         <v>4.8</v>
       </c>
       <c r="G79" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H79" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I79" t="n">
         <v>1.64</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="n">
         <v>1.33</v>
@@ -11197,19 +11197,19 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G80" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H80" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="I80" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J80" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="K80" t="n">
         <v>950</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11332,91 +11332,91 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="G81" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H81" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I81" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J81" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K81" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S81" t="n">
         <v>3.55</v>
       </c>
-      <c r="L81" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P81" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S81" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T81" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U81" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V81" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W81" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X81" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y81" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA81" t="n">
         <v>28</v>
       </c>
       <c r="AB81" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC81" t="n">
         <v>8</v>
       </c>
       <c r="AD81" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
         <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AH81" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI81" t="n">
         <v>1000</v>
@@ -11431,13 +11431,13 @@
         <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN81" t="n">
         <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G82" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="H82" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I82" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K82" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11602,10 +11602,10 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G83" t="n">
         <v>5.2</v>
-      </c>
-      <c r="G83" t="n">
-        <v>5.4</v>
       </c>
       <c r="H83" t="n">
         <v>1.74</v>
@@ -11617,7 +11617,7 @@
         <v>4.2</v>
       </c>
       <c r="K83" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L83" t="n">
         <v>1.29</v>
@@ -11635,7 +11635,7 @@
         <v>2.2</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R83" t="n">
         <v>1.47</v>
@@ -11656,19 +11656,19 @@
         <v>1.23</v>
       </c>
       <c r="X83" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z83" t="n">
         <v>11.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB83" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC83" t="n">
         <v>9.800000000000001</v>
@@ -11677,34 +11677,34 @@
         <v>10.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG83" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH83" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ83" t="n">
         <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL83" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM83" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AO83" t="n">
         <v>9</v>
@@ -11743,16 +11743,16 @@
         <v>1.82</v>
       </c>
       <c r="H84" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I84" t="n">
         <v>5.7</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K84" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G85" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="H85" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I85" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="K85" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11902,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>3.45</v>
       </c>
       <c r="K87" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q87" t="n">
         <v>1.9</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I90" t="n">
         <v>4.7</v>
       </c>
       <c r="J90" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="K90" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G91" t="n">
         <v>1.59</v>
@@ -12697,7 +12697,7 @@
         <v>4.5</v>
       </c>
       <c r="K91" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -12712,13 +12712,13 @@
         <v>1.27</v>
       </c>
       <c r="P91" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q91" t="n">
         <v>1.83</v>
       </c>
       <c r="R91" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S91" t="n">
         <v>3.1</v>
@@ -12727,7 +12727,7 @@
         <v>1.95</v>
       </c>
       <c r="U91" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y91" t="n">
         <v>24</v>
@@ -12748,7 +12748,7 @@
         <v>250</v>
       </c>
       <c r="AB91" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC91" t="n">
         <v>10</v>
@@ -12763,7 +12763,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG91" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH91" t="n">
         <v>24</v>
@@ -12772,7 +12772,7 @@
         <v>95</v>
       </c>
       <c r="AJ91" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK91" t="n">
         <v>16.5</v>
@@ -12817,19 +12817,19 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="G92" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I92" t="n">
         <v>1000</v>
       </c>
       <c r="J92" t="n">
-        <v>4.7</v>
+        <v>2.92</v>
       </c>
       <c r="K92" t="n">
         <v>950</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.1</v>
+        <v>1.36</v>
       </c>
       <c r="G93" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="H93" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="I93" t="n">
         <v>2.12</v>
       </c>
       <c r="J93" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K93" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,112 +13087,112 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H94" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I94" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="J94" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K94" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="L94" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O94" t="n">
         <v>1.26</v>
       </c>
       <c r="P94" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="R94" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="S94" t="n">
-        <v>2.86</v>
+        <v>1.62</v>
       </c>
       <c r="T94" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W94" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X94" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z94" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA94" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC94" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD94" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG94" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH94" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL94" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO94" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
@@ -13225,7 +13225,7 @@
         <v>4.2</v>
       </c>
       <c r="G95" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H95" t="n">
         <v>1.93</v>
@@ -13276,13 +13276,13 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y95" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA95" t="n">
         <v>22</v>
@@ -13291,13 +13291,13 @@
         <v>19</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD95" t="n">
         <v>10</v>
       </c>
       <c r="AE95" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF95" t="n">
         <v>34</v>
@@ -13306,28 +13306,28 @@
         <v>17.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI95" t="n">
         <v>32</v>
       </c>
       <c r="AJ95" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK95" t="n">
         <v>60</v>
       </c>
       <c r="AL95" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM95" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN95" t="n">
         <v>42</v>
       </c>
       <c r="AO95" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="96">
@@ -13384,16 +13384,16 @@
         <v>6.6</v>
       </c>
       <c r="O96" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P96" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q96" t="n">
         <v>1.49</v>
       </c>
       <c r="R96" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S96" t="n">
         <v>2.2</v>
@@ -13414,7 +13414,7 @@
         <v>34</v>
       </c>
       <c r="Y96" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z96" t="n">
         <v>44</v>
@@ -13423,37 +13423,37 @@
         <v>110</v>
       </c>
       <c r="AB96" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC96" t="n">
         <v>11</v>
       </c>
       <c r="AD96" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE96" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF96" t="n">
         <v>15</v>
       </c>
       <c r="AG96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH96" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI96" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK96" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL96" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM96" t="n">
         <v>55</v>
@@ -13462,7 +13462,7 @@
         <v>6.8</v>
       </c>
       <c r="AO96" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -13495,7 +13495,7 @@
         <v>4.3</v>
       </c>
       <c r="G97" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H97" t="n">
         <v>1.79</v>
@@ -13504,7 +13504,7 @@
         <v>1.81</v>
       </c>
       <c r="J97" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K97" t="n">
         <v>4.8</v>
@@ -13537,7 +13537,7 @@
         <v>1.47</v>
       </c>
       <c r="U97" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V97" t="n">
         <v>0</v>
@@ -13549,55 +13549,55 @@
         <v>38</v>
       </c>
       <c r="Y97" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB97" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC97" t="n">
         <v>12</v>
       </c>
       <c r="AD97" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE97" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF97" t="n">
         <v>44</v>
       </c>
       <c r="AG97" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI97" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ97" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK97" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL97" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM97" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AN97" t="n">
         <v>24</v>
       </c>
       <c r="AO97" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="98">
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G98" t="n">
         <v>4.6</v>
@@ -13636,7 +13636,7 @@
         <v>1.9</v>
       </c>
       <c r="I98" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J98" t="n">
         <v>3.9</v>
@@ -13657,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="G99" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="I99" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J99" t="n">
         <v>3.5</v>
@@ -13807,7 +13807,7 @@
         <v>1.75</v>
       </c>
       <c r="U99" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -13816,37 +13816,37 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA99" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB99" t="n">
         <v>11.5</v>
       </c>
       <c r="AC99" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD99" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF99" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG99" t="n">
         <v>12.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI99" t="n">
         <v>46</v>
@@ -13855,19 +13855,19 @@
         <v>40</v>
       </c>
       <c r="AK99" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL99" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM99" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN99" t="n">
         <v>24</v>
       </c>
       <c r="AO99" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -13903,7 +13903,7 @@
         <v>3.45</v>
       </c>
       <c r="H100" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I100" t="n">
         <v>2.6</v>
@@ -13930,7 +13930,7 @@
         <v>1.74</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G101" t="n">
         <v>2.52</v>
@@ -14041,13 +14041,13 @@
         <v>3.15</v>
       </c>
       <c r="I101" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J101" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.62</v>
+        <v>1.29</v>
       </c>
       <c r="G102" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="H102" t="n">
-        <v>2.4</v>
+        <v>1.29</v>
       </c>
       <c r="I102" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="J102" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K102" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14302,19 +14302,19 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="G103" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="H103" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I103" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J103" t="n">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="K103" t="n">
         <v>4.1</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>2.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14437,19 +14437,19 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G104" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I104" t="n">
         <v>1000</v>
       </c>
       <c r="J104" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
         <v>950</v>
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G105" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H105" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I105" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J105" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="K105" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14740,7 +14740,7 @@
         <v>1.81</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14842,22 +14842,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G107" t="n">
         <v>1.82</v>
       </c>
       <c r="H107" t="n">
-        <v>4.2</v>
+        <v>2.22</v>
       </c>
       <c r="I107" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="J107" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="K107" t="n">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14977,13 +14977,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G108" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H108" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I108" t="n">
         <v>1.78</v>
@@ -15007,7 +15007,7 @@
         <v>1.33</v>
       </c>
       <c r="P108" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q108" t="n">
         <v>2.02</v>
@@ -15019,10 +15019,10 @@
         <v>3.6</v>
       </c>
       <c r="T108" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U108" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V108" t="n">
         <v>2.28</v>
@@ -15031,7 +15031,7 @@
         <v>1.22</v>
       </c>
       <c r="X108" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y108" t="n">
         <v>8.199999999999999</v>
@@ -15040,49 +15040,49 @@
         <v>10</v>
       </c>
       <c r="AA108" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH108" t="n">
         <v>22</v>
       </c>
-      <c r="AB108" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>24</v>
-      </c>
       <c r="AI108" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ108" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK108" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL108" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM108" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN108" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AO108" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="109">
@@ -15112,16 +15112,16 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G109" t="n">
         <v>1.22</v>
       </c>
       <c r="H109" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I109" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J109" t="n">
         <v>8.4</v>
@@ -15142,10 +15142,10 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G110" t="n">
         <v>6.6</v>
@@ -15280,7 +15280,7 @@
         <v>2</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R110" t="n">
         <v>1.39</v>
@@ -15301,10 +15301,10 @@
         <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y110" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z110" t="n">
         <v>10.5</v>
@@ -15313,13 +15313,13 @@
         <v>17</v>
       </c>
       <c r="AB110" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC110" t="n">
         <v>9.6</v>
       </c>
       <c r="AD110" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE110" t="n">
         <v>18</v>
@@ -15328,7 +15328,7 @@
         <v>1000</v>
       </c>
       <c r="AG110" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH110" t="n">
         <v>22</v>
@@ -15352,7 +15352,7 @@
         <v>1000</v>
       </c>
       <c r="AO110" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -15391,7 +15391,7 @@
         <v>2.26</v>
       </c>
       <c r="I111" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J111" t="n">
         <v>3.4</v>
@@ -15406,13 +15406,13 @@
         <v>1.1</v>
       </c>
       <c r="N111" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O111" t="n">
         <v>1.45</v>
       </c>
       <c r="P111" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q111" t="n">
         <v>2.32</v>
@@ -15424,7 +15424,7 @@
         <v>4.5</v>
       </c>
       <c r="T111" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U111" t="n">
         <v>1.93</v>
@@ -15457,37 +15457,37 @@
         <v>11.5</v>
       </c>
       <c r="AE111" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF111" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG111" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK111" t="n">
         <v>55</v>
       </c>
-      <c r="AJ111" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>60</v>
-      </c>
       <c r="AL111" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM111" t="n">
         <v>170</v>
       </c>
       <c r="AN111" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO111" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -15523,7 +15523,7 @@
         <v>1.34</v>
       </c>
       <c r="H112" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I112" t="n">
         <v>10.5</v>
@@ -15553,10 +15553,10 @@
         <v>1.44</v>
       </c>
       <c r="R112" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S112" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T112" t="n">
         <v>1.8</v>
@@ -15571,52 +15571,52 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y112" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z112" t="n">
         <v>120</v>
       </c>
       <c r="AA112" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AB112" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD112" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE112" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF112" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG112" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI112" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ112" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK112" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL112" t="n">
         <v>32</v>
       </c>
       <c r="AM112" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN112" t="n">
         <v>3.85</v>
@@ -15661,10 +15661,10 @@
         <v>2.08</v>
       </c>
       <c r="I113" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J113" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K113" t="n">
         <v>3.85</v>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="G114" t="n">
         <v>1.48</v>
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q114" t="n">
         <v>1.57</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO168"/>
+  <dimension ref="A1:AO169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>6.4</v>
@@ -682,7 +682,7 @@
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -706,13 +706,13 @@
         <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
         <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
         <v>1.16</v>
@@ -817,7 +817,7 @@
         <v>5.9</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -832,10 +832,10 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
         <v>1.59</v>
@@ -958,31 +958,31 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.72</v>
@@ -991,7 +991,7 @@
         <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
@@ -1075,7 +1075,7 @@
         <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1114,10 +1114,10 @@
         <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
         <v>1.23</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
         <v>1.89</v>
@@ -1216,13 +1216,13 @@
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1252,10 +1252,10 @@
         <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
         <v>2.12</v>
@@ -1363,10 +1363,10 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1375,19 +1375,19 @@
         <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.41</v>
@@ -1396,7 +1396,7 @@
         <v>1.68</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>15.5</v>
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
@@ -1516,7 +1516,7 @@
         <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
         <v>1.8</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
         <v>2.64</v>
@@ -1621,7 +1621,7 @@
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
@@ -1654,16 +1654,16 @@
         <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
         <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X9" t="n">
         <v>10.5</v>
@@ -1690,7 +1690,7 @@
         <v>50</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
         <v>970</v>
@@ -1750,13 +1750,13 @@
         <v>1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
         <v>4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
@@ -1798,7 +1798,7 @@
         <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1813,7 +1813,7 @@
         <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H11" t="n">
         <v>4.6</v>
@@ -1933,16 +1933,16 @@
         <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="n">
         <v>160</v>
@@ -1951,16 +1951,16 @@
         <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
         <v>1.58</v>
@@ -2194,7 +2194,7 @@
         <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
         <v>2.56</v>
@@ -2206,7 +2206,7 @@
         <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2221,7 +2221,7 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="I14" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>4.6</v>
@@ -2317,10 +2317,10 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
@@ -2329,16 +2329,16 @@
         <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2986,19 +2986,19 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q19" t="n">
         <v>1.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S19" t="n">
         <v>1.34</v>
@@ -3274,10 +3274,10 @@
         <v>1.19</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.01</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3394,10 +3394,10 @@
         <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q22" t="n">
         <v>2.02</v>
@@ -3406,25 +3406,25 @@
         <v>1.3</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.44</v>
+        <v>2.94</v>
       </c>
       <c r="G23" t="n">
         <v>4.3</v>
@@ -3514,10 +3514,10 @@
         <v>2.42</v>
       </c>
       <c r="J23" t="n">
-        <v>2.74</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>7.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.04</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -3535,19 +3535,19 @@
         <v>2.04</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.7</v>
@@ -3643,16 +3643,16 @@
         <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J24" t="n">
         <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,31 +3661,31 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="O24" t="n">
         <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
         <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W24" t="n">
         <v>1.73</v>
@@ -3910,10 +3910,10 @@
         <v>2.92</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I26" t="n">
         <v>2.74</v>
@@ -3931,13 +3931,13 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="Q26" t="n">
         <v>2.04</v>
@@ -3946,7 +3946,7 @@
         <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
         <v>1.79</v>
@@ -3964,31 +3964,31 @@
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
         <v>48</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>14.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
         <v>22</v>
@@ -4003,7 +4003,7 @@
         <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
@@ -4066,16 +4066,16 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R27" t="n">
         <v>1.33</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G28" t="n">
         <v>2.1</v>
@@ -4186,7 +4186,7 @@
         <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>3.8</v>
@@ -4201,34 +4201,34 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S28" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U28" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X28" t="n">
         <v>18</v>
@@ -4282,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -4318,7 +4318,7 @@
         <v>2.12</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>4.9</v>
@@ -4360,7 +4360,7 @@
         <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
         <v>1.89</v>
@@ -4522,10 +4522,10 @@
         <v>17.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>11.5</v>
@@ -4543,7 +4543,7 @@
         <v>970</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
         <v>70</v>
@@ -4627,7 +4627,7 @@
         <v>1.57</v>
       </c>
       <c r="U31" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V31" t="n">
         <v>1.43</v>
@@ -4735,7 +4735,7 @@
         <v>3.85</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4756,13 +4756,13 @@
         <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T32" t="n">
         <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
         <v>1.45</v>
@@ -4783,13 +4783,13 @@
         <v>60</v>
       </c>
       <c r="AB32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC32" t="n">
         <v>11</v>
       </c>
       <c r="AD32" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
         <v>38</v>
@@ -4801,7 +4801,7 @@
         <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
         <v>44</v>
@@ -4861,7 +4861,7 @@
         <v>2.76</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4993,16 +4993,16 @@
         <v>4.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
         <v>2.02</v>
       </c>
       <c r="J34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.43</v>
@@ -5017,10 +5017,10 @@
         <v>1.39</v>
       </c>
       <c r="P34" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
         <v>1.3</v>
@@ -5044,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>11</v>
@@ -5053,10 +5053,10 @@
         <v>23</v>
       </c>
       <c r="AB34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
         <v>10</v>
@@ -5071,7 +5071,7 @@
         <v>17.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
         <v>42</v>
@@ -5146,13 +5146,13 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="O35" t="n">
         <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q35" t="n">
         <v>1.02</v>
@@ -5266,7 +5266,7 @@
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
@@ -5305,7 +5305,7 @@
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W36" t="n">
         <v>1.87</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G37" t="n">
         <v>2.2</v>
@@ -5407,7 +5407,7 @@
         <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5425,7 +5425,7 @@
         <v>1.99</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
@@ -5689,7 +5689,7 @@
         <v>1.03</v>
       </c>
       <c r="O39" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P39" t="n">
         <v>1.32</v>
@@ -5824,10 +5824,10 @@
         <v>3.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P40" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q40" t="n">
         <v>2.2</v>
@@ -5839,10 +5839,10 @@
         <v>4.2</v>
       </c>
       <c r="T40" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V40" t="n">
         <v>1.16</v>
@@ -5860,7 +5860,7 @@
         <v>55</v>
       </c>
       <c r="AA40" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB40" t="n">
         <v>7</v>
@@ -5896,10 +5896,10 @@
         <v>48</v>
       </c>
       <c r="AM40" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO40" t="n">
         <v>190</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="G41" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>4.6</v>
+        <v>950</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5962,10 +5962,10 @@
         <v>1.19</v>
       </c>
       <c r="P41" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R41" t="n">
         <v>1.39</v>
@@ -5980,10 +5980,10 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W41" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6475,13 +6475,13 @@
         <v>1.62</v>
       </c>
       <c r="G45" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>5.6</v>
       </c>
       <c r="I45" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J45" t="n">
         <v>3.9</v>
@@ -6496,16 +6496,16 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="O45" t="n">
         <v>1.28</v>
       </c>
       <c r="P45" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="R45" t="n">
         <v>1.3</v>
@@ -6514,7 +6514,7 @@
         <v>2.82</v>
       </c>
       <c r="T45" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U45" t="n">
         <v>1.01</v>
@@ -6631,7 +6631,7 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="O46" t="n">
         <v>1.28</v>
@@ -6640,7 +6640,7 @@
         <v>1.99</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R46" t="n">
         <v>1.37</v>
@@ -6649,10 +6649,10 @@
         <v>2.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V46" t="n">
         <v>1.28</v>
@@ -6661,7 +6661,7 @@
         <v>1.97</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y46" t="n">
         <v>23</v>
@@ -6673,37 +6673,37 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC46" t="n">
         <v>12.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE46" t="n">
         <v>75</v>
       </c>
       <c r="AF46" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL46" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6760,10 +6760,10 @@
         <v>3.3</v>
       </c>
       <c r="L47" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N47" t="n">
         <v>2.52</v>
@@ -7150,16 +7150,16 @@
         <v>2.84</v>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H50" t="n">
         <v>2.58</v>
       </c>
       <c r="I50" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J50" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K50" t="n">
         <v>3.85</v>
@@ -7195,7 +7195,7 @@
         <v>2.08</v>
       </c>
       <c r="V50" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W50" t="n">
         <v>1.44</v>
@@ -7453,7 +7453,7 @@
         <v>1.8</v>
       </c>
       <c r="R52" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S52" t="n">
         <v>1.8</v>
@@ -7690,7 +7690,7 @@
         <v>1.9</v>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H54" t="n">
         <v>3.7</v>
@@ -7981,7 +7981,7 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="O56" t="n">
         <v>1.28</v>
@@ -7996,7 +7996,7 @@
         <v>1.42</v>
       </c>
       <c r="S56" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="T56" t="n">
         <v>1.63</v>
@@ -8095,7 +8095,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H57" t="n">
         <v>3.35</v>
@@ -8119,7 +8119,7 @@
         <v>2.36</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P57" t="n">
         <v>2.36</v>
@@ -8143,7 +8143,7 @@
         <v>1.31</v>
       </c>
       <c r="W57" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8194,7 +8194,7 @@
         <v>90</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8260,7 +8260,7 @@
         <v>1.67</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R58" t="n">
         <v>1.24</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="G59" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="H59" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I59" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J59" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K59" t="n">
         <v>4.1</v>
@@ -8386,22 +8386,22 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="O59" t="n">
         <v>1.27</v>
       </c>
       <c r="P59" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R59" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S59" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="T59" t="n">
         <v>1.01</v>
@@ -8410,10 +8410,10 @@
         <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W59" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G60" t="n">
         <v>8.6</v>
       </c>
       <c r="H60" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="I60" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J60" t="n">
         <v>4.2</v>
@@ -8545,7 +8545,7 @@
         <v>1.98</v>
       </c>
       <c r="V60" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W60" t="n">
         <v>1.14</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G61" t="n">
         <v>2.92</v>
@@ -8647,7 +8647,7 @@
         <v>3.25</v>
       </c>
       <c r="K61" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L61" t="n">
         <v>1.47</v>
@@ -8656,10 +8656,10 @@
         <v>1.09</v>
       </c>
       <c r="N61" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P61" t="n">
         <v>1.8</v>
@@ -8668,7 +8668,7 @@
         <v>2.2</v>
       </c>
       <c r="R61" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S61" t="n">
         <v>4</v>
@@ -8677,7 +8677,7 @@
         <v>1.87</v>
       </c>
       <c r="U61" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V61" t="n">
         <v>1.54</v>
@@ -8686,7 +8686,7 @@
         <v>1.52</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y61" t="n">
         <v>10.5</v>
@@ -8734,7 +8734,7 @@
         <v>110</v>
       </c>
       <c r="AN61" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO61" t="n">
         <v>32</v>
@@ -8926,7 +8926,7 @@
         <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="O63" t="n">
         <v>1.13</v>
@@ -9043,7 +9043,7 @@
         <v>2.2</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I64" t="n">
         <v>4.1</v>
@@ -9052,7 +9052,7 @@
         <v>3.6</v>
       </c>
       <c r="K64" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L64" t="n">
         <v>1.37</v>
@@ -9196,13 +9196,13 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O65" t="n">
         <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q65" t="n">
         <v>1.94</v>
@@ -9352,7 +9352,7 @@
         <v>1.58</v>
       </c>
       <c r="U66" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V66" t="n">
         <v>1.16</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="G67" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>2.74</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J67" t="n">
         <v>3.6</v>
       </c>
       <c r="K67" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
@@ -9583,16 +9583,16 @@
         <v>4.1</v>
       </c>
       <c r="H68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I68" t="n">
         <v>1.98</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9610,22 +9610,22 @@
         <v>2.44</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R68" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S68" t="n">
         <v>2.64</v>
       </c>
       <c r="T68" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U68" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W68" t="n">
         <v>1.32</v>
@@ -9658,7 +9658,7 @@
         <v>32</v>
       </c>
       <c r="AG68" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH68" t="n">
         <v>15.5</v>
@@ -9673,13 +9673,13 @@
         <v>40</v>
       </c>
       <c r="AL68" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM68" t="n">
         <v>65</v>
       </c>
       <c r="AN68" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO68" t="n">
         <v>9.6</v>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G69" t="n">
         <v>2.06</v>
@@ -9745,19 +9745,19 @@
         <v>2.06</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R69" t="n">
         <v>1.41</v>
       </c>
       <c r="S69" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T69" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U69" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V69" t="n">
         <v>1.32</v>
@@ -9775,7 +9775,7 @@
         <v>29</v>
       </c>
       <c r="AA69" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB69" t="n">
         <v>10</v>
@@ -9784,7 +9784,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD69" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE69" t="n">
         <v>46</v>
@@ -9850,7 +9850,7 @@
         <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H70" t="n">
         <v>1.52</v>
@@ -9862,7 +9862,7 @@
         <v>5.4</v>
       </c>
       <c r="K70" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L70" t="n">
         <v>1.19</v>
@@ -9871,7 +9871,7 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O70" t="n">
         <v>1.12</v>
@@ -9892,13 +9892,13 @@
         <v>1.53</v>
       </c>
       <c r="U70" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V70" t="n">
         <v>2.88</v>
       </c>
       <c r="W70" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X70" t="n">
         <v>42</v>
@@ -9952,7 +9952,7 @@
         <v>38</v>
       </c>
       <c r="AO70" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="71">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G71" t="n">
         <v>2.26</v>
@@ -9991,7 +9991,7 @@
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J71" t="n">
         <v>3.55</v>
@@ -10030,7 +10030,7 @@
         <v>2.18</v>
       </c>
       <c r="V71" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W71" t="n">
         <v>1.79</v>
@@ -10141,7 +10141,7 @@
         <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O72" t="n">
         <v>1.32</v>
@@ -10159,7 +10159,7 @@
         <v>3.45</v>
       </c>
       <c r="T72" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U72" t="n">
         <v>2.14</v>
@@ -10255,7 +10255,7 @@
         <v>2.08</v>
       </c>
       <c r="G73" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="H73" t="n">
         <v>3</v>
@@ -10276,34 +10276,34 @@
         <v>1.04</v>
       </c>
       <c r="N73" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="O73" t="n">
         <v>1.26</v>
       </c>
       <c r="P73" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R73" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="S73" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T73" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="U73" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="V73" t="n">
         <v>1.35</v>
       </c>
       <c r="W73" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="X73" t="n">
         <v>22</v>
@@ -10423,7 +10423,7 @@
         <v>1.78</v>
       </c>
       <c r="R74" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S74" t="n">
         <v>1.78</v>
@@ -10558,7 +10558,7 @@
         <v>1.76</v>
       </c>
       <c r="R75" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S75" t="n">
         <v>1.76</v>
@@ -10687,7 +10687,7 @@
         <v>1.27</v>
       </c>
       <c r="P76" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q76" t="n">
         <v>1.94</v>
@@ -10696,7 +10696,7 @@
         <v>1.32</v>
       </c>
       <c r="S76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T76" t="n">
         <v>1.74</v>
@@ -10705,7 +10705,7 @@
         <v>2.08</v>
       </c>
       <c r="V76" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W76" t="n">
         <v>1.47</v>
@@ -10726,7 +10726,7 @@
         <v>14</v>
       </c>
       <c r="AC76" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD76" t="n">
         <v>14.5</v>
@@ -10756,7 +10756,7 @@
         <v>55</v>
       </c>
       <c r="AM76" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN76" t="n">
         <v>38</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G78" t="n">
         <v>3.15</v>
@@ -10942,7 +10942,7 @@
         <v>3.2</v>
       </c>
       <c r="K78" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -10951,7 +10951,7 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="O78" t="n">
         <v>1.01</v>
@@ -10960,7 +10960,7 @@
         <v>1.89</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="R78" t="n">
         <v>1.32</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G80" t="n">
         <v>3.15</v>
       </c>
       <c r="H80" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I80" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J80" t="n">
         <v>3.5</v>
       </c>
       <c r="K80" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L80" t="n">
         <v>1.28</v>
@@ -11221,25 +11221,25 @@
         <v>1.05</v>
       </c>
       <c r="N80" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O80" t="n">
         <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R80" t="n">
         <v>1.44</v>
       </c>
       <c r="S80" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T80" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U80" t="n">
         <v>2.28</v>
@@ -11248,7 +11248,7 @@
         <v>1.59</v>
       </c>
       <c r="W80" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X80" t="n">
         <v>21</v>
@@ -11260,7 +11260,7 @@
         <v>19</v>
       </c>
       <c r="AA80" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB80" t="n">
         <v>15</v>
@@ -11302,7 +11302,7 @@
         <v>25</v>
       </c>
       <c r="AO80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G81" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I81" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J81" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
         <v>3.8</v>
@@ -11356,76 +11356,76 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="O81" t="n">
         <v>1.29</v>
       </c>
       <c r="P81" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q81" t="n">
         <v>2.04</v>
       </c>
       <c r="R81" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S81" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T81" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U81" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V81" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W81" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="X81" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y81" t="n">
         <v>20</v>
       </c>
       <c r="Z81" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA81" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC81" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE81" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH81" t="n">
         <v>25</v>
       </c>
       <c r="AI81" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ81" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AK81" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL81" t="n">
         <v>50</v>
@@ -11473,7 +11473,7 @@
         <v>3.85</v>
       </c>
       <c r="H82" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I82" t="n">
         <v>2.38</v>
@@ -11572,7 +11572,7 @@
         <v>75</v>
       </c>
       <c r="AO82" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -11662,7 +11662,7 @@
         <v>24</v>
       </c>
       <c r="Z83" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA83" t="n">
         <v>190</v>
@@ -11692,13 +11692,13 @@
         <v>75</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK83" t="n">
         <v>17</v>
       </c>
       <c r="AL83" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM83" t="n">
         <v>120</v>
@@ -11749,7 +11749,7 @@
         <v>5.7</v>
       </c>
       <c r="J84" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K84" t="n">
         <v>4.2</v>
@@ -11779,10 +11779,10 @@
         <v>2.84</v>
       </c>
       <c r="T84" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U84" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V84" t="n">
         <v>1.21</v>
@@ -11803,10 +11803,10 @@
         <v>160</v>
       </c>
       <c r="AB84" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC84" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD84" t="n">
         <v>25</v>
@@ -12007,19 +12007,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="H86" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I86" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="J86" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K86" t="n">
         <v>4.3</v>
@@ -12031,40 +12031,40 @@
         <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O86" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P86" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R86" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S86" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="T86" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U86" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V86" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W86" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="X86" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y86" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z86" t="n">
         <v>28</v>
@@ -12073,43 +12073,43 @@
         <v>60</v>
       </c>
       <c r="AB86" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC86" t="n">
         <v>11</v>
       </c>
       <c r="AD86" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE86" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF86" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG86" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH86" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI86" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ86" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AK86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL86" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM86" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO86" t="n">
         <v>26</v>
@@ -12283,46 +12283,46 @@
         <v>1.16</v>
       </c>
       <c r="H88" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I88" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="J88" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K88" t="n">
         <v>13.5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M88" t="n">
         <v>1.02</v>
       </c>
       <c r="N88" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="O88" t="n">
         <v>1.12</v>
       </c>
       <c r="P88" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="R88" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="S88" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T88" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="U88" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="V88" t="n">
         <v>1.03</v>
@@ -12331,10 +12331,10 @@
         <v>7.2</v>
       </c>
       <c r="X88" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y88" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Z88" t="n">
         <v>1000</v>
@@ -12343,13 +12343,13 @@
         <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC88" t="n">
         <v>26</v>
       </c>
       <c r="AD88" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AE88" t="n">
         <v>1000</v>
@@ -12361,7 +12361,7 @@
         <v>16</v>
       </c>
       <c r="AH88" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI88" t="n">
         <v>1000</v>
@@ -12370,16 +12370,16 @@
         <v>8.6</v>
       </c>
       <c r="AK88" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL88" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM88" t="n">
         <v>1000</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="AO88" t="n">
         <v>1000</v>
@@ -12424,7 +12424,7 @@
         <v>7.2</v>
       </c>
       <c r="J89" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K89" t="n">
         <v>5.1</v>
@@ -12466,7 +12466,7 @@
         <v>2.1</v>
       </c>
       <c r="X89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y89" t="n">
         <v>29</v>
@@ -12571,13 +12571,13 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="O90" t="n">
         <v>1.01</v>
       </c>
       <c r="P90" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q90" t="n">
         <v>1.02</v>
@@ -12586,7 +12586,7 @@
         <v>1.18</v>
       </c>
       <c r="S90" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T90" t="n">
         <v>1.01</v>
@@ -12706,13 +12706,13 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="O91" t="n">
         <v>1.01</v>
       </c>
       <c r="P91" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q91" t="n">
         <v>1.02</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G92" t="n">
         <v>2.06</v>
@@ -12832,7 +12832,7 @@
         <v>3.3</v>
       </c>
       <c r="K92" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L92" t="n">
         <v>1.32</v>
@@ -12847,13 +12847,13 @@
         <v>1.32</v>
       </c>
       <c r="P92" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q92" t="n">
         <v>1.32</v>
       </c>
       <c r="R92" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="S92" t="n">
         <v>2.92</v>
@@ -12970,7 +12970,7 @@
         <v>4.2</v>
       </c>
       <c r="L93" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
@@ -13096,7 +13096,7 @@
         <v>5.3</v>
       </c>
       <c r="I94" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J94" t="n">
         <v>3.85</v>
@@ -13120,13 +13120,13 @@
         <v>2</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R94" t="n">
         <v>1.41</v>
       </c>
       <c r="S94" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13135,7 +13135,7 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W94" t="n">
         <v>2.36</v>
@@ -13198,7 +13198,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13213,121 +13213,121 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="G95" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="H95" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="I95" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="J95" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N95" t="n">
         <v>3.5</v>
       </c>
-      <c r="K95" t="n">
-        <v>7</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N95" t="n">
-        <v>1.79</v>
-      </c>
       <c r="O95" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P95" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R95" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S95" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="T95" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U95" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V95" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="W95" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="X95" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z95" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA95" t="n">
         <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC95" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD95" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE95" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF95" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG95" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI95" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ95" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK95" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL95" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM95" t="n">
         <v>1000</v>
       </c>
       <c r="AN95" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO95" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -13348,127 +13348,127 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="G96" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H96" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I96" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="J96" t="n">
         <v>3.45</v>
       </c>
       <c r="K96" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="L96" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="M96" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N96" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O96" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P96" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="R96" t="n">
         <v>1.33</v>
       </c>
       <c r="S96" t="n">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="T96" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U96" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="W96" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X96" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y96" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z96" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA96" t="n">
         <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC96" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD96" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE96" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG96" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH96" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI96" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK96" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL96" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM96" t="n">
         <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13483,121 +13483,121 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G97" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="H97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I97" t="n">
         <v>3.3</v>
       </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K97" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X97" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG97" t="n">
         <v>11</v>
       </c>
-      <c r="L97" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N97" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R97" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S97" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T97" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U97" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V97" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W97" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH97" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI97" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ97" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK97" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL97" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM97" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN97" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO97" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
@@ -13618,121 +13618,121 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="G98" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I98" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="J98" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L98" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
         <v>1.36</v>
       </c>
-      <c r="M98" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N98" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P98" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R98" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S98" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T98" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U98" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W98" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="X98" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y98" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z98" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA98" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB98" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC98" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD98" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE98" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AF98" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AG98" t="n">
         <v>11</v>
       </c>
       <c r="AH98" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AI98" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ98" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL98" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM98" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN98" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AO98" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -13753,121 +13753,121 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.26</v>
+        <v>1.31</v>
       </c>
       <c r="G99" t="n">
-        <v>2.28</v>
+        <v>1.32</v>
       </c>
       <c r="H99" t="n">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="I99" t="n">
-        <v>3.8</v>
+        <v>12.5</v>
       </c>
       <c r="J99" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="K99" t="n">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="L99" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="M99" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N99" t="n">
-        <v>3.25</v>
+        <v>5.4</v>
       </c>
       <c r="O99" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="P99" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="R99" t="n">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="S99" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="T99" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V99" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="W99" t="n">
-        <v>1.78</v>
+        <v>4.1</v>
       </c>
       <c r="X99" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y99" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="Z99" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AA99" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB99" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC99" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD99" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AE99" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AF99" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AG99" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AI99" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ99" t="n">
-        <v>29</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK99" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AL99" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AM99" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN99" t="n">
-        <v>23</v>
+        <v>4.7</v>
       </c>
       <c r="AO99" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100">
@@ -13888,97 +13888,97 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="G100" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="H100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J100" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L100" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M100" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N100" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="O100" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P100" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="R100" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S100" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T100" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U100" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V100" t="n">
         <v>1.08</v>
       </c>
       <c r="W100" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="X100" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y100" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z100" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AA100" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AB100" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC100" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AD100" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AE100" t="n">
         <v>200</v>
       </c>
       <c r="AF100" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG100" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH100" t="n">
         <v>32</v>
@@ -13987,28 +13987,28 @@
         <v>160</v>
       </c>
       <c r="AJ100" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK100" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL100" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM100" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN100" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AO100" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14023,121 +14023,121 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="G101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R101" t="n">
         <v>1.28</v>
       </c>
-      <c r="H101" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>7</v>
-      </c>
-      <c r="K101" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L101" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N101" t="n">
-        <v>6</v>
-      </c>
-      <c r="O101" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P101" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R101" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S101" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="T101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W101" t="n">
         <v>2.08</v>
       </c>
-      <c r="U101" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V101" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W101" t="n">
-        <v>4.6</v>
-      </c>
       <c r="X101" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y101" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z101" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA101" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AB101" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC101" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD101" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE101" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF101" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG101" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH101" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI101" t="n">
         <v>1000</v>
       </c>
       <c r="AJ101" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AK101" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL101" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM101" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN101" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AO101" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102">
@@ -14200,7 +14200,7 @@
         <v>1.58</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="R102" t="n">
         <v>1.19</v>
@@ -14302,19 +14302,19 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G103" t="n">
         <v>3.45</v>
       </c>
       <c r="H103" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I103" t="n">
         <v>2.24</v>
       </c>
-      <c r="I103" t="n">
-        <v>2.26</v>
-      </c>
       <c r="J103" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K103" t="n">
         <v>3.9</v>
@@ -14332,7 +14332,7 @@
         <v>1.22</v>
       </c>
       <c r="P103" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q103" t="n">
         <v>1.7</v>
@@ -14341,16 +14341,16 @@
         <v>1.55</v>
       </c>
       <c r="S103" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T103" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U103" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V103" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W103" t="n">
         <v>1.4</v>
@@ -14377,7 +14377,7 @@
         <v>11</v>
       </c>
       <c r="AE103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF103" t="n">
         <v>26</v>
@@ -14404,7 +14404,7 @@
         <v>65</v>
       </c>
       <c r="AN103" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO103" t="n">
         <v>12.5</v>
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G104" t="n">
         <v>2.84</v>
@@ -14578,7 +14578,7 @@
         <v>3.25</v>
       </c>
       <c r="H105" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I105" t="n">
         <v>3.05</v>
@@ -14599,7 +14599,7 @@
         <v>1.51</v>
       </c>
       <c r="O105" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P105" t="n">
         <v>1.51</v>
@@ -14683,7 +14683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14698,118 +14698,118 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="G106" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="J106" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K106" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="L106" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="M106" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="O106" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="P106" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="R106" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S106" t="n">
-        <v>5.1</v>
+        <v>2.52</v>
       </c>
       <c r="T106" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="U106" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="V106" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="W106" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X106" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y106" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z106" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA106" t="n">
         <v>1000</v>
       </c>
       <c r="AB106" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC106" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD106" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE106" t="n">
         <v>1000</v>
       </c>
       <c r="AF106" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG106" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH106" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI106" t="n">
         <v>1000</v>
       </c>
       <c r="AJ106" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK106" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL106" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM106" t="n">
         <v>1000</v>
       </c>
       <c r="AN106" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO106" t="n">
         <v>1000</v>
@@ -14818,7 +14818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14833,118 +14833,118 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="I107" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="J107" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K107" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="L107" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M107" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N107" t="n">
-        <v>1.97</v>
+        <v>1.51</v>
       </c>
       <c r="O107" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="P107" t="n">
-        <v>1.97</v>
+        <v>1.51</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="R107" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="S107" t="n">
-        <v>2.52</v>
+        <v>5.1</v>
       </c>
       <c r="T107" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U107" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V107" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W107" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X107" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y107" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z107" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA107" t="n">
         <v>1000</v>
       </c>
       <c r="AB107" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC107" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD107" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE107" t="n">
         <v>1000</v>
       </c>
       <c r="AF107" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG107" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI107" t="n">
         <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK107" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL107" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM107" t="n">
         <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO107" t="n">
         <v>1000</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G108" t="n">
         <v>3.15</v>
@@ -14989,7 +14989,7 @@
         <v>2.98</v>
       </c>
       <c r="J108" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K108" t="n">
         <v>4.2</v>
@@ -15001,7 +15001,7 @@
         <v>1.06</v>
       </c>
       <c r="N108" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O108" t="n">
         <v>1.3</v>
@@ -15019,7 +15019,7 @@
         <v>3.55</v>
       </c>
       <c r="T108" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U108" t="n">
         <v>1.91</v>
@@ -15028,7 +15028,7 @@
         <v>1.51</v>
       </c>
       <c r="W108" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X108" t="n">
         <v>15.5</v>
@@ -15115,13 +15115,13 @@
         <v>1.81</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H109" t="n">
         <v>3.85</v>
       </c>
       <c r="I109" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J109" t="n">
         <v>4</v>
@@ -15154,13 +15154,13 @@
         <v>2.24</v>
       </c>
       <c r="T109" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U109" t="n">
         <v>2.3</v>
       </c>
       <c r="V109" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W109" t="n">
         <v>2</v>
@@ -15286,7 +15286,7 @@
         <v>1.21</v>
       </c>
       <c r="S110" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="T110" t="n">
         <v>2.02</v>
@@ -15391,10 +15391,10 @@
         <v>1.61</v>
       </c>
       <c r="I111" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J111" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K111" t="n">
         <v>5.6</v>
@@ -15406,13 +15406,13 @@
         <v>1.02</v>
       </c>
       <c r="N111" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="O111" t="n">
         <v>1.11</v>
       </c>
       <c r="P111" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q111" t="n">
         <v>1.33</v>
@@ -15430,7 +15430,7 @@
         <v>2.78</v>
       </c>
       <c r="V111" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W111" t="n">
         <v>1.22</v>
@@ -15445,10 +15445,10 @@
         <v>17.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB111" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC111" t="n">
         <v>15</v>
@@ -15463,7 +15463,7 @@
         <v>65</v>
       </c>
       <c r="AG111" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH111" t="n">
         <v>20</v>
@@ -15493,7 +15493,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15508,127 +15508,127 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>FK Kudrivka</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.08</v>
+        <v>1.61</v>
       </c>
       <c r="G112" t="n">
-        <v>1000</v>
+        <v>1.75</v>
       </c>
       <c r="H112" t="n">
-        <v>1.04</v>
+        <v>4.9</v>
       </c>
       <c r="I112" t="n">
+        <v>6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K112" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W112" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X112" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB112" t="n">
         <v>13</v>
       </c>
-      <c r="J112" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0</v>
-      </c>
-      <c r="T112" t="n">
-        <v>0</v>
-      </c>
-      <c r="U112" t="n">
-        <v>0</v>
-      </c>
-      <c r="V112" t="n">
-        <v>0</v>
-      </c>
-      <c r="W112" t="n">
-        <v>0</v>
-      </c>
-      <c r="X112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI112" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK112" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL112" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM112" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN112" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO112" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -15643,127 +15643,127 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>SV Ried</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="H113" t="n">
-        <v>2.42</v>
+        <v>3.85</v>
       </c>
       <c r="I113" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="J113" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="K113" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L113" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M113" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N113" t="n">
-        <v>1.81</v>
+        <v>3.7</v>
       </c>
       <c r="O113" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P113" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R113" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="S113" t="n">
-        <v>1.96</v>
+        <v>3.4</v>
       </c>
       <c r="T113" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U113" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V113" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="W113" t="n">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="X113" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y113" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z113" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA113" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB113" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC113" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD113" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE113" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF113" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG113" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH113" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI113" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ113" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK113" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL113" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM113" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN113" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO113" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -15778,112 +15778,112 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>LASK Linz</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.66</v>
+        <v>3.45</v>
       </c>
       <c r="G114" t="n">
-        <v>1.81</v>
+        <v>3.85</v>
       </c>
       <c r="H114" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="I114" t="n">
-        <v>5.8</v>
+        <v>2.26</v>
       </c>
       <c r="J114" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K114" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
       </c>
       <c r="M114" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N114" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="O114" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="P114" t="n">
-        <v>2.94</v>
+        <v>2</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="R114" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="S114" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="T114" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="U114" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V114" t="n">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="W114" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="X114" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Y114" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA114" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC114" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AD114" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE114" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF114" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG114" t="n">
         <v>22</v>
       </c>
-      <c r="AG114" t="n">
-        <v>16</v>
-      </c>
       <c r="AH114" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI114" t="n">
         <v>1000</v>
       </c>
       <c r="AJ114" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK114" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL114" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM114" t="n">
         <v>1000</v>
@@ -15898,7 +15898,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -15913,127 +15913,127 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>FC Blau Weiss Linz</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.61</v>
+        <v>4.3</v>
       </c>
       <c r="G115" t="n">
-        <v>1.75</v>
+        <v>4.8</v>
       </c>
       <c r="H115" t="n">
-        <v>4.9</v>
+        <v>1.89</v>
       </c>
       <c r="I115" t="n">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="J115" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K115" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="L115" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M115" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N115" t="n">
-        <v>4.7</v>
+        <v>1.98</v>
       </c>
       <c r="O115" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P115" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="R115" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="S115" t="n">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="T115" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U115" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="V115" t="n">
-        <v>1.2</v>
+        <v>2.06</v>
       </c>
       <c r="W115" t="n">
-        <v>2.34</v>
+        <v>1.27</v>
       </c>
       <c r="X115" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH115" t="n">
         <v>28</v>
       </c>
-      <c r="Y115" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>24</v>
-      </c>
       <c r="AI115" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AJ115" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK115" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="AL115" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AM115" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN115" t="n">
-        <v>9.199999999999999</v>
+        <v>90</v>
       </c>
       <c r="AO115" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -16048,127 +16048,127 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FC Blau Weiss Linz</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="G116" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="H116" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="I116" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="J116" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K116" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L116" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M116" t="n">
         <v>1.05</v>
       </c>
       <c r="N116" t="n">
-        <v>1.98</v>
+        <v>4.5</v>
       </c>
       <c r="O116" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P116" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="R116" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="S116" t="n">
-        <v>1.87</v>
+        <v>2.96</v>
       </c>
       <c r="T116" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U116" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V116" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="W116" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="X116" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z116" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AA116" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AB116" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AC116" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD116" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE116" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AF116" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG116" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AH116" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AI116" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AJ116" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK116" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AL116" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM116" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN116" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AO116" t="n">
-        <v>18.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -16183,112 +16183,112 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LASK Linz</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3.45</v>
+        <v>1.65</v>
       </c>
       <c r="G117" t="n">
-        <v>3.85</v>
+        <v>1.81</v>
       </c>
       <c r="H117" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K117" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P117" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U117" t="n">
         <v>2.12</v>
       </c>
-      <c r="I117" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M117" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N117" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P117" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R117" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S117" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T117" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U117" t="n">
-        <v>2</v>
-      </c>
       <c r="V117" t="n">
-        <v>1.79</v>
+        <v>1.2</v>
       </c>
       <c r="W117" t="n">
-        <v>1.35</v>
+        <v>2.22</v>
       </c>
       <c r="X117" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y117" t="n">
-        <v>15.5</v>
+        <v>44</v>
       </c>
       <c r="Z117" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA117" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB117" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC117" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AD117" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG117" t="n">
         <v>16</v>
       </c>
-      <c r="AE117" t="n">
+      <c r="AH117" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL117" t="n">
         <v>34</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>1000</v>
       </c>
       <c r="AM117" t="n">
         <v>1000</v>
@@ -16303,7 +16303,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -16318,127 +16318,127 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SV Ried</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="G118" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
-        <v>3.85</v>
+        <v>2.42</v>
       </c>
       <c r="I118" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K118" t="n">
         <v>4.3</v>
       </c>
-      <c r="J118" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K118" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L118" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M118" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>3.7</v>
+        <v>1.81</v>
       </c>
       <c r="O118" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P118" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R118" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="S118" t="n">
-        <v>3.4</v>
+        <v>1.96</v>
       </c>
       <c r="T118" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U118" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="W118" t="n">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="X118" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y118" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z118" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA118" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB118" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC118" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD118" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE118" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF118" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG118" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH118" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI118" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ118" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK118" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL118" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM118" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN118" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO118" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -16453,121 +16453,121 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>FK Kudrivka</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I119" t="n">
+        <v>13</v>
+      </c>
+      <c r="J119" t="n">
         <v>5.1</v>
       </c>
-      <c r="G119" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K119" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L119" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="O119" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P119" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y119" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z119" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA119" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB119" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC119" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD119" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE119" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AF119" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AG119" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH119" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI119" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AJ119" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AK119" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL119" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM119" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN119" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO119" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -16597,19 +16597,19 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G120" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H120" t="n">
         <v>3.3</v>
       </c>
       <c r="I120" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J120" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K120" t="n">
         <v>7</v>
@@ -16621,16 +16621,16 @@
         <v>1.01</v>
       </c>
       <c r="N120" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O120" t="n">
         <v>1.27</v>
       </c>
       <c r="P120" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R120" t="n">
         <v>1.32</v>
@@ -16645,10 +16645,10 @@
         <v>1.01</v>
       </c>
       <c r="V120" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W120" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X120" t="n">
         <v>1000</v>
@@ -17005,7 +17005,7 @@
         <v>5.4</v>
       </c>
       <c r="G123" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H123" t="n">
         <v>1.66</v>
@@ -17014,13 +17014,13 @@
         <v>1.69</v>
       </c>
       <c r="J123" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K123" t="n">
         <v>4.7</v>
       </c>
       <c r="L123" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
@@ -17029,7 +17029,7 @@
         <v>4.6</v>
       </c>
       <c r="O123" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P123" t="n">
         <v>2.26</v>
@@ -17053,7 +17053,7 @@
         <v>2.44</v>
       </c>
       <c r="W123" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X123" t="n">
         <v>26</v>
@@ -17113,7 +17113,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -17128,121 +17128,121 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="G124" t="n">
-        <v>3.45</v>
+        <v>1.62</v>
       </c>
       <c r="H124" t="n">
-        <v>2.28</v>
+        <v>5.9</v>
       </c>
       <c r="I124" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N124" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P124" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S124" t="n">
         <v>2.34</v>
       </c>
-      <c r="J124" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M124" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N124" t="n">
+      <c r="T124" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U124" t="n">
         <v>2.18</v>
       </c>
-      <c r="O124" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P124" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S124" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U124" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V124" t="n">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="W124" t="n">
-        <v>1.41</v>
+        <v>2.6</v>
       </c>
       <c r="X124" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y124" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Z124" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AA124" t="n">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AB124" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AC124" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD124" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AE124" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AF124" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AG124" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH124" t="n">
         <v>24</v>
       </c>
       <c r="AI124" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AJ124" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AK124" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="AL124" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AM124" t="n">
         <v>100</v>
       </c>
       <c r="AN124" t="n">
-        <v>44</v>
+        <v>7.2</v>
       </c>
       <c r="AO124" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125">
@@ -17263,121 +17263,121 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="G125" t="n">
-        <v>2.34</v>
+        <v>3.45</v>
       </c>
       <c r="H125" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="I125" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="J125" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K125" t="n">
         <v>3.95</v>
       </c>
-      <c r="K125" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L125" t="n">
         <v>1.01</v>
       </c>
       <c r="M125" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N125" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="O125" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P125" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R125" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S125" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="T125" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U125" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V125" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="W125" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="X125" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y125" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Z125" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA125" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AB125" t="n">
         <v>21</v>
       </c>
       <c r="AC125" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD125" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE125" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI125" t="n">
         <v>48</v>
       </c>
-      <c r="AF125" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI125" t="n">
+      <c r="AJ125" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK125" t="n">
         <v>50</v>
       </c>
-      <c r="AJ125" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>30</v>
-      </c>
       <c r="AL125" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM125" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN125" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO125" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="126">
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="G126" t="n">
         <v>2.5</v>
@@ -17419,10 +17419,10 @@
         <v>5</v>
       </c>
       <c r="J126" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K126" t="n">
-        <v>950</v>
+        <v>5.7</v>
       </c>
       <c r="L126" t="n">
         <v>1.01</v>
@@ -17431,13 +17431,13 @@
         <v>1.01</v>
       </c>
       <c r="N126" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="O126" t="n">
         <v>1.27</v>
       </c>
       <c r="P126" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q126" t="n">
         <v>1.8</v>
@@ -17518,7 +17518,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -17533,121 +17533,121 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="G127" t="n">
-        <v>1.62</v>
+        <v>2.34</v>
       </c>
       <c r="H127" t="n">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="I127" t="n">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="J127" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K127" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L127" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M127" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N127" t="n">
-        <v>5.3</v>
+        <v>2.52</v>
       </c>
       <c r="O127" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P127" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q127" t="n">
         <v>1.54</v>
       </c>
       <c r="R127" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="S127" t="n">
-        <v>2.34</v>
+        <v>1.54</v>
       </c>
       <c r="T127" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U127" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V127" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="W127" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X127" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y127" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z127" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AA127" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AB127" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD127" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK127" t="n">
         <v>30</v>
       </c>
-      <c r="AE127" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL127" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM127" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN127" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="AO127" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
@@ -17680,7 +17680,7 @@
         <v>1.58</v>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H128" t="n">
         <v>6.6</v>
@@ -17728,7 +17728,7 @@
         <v>1.16</v>
       </c>
       <c r="W128" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X128" t="n">
         <v>17</v>
@@ -17815,7 +17815,7 @@
         <v>1.29</v>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H129" t="n">
         <v>6.8</v>
@@ -18217,22 +18217,22 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G132" t="n">
         <v>2.02</v>
       </c>
       <c r="H132" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I132" t="n">
         <v>6.4</v>
       </c>
       <c r="J132" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K132" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L132" t="n">
         <v>1.01</v>
@@ -18256,7 +18256,7 @@
         <v>1.37</v>
       </c>
       <c r="S132" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T132" t="n">
         <v>1.01</v>
@@ -18352,10 +18352,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G133" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H133" t="n">
         <v>1.92</v>
@@ -18376,7 +18376,7 @@
         <v>1.05</v>
       </c>
       <c r="N133" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O133" t="n">
         <v>1.24</v>
@@ -18391,10 +18391,10 @@
         <v>1.53</v>
       </c>
       <c r="S133" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T133" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U133" t="n">
         <v>2.38</v>
@@ -18403,10 +18403,10 @@
         <v>2.06</v>
       </c>
       <c r="W133" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X133" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y133" t="n">
         <v>11.5</v>
@@ -18424,7 +18424,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD133" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE133" t="n">
         <v>18</v>
@@ -18439,13 +18439,13 @@
         <v>16.5</v>
       </c>
       <c r="AI133" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ133" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK133" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL133" t="n">
         <v>48</v>
@@ -18457,7 +18457,7 @@
         <v>38</v>
       </c>
       <c r="AO133" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="134">
@@ -18487,13 +18487,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G134" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H134" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I134" t="n">
         <v>4.6</v>
@@ -18511,19 +18511,19 @@
         <v>1.03</v>
       </c>
       <c r="N134" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O134" t="n">
         <v>1.16</v>
       </c>
       <c r="P134" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q134" t="n">
         <v>1.49</v>
       </c>
       <c r="R134" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S134" t="n">
         <v>2.2</v>
@@ -18538,13 +18538,13 @@
         <v>1.28</v>
       </c>
       <c r="W134" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X134" t="n">
         <v>30</v>
       </c>
       <c r="Y134" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z134" t="n">
         <v>40</v>
@@ -18592,7 +18592,7 @@
         <v>6.8</v>
       </c>
       <c r="AO134" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="G135" t="n">
         <v>5.5</v>
@@ -18631,13 +18631,13 @@
         <v>1.73</v>
       </c>
       <c r="I135" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="J135" t="n">
         <v>3.55</v>
       </c>
       <c r="K135" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L135" t="n">
         <v>1.01</v>
@@ -18649,19 +18649,19 @@
         <v>1.84</v>
       </c>
       <c r="O135" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P135" t="n">
         <v>1.83</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R135" t="n">
         <v>1.18</v>
       </c>
       <c r="S135" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="T135" t="n">
         <v>1.01</v>
@@ -18670,7 +18670,7 @@
         <v>1.01</v>
       </c>
       <c r="V135" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W135" t="n">
         <v>1.22</v>
@@ -18787,16 +18787,16 @@
         <v>1.13</v>
       </c>
       <c r="P136" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R136" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S136" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T136" t="n">
         <v>1.46</v>
@@ -18811,7 +18811,7 @@
         <v>1.28</v>
       </c>
       <c r="X136" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y136" t="n">
         <v>18</v>
@@ -18847,10 +18847,10 @@
         <v>21</v>
       </c>
       <c r="AJ136" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK136" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL136" t="n">
         <v>36</v>
@@ -19048,13 +19048,13 @@
         <v>1.01</v>
       </c>
       <c r="M138" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N138" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O138" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P138" t="n">
         <v>2.26</v>
@@ -19063,10 +19063,10 @@
         <v>1.65</v>
       </c>
       <c r="R138" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S138" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="T138" t="n">
         <v>1.66</v>
@@ -19078,61 +19078,61 @@
         <v>2.14</v>
       </c>
       <c r="W138" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X138" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y138" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z138" t="n">
         <v>15</v>
       </c>
       <c r="AA138" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AB138" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC138" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD138" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE138" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF138" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG138" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI138" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ138" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK138" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL138" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM138" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN138" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO138" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="139">
@@ -19162,19 +19162,19 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="G139" t="n">
         <v>12</v>
       </c>
       <c r="H139" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I139" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="J139" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K139" t="n">
         <v>4.9</v>
@@ -19186,16 +19186,16 @@
         <v>1.01</v>
       </c>
       <c r="N139" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O139" t="n">
         <v>1.36</v>
       </c>
       <c r="P139" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="R139" t="n">
         <v>1.24</v>
@@ -19207,10 +19207,10 @@
         <v>1.01</v>
       </c>
       <c r="U139" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="V139" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="W139" t="n">
         <v>1.09</v>
@@ -19300,13 +19300,13 @@
         <v>2.68</v>
       </c>
       <c r="G140" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H140" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I140" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J140" t="n">
         <v>3.5</v>
@@ -19342,13 +19342,13 @@
         <v>1.76</v>
       </c>
       <c r="U140" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V140" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W140" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X140" t="n">
         <v>14</v>
@@ -19444,7 +19444,7 @@
         <v>2.68</v>
       </c>
       <c r="J141" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K141" t="n">
         <v>3.45</v>
@@ -19534,10 +19534,10 @@
         <v>1000</v>
       </c>
       <c r="AN141" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO141" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
@@ -19843,10 +19843,10 @@
         <v>2.7</v>
       </c>
       <c r="H144" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I144" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J144" t="n">
         <v>3.25</v>
@@ -19870,7 +19870,7 @@
         <v>1.74</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R144" t="n">
         <v>1.26</v>
@@ -19885,7 +19885,7 @@
         <v>1.01</v>
       </c>
       <c r="V144" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W144" t="n">
         <v>1.59</v>
@@ -19975,7 +19975,7 @@
         <v>2.04</v>
       </c>
       <c r="G145" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H145" t="n">
         <v>3.8</v>
@@ -19999,7 +19999,7 @@
         <v>1.69</v>
       </c>
       <c r="O145" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P145" t="n">
         <v>1.69</v>
@@ -20023,7 +20023,7 @@
         <v>1.27</v>
       </c>
       <c r="W145" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X145" t="n">
         <v>15.5</v>
@@ -20119,22 +20119,22 @@
         <v>3.15</v>
       </c>
       <c r="J146" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K146" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L146" t="n">
         <v>1.01</v>
       </c>
       <c r="M146" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N146" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O146" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P146" t="n">
         <v>2.16</v>
@@ -20143,16 +20143,16 @@
         <v>1.72</v>
       </c>
       <c r="R146" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S146" t="n">
-        <v>1.72</v>
+        <v>2.74</v>
       </c>
       <c r="T146" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U146" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V146" t="n">
         <v>1.46</v>
@@ -20161,58 +20161,58 @@
         <v>1.6</v>
       </c>
       <c r="X146" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y146" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z146" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK146" t="n">
         <v>26</v>
       </c>
-      <c r="AA146" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE146" t="n">
+      <c r="AL146" t="n">
         <v>36</v>
       </c>
-      <c r="AF146" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH146" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>40</v>
-      </c>
       <c r="AM146" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN146" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO146" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
@@ -20242,13 +20242,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H147" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I147" t="n">
         <v>3.75</v>
@@ -20266,19 +20266,19 @@
         <v>1.04</v>
       </c>
       <c r="N147" t="n">
-        <v>1.43</v>
+        <v>2.26</v>
       </c>
       <c r="O147" t="n">
         <v>1.21</v>
       </c>
       <c r="P147" t="n">
-        <v>1.43</v>
+        <v>2.26</v>
       </c>
       <c r="Q147" t="n">
         <v>1.21</v>
       </c>
       <c r="R147" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S147" t="n">
         <v>2.38</v>
@@ -20293,7 +20293,7 @@
         <v>1.36</v>
       </c>
       <c r="W147" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X147" t="n">
         <v>1000</v>
@@ -20377,10 +20377,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G148" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H148" t="n">
         <v>1.84</v>
@@ -20401,16 +20401,16 @@
         <v>1.01</v>
       </c>
       <c r="N148" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O148" t="n">
         <v>1.24</v>
       </c>
       <c r="P148" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="R148" t="n">
         <v>1.41</v>
@@ -20515,7 +20515,7 @@
         <v>1.04</v>
       </c>
       <c r="G149" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>1.04</v>
@@ -20524,7 +20524,7 @@
         <v>1000</v>
       </c>
       <c r="J149" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="K149" t="n">
         <v>950</v>
@@ -20536,13 +20536,13 @@
         <v>1.01</v>
       </c>
       <c r="N149" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O149" t="n">
         <v>1.12</v>
       </c>
       <c r="P149" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q149" t="n">
         <v>1.12</v>
@@ -20563,7 +20563,7 @@
         <v>1.01</v>
       </c>
       <c r="W149" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X149" t="n">
         <v>1000</v>
@@ -20656,10 +20656,10 @@
         <v>2.22</v>
       </c>
       <c r="I150" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="J150" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K150" t="n">
         <v>3.7</v>
@@ -20689,16 +20689,16 @@
         <v>3.3</v>
       </c>
       <c r="T150" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U150" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V150" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="W150" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X150" t="n">
         <v>18</v>
@@ -20728,7 +20728,7 @@
         <v>36</v>
       </c>
       <c r="AG150" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH150" t="n">
         <v>28</v>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G151" t="n">
         <v>1.82</v>
@@ -20791,10 +20791,10 @@
         <v>4.3</v>
       </c>
       <c r="I151" t="n">
-        <v>110</v>
+        <v>6.2</v>
       </c>
       <c r="J151" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K151" t="n">
         <v>4.5</v>
@@ -20806,13 +20806,13 @@
         <v>1.03</v>
       </c>
       <c r="N151" t="n">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
       <c r="O151" t="n">
         <v>1.17</v>
       </c>
       <c r="P151" t="n">
-        <v>1.54</v>
+        <v>2.14</v>
       </c>
       <c r="Q151" t="n">
         <v>1.17</v>
@@ -20827,7 +20827,7 @@
         <v>1.01</v>
       </c>
       <c r="U151" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V151" t="n">
         <v>1.26</v>
@@ -20959,10 +20959,10 @@
         <v>2.44</v>
       </c>
       <c r="T152" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="U152" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="V152" t="n">
         <v>1.36</v>
@@ -21058,7 +21058,7 @@
         <v>1.88</v>
       </c>
       <c r="H153" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I153" t="n">
         <v>4.3</v>
@@ -21088,10 +21088,10 @@
         <v>1.47</v>
       </c>
       <c r="R153" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S153" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T153" t="n">
         <v>1.51</v>
@@ -21106,58 +21106,58 @@
         <v>2.12</v>
       </c>
       <c r="X153" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z153" t="n">
         <v>40</v>
       </c>
-      <c r="Y153" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z153" t="n">
-        <v>46</v>
-      </c>
       <c r="AA153" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB153" t="n">
         <v>17</v>
       </c>
       <c r="AC153" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD153" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE153" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF153" t="n">
         <v>17</v>
       </c>
       <c r="AG153" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH153" t="n">
         <v>16.5</v>
       </c>
       <c r="AI153" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK153" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL153" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM153" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN153" t="n">
         <v>6.8</v>
       </c>
       <c r="AO153" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154">
@@ -21217,7 +21217,7 @@
         <v>1.34</v>
       </c>
       <c r="P154" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q154" t="n">
         <v>2</v>
@@ -21229,7 +21229,7 @@
         <v>3.6</v>
       </c>
       <c r="T154" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U154" t="n">
         <v>1.95</v>
@@ -21262,7 +21262,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE154" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF154" t="n">
         <v>44</v>
@@ -21328,7 +21328,7 @@
         <v>1.21</v>
       </c>
       <c r="H155" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I155" t="n">
         <v>18</v>
@@ -21346,7 +21346,7 @@
         <v>1.01</v>
       </c>
       <c r="N155" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O155" t="n">
         <v>1.08</v>
@@ -21358,10 +21358,10 @@
         <v>1.27</v>
       </c>
       <c r="R155" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="S155" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="T155" t="n">
         <v>1.01</v>
@@ -21370,10 +21370,10 @@
         <v>1.01</v>
       </c>
       <c r="V155" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W155" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X155" t="n">
         <v>70</v>
@@ -21418,7 +21418,7 @@
         <v>20</v>
       </c>
       <c r="AL155" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM155" t="n">
         <v>1000</v>
@@ -21457,7 +21457,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G156" t="n">
         <v>6.2</v>
@@ -21523,7 +21523,7 @@
         <v>16.5</v>
       </c>
       <c r="AB156" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC156" t="n">
         <v>10</v>
@@ -21592,10 +21592,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G157" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>2.32</v>
@@ -21619,7 +21619,7 @@
         <v>3.1</v>
       </c>
       <c r="O157" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P157" t="n">
         <v>1.71</v>
@@ -21757,7 +21757,7 @@
         <v>1.14</v>
       </c>
       <c r="P158" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q158" t="n">
         <v>1.43</v>
@@ -21772,16 +21772,16 @@
         <v>1.81</v>
       </c>
       <c r="U158" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V158" t="n">
         <v>1.1</v>
       </c>
       <c r="W158" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X158" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y158" t="n">
         <v>1000</v>
@@ -21865,16 +21865,16 @@
         <v>3.55</v>
       </c>
       <c r="G159" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>2.26</v>
       </c>
       <c r="I159" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J159" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K159" t="n">
         <v>3.65</v>
@@ -21895,7 +21895,7 @@
         <v>1.26</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="R159" t="n">
         <v>1.26</v>
@@ -21913,7 +21913,7 @@
         <v>1.76</v>
       </c>
       <c r="W159" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X159" t="n">
         <v>1000</v>
@@ -21997,13 +21997,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G160" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H160" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I160" t="n">
         <v>4.6</v>
@@ -22012,7 +22012,7 @@
         <v>3.1</v>
       </c>
       <c r="K160" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L160" t="n">
         <v>1.01</v>
@@ -22021,13 +22021,13 @@
         <v>1.04</v>
       </c>
       <c r="N160" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O160" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P160" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q160" t="n">
         <v>1.83</v>
@@ -22048,7 +22048,7 @@
         <v>1.28</v>
       </c>
       <c r="W160" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X160" t="n">
         <v>1000</v>
@@ -22144,7 +22144,7 @@
         <v>13</v>
       </c>
       <c r="J161" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K161" t="n">
         <v>5.4</v>
@@ -22165,13 +22165,13 @@
         <v>1.8</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R161" t="n">
         <v>1.29</v>
       </c>
       <c r="S161" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T161" t="n">
         <v>2.14</v>
@@ -22180,7 +22180,7 @@
         <v>1.69</v>
       </c>
       <c r="V161" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W161" t="n">
         <v>3</v>
@@ -22279,13 +22279,13 @@
         <v>3.55</v>
       </c>
       <c r="J162" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K162" t="n">
         <v>3.8</v>
       </c>
       <c r="L162" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M162" t="n">
         <v>1.06</v>
@@ -22321,7 +22321,7 @@
         <v>1.7</v>
       </c>
       <c r="X162" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y162" t="n">
         <v>15</v>
@@ -22345,7 +22345,7 @@
         <v>36</v>
       </c>
       <c r="AF162" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG162" t="n">
         <v>12</v>
@@ -22372,7 +22372,7 @@
         <v>18.5</v>
       </c>
       <c r="AO162" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163">
@@ -22402,16 +22402,16 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G163" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H163" t="n">
         <v>1.71</v>
       </c>
       <c r="I163" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J163" t="n">
         <v>4.1</v>
@@ -22429,10 +22429,10 @@
         <v>3.9</v>
       </c>
       <c r="O163" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P163" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q163" t="n">
         <v>1.56</v>
@@ -22450,10 +22450,10 @@
         <v>1.01</v>
       </c>
       <c r="V163" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W163" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X163" t="n">
         <v>1000</v>
@@ -22492,7 +22492,7 @@
         <v>1000</v>
       </c>
       <c r="AJ163" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK163" t="n">
         <v>1000</v>
@@ -22537,25 +22537,25 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G164" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="H164" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I164" t="n">
         <v>7</v>
       </c>
       <c r="J164" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K164" t="n">
         <v>4.4</v>
       </c>
       <c r="L164" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M164" t="n">
         <v>1.05</v>
@@ -22567,7 +22567,7 @@
         <v>1.3</v>
       </c>
       <c r="P164" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q164" t="n">
         <v>1.76</v>
@@ -22585,10 +22585,10 @@
         <v>1.98</v>
       </c>
       <c r="V164" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W164" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X164" t="n">
         <v>1000</v>
@@ -22672,16 +22672,16 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G165" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="H165" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="J165" t="n">
         <v>3.9</v>
@@ -22807,22 +22807,22 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G166" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="H166" t="n">
         <v>9</v>
       </c>
       <c r="I166" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J166" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K166" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L166" t="n">
         <v>0</v>
@@ -22942,34 +22942,34 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="G167" t="n">
         <v>1.48</v>
       </c>
       <c r="H167" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I167" t="n">
         <v>1000</v>
       </c>
       <c r="J167" t="n">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="K167" t="n">
         <v>950</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P167" t="n">
         <v>1.97</v>
@@ -22978,76 +22978,76 @@
         <v>1.57</v>
       </c>
       <c r="R167" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S167" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U167" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V167" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO167" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="168">
@@ -23077,22 +23077,22 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="G168" t="n">
         <v>5.7</v>
       </c>
       <c r="H168" t="n">
-        <v>1.8</v>
+        <v>1.21</v>
       </c>
       <c r="I168" t="n">
         <v>2.36</v>
       </c>
       <c r="J168" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="K168" t="n">
-        <v>6.6</v>
+        <v>950</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
@@ -23183,6 +23183,141 @@
       </c>
       <c r="AO168" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Carabobo FC</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Universidad de Venezuela</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K169" t="n">
+        <v>950</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO167"/>
+  <dimension ref="A1:AO169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +682,7 @@
         <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -691,10 +691,10 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
@@ -703,76 +703,76 @@
         <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AB2" t="n">
         <v>8.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>7</v>
@@ -835,19 +835,19 @@
         <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
         <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
         <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
@@ -940,10 +940,10 @@
         <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
         <v>2.38</v>
@@ -952,7 +952,7 @@
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,7 +961,7 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
@@ -970,7 +970,7 @@
         <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
         <v>1.29</v>
@@ -1072,55 +1072,55 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
         <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
         <v>2.06</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
         <v>1.89</v>
@@ -1216,7 +1216,7 @@
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1237,10 +1237,10 @@
         <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1249,7 +1249,7 @@
         <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1279,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>75</v>
@@ -1294,7 +1294,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
         <v>24</v>
@@ -1312,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1345,19 +1345,19 @@
         <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1393,7 +1393,7 @@
         <v>1.41</v>
       </c>
       <c r="W7" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1480,7 +1480,7 @@
         <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
@@ -1489,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
         <v>5.2</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1528,7 +1528,7 @@
         <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X8" t="n">
         <v>25</v>
@@ -1642,7 +1642,7 @@
         <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
         <v>2.44</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
         <v>1.86</v>
@@ -1765,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1774,7 +1774,7 @@
         <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>1.9</v>
@@ -1816,7 +1816,7 @@
         <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>25</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H11" t="n">
         <v>4.6</v>
@@ -1897,43 +1897,43 @@
         <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
         <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
         <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
@@ -1945,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="AA11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
         <v>9</v>
@@ -1987,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2047,7 +2047,7 @@
         <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
         <v>1.58</v>
@@ -2062,7 +2062,7 @@
         <v>1.54</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V12" t="n">
         <v>1.62</v>
@@ -2161,13 +2161,13 @@
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2191,16 +2191,16 @@
         <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T13" t="n">
         <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W13" t="n">
         <v>1.35</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G14" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="I14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2320,7 +2320,7 @@
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
@@ -2332,13 +2332,13 @@
         <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2458,10 +2458,10 @@
         <v>1.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
@@ -2731,7 +2731,7 @@
         <v>1.16</v>
       </c>
       <c r="S17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
         <v>1.04</v>
@@ -2863,10 +2863,10 @@
         <v>1.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="T18" t="n">
         <v>1.04</v>
@@ -2995,13 +2995,13 @@
         <v>1.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T19" t="n">
         <v>1.04</v>
@@ -3133,7 +3133,7 @@
         <v>1.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S20" t="n">
         <v>1.3</v>
@@ -3367,61 +3367,61 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T22" t="n">
         <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.6</v>
@@ -3538,7 +3538,7 @@
         <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
         <v>2.2</v>
@@ -3649,7 +3649,7 @@
         <v>4.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>6.2</v>
@@ -3670,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
         <v>1.39</v>
@@ -3775,7 +3775,7 @@
         <v>1.47</v>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H25" t="n">
         <v>9.199999999999999</v>
@@ -3784,7 +3784,7 @@
         <v>13.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>4.5</v>
@@ -3823,7 +3823,7 @@
         <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="X25" t="n">
         <v>12</v>
@@ -3916,7 +3916,7 @@
         <v>2.48</v>
       </c>
       <c r="I26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3946,13 +3946,13 @@
         <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
         <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
         <v>1.58</v>
@@ -3964,10 +3964,10 @@
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>48</v>
@@ -3985,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
         <v>16.5</v>
@@ -4054,7 +4054,7 @@
         <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
         <v>4.8</v>
@@ -4183,7 +4183,7 @@
         <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
@@ -4204,7 +4204,7 @@
         <v>4.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P28" t="n">
         <v>2.2</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G29" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
@@ -4327,13 +4327,13 @@
         <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
         <v>4</v>
@@ -4345,37 +4345,37 @@
         <v>2.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
         <v>2.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U29" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
         <v>1.81</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
         <v>38</v>
       </c>
       <c r="AA29" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="n">
         <v>13</v>
@@ -4399,13 +4399,13 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
         <v>40</v>
@@ -4414,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO29" t="n">
         <v>55</v>
@@ -4453,7 +4453,7 @@
         <v>2.02</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
         <v>4.2</v>
@@ -4477,7 +4477,7 @@
         <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q30" t="n">
         <v>1.64</v>
@@ -4486,10 +4486,10 @@
         <v>1.54</v>
       </c>
       <c r="S30" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U30" t="n">
         <v>2.34</v>
@@ -4522,7 +4522,7 @@
         <v>17.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -4543,7 +4543,7 @@
         <v>970</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM30" t="n">
         <v>70</v>
@@ -4585,7 +4585,7 @@
         <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>
@@ -4597,7 +4597,7 @@
         <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
         <v>1.31</v>
@@ -4612,7 +4612,7 @@
         <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q31" t="n">
         <v>1.65</v>
@@ -4621,19 +4621,19 @@
         <v>1.55</v>
       </c>
       <c r="S31" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T31" t="n">
         <v>1.57</v>
       </c>
       <c r="U31" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V31" t="n">
         <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X31" t="n">
         <v>26</v>
@@ -4642,7 +4642,7 @@
         <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA31" t="n">
         <v>60</v>
@@ -4651,10 +4651,10 @@
         <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
         <v>40</v>
@@ -4666,7 +4666,7 @@
         <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI31" t="n">
         <v>44</v>
@@ -4723,7 +4723,7 @@
         <v>2.54</v>
       </c>
       <c r="H32" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I32" t="n">
         <v>3.1</v>
@@ -4747,7 +4747,7 @@
         <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q32" t="n">
         <v>1.69</v>
@@ -4855,7 +4855,7 @@
         <v>2.32</v>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
         <v>2.76</v>
@@ -4882,7 +4882,7 @@
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q33" t="n">
         <v>1.64</v>
@@ -4942,7 +4942,7 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="n">
         <v>29</v>
@@ -4954,10 +4954,10 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="I34" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J34" t="n">
         <v>3.55</v>
@@ -5011,7 +5011,7 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O34" t="n">
         <v>1.39</v>
@@ -5029,16 +5029,16 @@
         <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W34" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X34" t="n">
         <v>12</v>
@@ -5050,10 +5050,10 @@
         <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
         <v>7.8</v>
@@ -5068,28 +5068,28 @@
         <v>32</v>
       </c>
       <c r="AG34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
         <v>42</v>
       </c>
       <c r="AJ34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="n">
         <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO34" t="n">
         <v>16.5</v>
@@ -5161,7 +5161,7 @@
         <v>1.16</v>
       </c>
       <c r="S35" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T35" t="n">
         <v>1.04</v>
@@ -5281,13 +5281,13 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="O36" t="n">
         <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q36" t="n">
         <v>1.64</v>
@@ -5395,19 +5395,19 @@
         <v>1.83</v>
       </c>
       <c r="G37" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H37" t="n">
         <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="n">
         <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5434,16 +5434,16 @@
         <v>2.52</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U37" t="n">
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5671,10 +5671,10 @@
         <v>2.08</v>
       </c>
       <c r="I39" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J39" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>4.4</v>
@@ -5683,25 +5683,25 @@
         <v>1.36</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="O39" t="n">
         <v>1.27</v>
       </c>
       <c r="P39" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S39" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,7 +5710,7 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W39" t="n">
         <v>1.38</v>
@@ -5722,7 +5722,7 @@
         <v>15.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA39" t="n">
         <v>46</v>
@@ -5740,7 +5740,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
         <v>19</v>
@@ -5752,7 +5752,7 @@
         <v>50</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="n">
         <v>48</v>
@@ -5824,19 +5824,19 @@
         <v>3.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P40" t="n">
         <v>1.78</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R40" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T40" t="n">
         <v>2.2</v>
@@ -5887,7 +5887,7 @@
         <v>130</v>
       </c>
       <c r="AJ40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK40" t="n">
         <v>19.5</v>
@@ -5935,7 +5935,7 @@
         <v>1.31</v>
       </c>
       <c r="G41" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H41" t="n">
         <v>3.6</v>
@@ -5977,13 +5977,13 @@
         <v>1.51</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V41" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W41" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6076,7 +6076,7 @@
         <v>2.84</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
         <v>3.6</v>
@@ -6097,16 +6097,16 @@
         <v>1.23</v>
       </c>
       <c r="P42" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q42" t="n">
         <v>1.67</v>
       </c>
       <c r="R42" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S42" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T42" t="n">
         <v>1.59</v>
@@ -6121,7 +6121,7 @@
         <v>1.64</v>
       </c>
       <c r="X42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y42" t="n">
         <v>18.5</v>
@@ -6154,7 +6154,7 @@
         <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="n">
         <v>40</v>
@@ -6169,7 +6169,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO42" t="n">
         <v>27</v>
@@ -6214,7 +6214,7 @@
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K43" t="n">
         <v>4.1</v>
@@ -6340,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H44" t="n">
         <v>1.59</v>
@@ -6352,7 +6352,7 @@
         <v>4.5</v>
       </c>
       <c r="K44" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6367,19 +6367,19 @@
         <v>1.15</v>
       </c>
       <c r="P44" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R44" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="S44" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="T44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U44" t="n">
         <v>1.01</v>
@@ -6388,7 +6388,7 @@
         <v>2.46</v>
       </c>
       <c r="W44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X44" t="n">
         <v>34</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="G45" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I45" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6502,7 +6502,7 @@
         <v>1.28</v>
       </c>
       <c r="P45" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q45" t="n">
         <v>1.78</v>
@@ -6517,13 +6517,13 @@
         <v>1.73</v>
       </c>
       <c r="U45" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V45" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W45" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G46" t="n">
         <v>2.04</v>
       </c>
       <c r="H46" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K46" t="n">
         <v>4.1</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="O46" t="n">
         <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R46" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S46" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T46" t="n">
         <v>1.63</v>
@@ -6655,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W46" t="n">
         <v>1.97</v>
@@ -6688,7 +6688,7 @@
         <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
         <v>26</v>
@@ -6697,13 +6697,13 @@
         <v>85</v>
       </c>
       <c r="AJ46" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6766,7 +6766,7 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O47" t="n">
         <v>1.53</v>
@@ -6880,7 +6880,7 @@
         <v>4.3</v>
       </c>
       <c r="G48" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H48" t="n">
         <v>1.94</v>
@@ -6901,7 +6901,7 @@
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O48" t="n">
         <v>1.46</v>
@@ -6913,13 +6913,13 @@
         <v>2.32</v>
       </c>
       <c r="R48" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S48" t="n">
         <v>4.1</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U48" t="n">
         <v>1.78</v>
@@ -6928,7 +6928,7 @@
         <v>1.86</v>
       </c>
       <c r="W48" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X48" t="n">
         <v>12</v>
@@ -6943,7 +6943,7 @@
         <v>32</v>
       </c>
       <c r="AB48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC48" t="n">
         <v>9.199999999999999</v>
@@ -6955,10 +6955,10 @@
         <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH48" t="n">
         <v>28</v>
@@ -7138,121 +7138,121 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P50" t="n">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7273,121 +7273,121 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R51" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7453,7 +7453,7 @@
         <v>1.91</v>
       </c>
       <c r="R52" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S52" t="n">
         <v>1.92</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G54" t="n">
         <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K54" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L54" t="n">
         <v>1.27</v>
@@ -7717,28 +7717,28 @@
         <v>1.28</v>
       </c>
       <c r="P54" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
         <v>1.68</v>
       </c>
       <c r="R54" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S54" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
         <v>1.71</v>
       </c>
       <c r="U54" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V54" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W54" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X54" t="n">
         <v>970</v>
@@ -7822,25 +7822,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="G55" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="H55" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="I55" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="J55" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="K55" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
@@ -7870,10 +7870,10 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W55" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7996,7 +7996,7 @@
         <v>1.42</v>
       </c>
       <c r="S56" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="T56" t="n">
         <v>1.64</v>
@@ -8098,10 +8098,10 @@
         <v>2.18</v>
       </c>
       <c r="H57" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J57" t="n">
         <v>3.85</v>
@@ -8116,22 +8116,22 @@
         <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O57" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P57" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q57" t="n">
         <v>1.59</v>
       </c>
       <c r="R57" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S57" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T57" t="n">
         <v>1.5</v>
@@ -8140,7 +8140,7 @@
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W57" t="n">
         <v>1.84</v>
@@ -8194,7 +8194,7 @@
         <v>90</v>
       </c>
       <c r="AN57" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8386,7 +8386,7 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="O59" t="n">
         <v>1.13</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G60" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H60" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I60" t="n">
         <v>2.8</v>
       </c>
-      <c r="I60" t="n">
-        <v>2.84</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K60" t="n">
         <v>3.35</v>
@@ -8521,10 +8521,10 @@
         <v>1.09</v>
       </c>
       <c r="N60" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P60" t="n">
         <v>1.8</v>
@@ -8533,22 +8533,22 @@
         <v>2.2</v>
       </c>
       <c r="R60" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
       </c>
       <c r="T60" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V60" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W60" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X60" t="n">
         <v>11</v>
@@ -8599,7 +8599,7 @@
         <v>110</v>
       </c>
       <c r="AN60" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO60" t="n">
         <v>32</v>
@@ -8635,10 +8635,10 @@
         <v>2.1</v>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H61" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I61" t="n">
         <v>4</v>
@@ -8647,7 +8647,7 @@
         <v>3.6</v>
       </c>
       <c r="K61" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L61" t="n">
         <v>1.37</v>
@@ -8665,7 +8665,7 @@
         <v>2.08</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R61" t="n">
         <v>1.43</v>
@@ -8806,10 +8806,10 @@
         <v>1.31</v>
       </c>
       <c r="S62" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U62" t="n">
         <v>1.01</v>
@@ -8905,10 +8905,10 @@
         <v>4.1</v>
       </c>
       <c r="G63" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="H63" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="I63" t="n">
         <v>2.4</v>
@@ -8929,7 +8929,7 @@
         <v>1.01</v>
       </c>
       <c r="O63" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="P63" t="n">
         <v>1.25</v>
@@ -8941,13 +8941,13 @@
         <v>1.24</v>
       </c>
       <c r="S63" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T63" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U63" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V63" t="n">
         <v>1.71</v>
@@ -8983,19 +8983,19 @@
         <v>55</v>
       </c>
       <c r="AG63" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH63" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI63" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ63" t="n">
         <v>1000</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL63" t="n">
         <v>1000</v>
@@ -9043,7 +9043,7 @@
         <v>8.6</v>
       </c>
       <c r="H64" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="I64" t="n">
         <v>1.61</v>
@@ -9067,25 +9067,25 @@
         <v>1.26</v>
       </c>
       <c r="P64" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R64" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S64" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V64" t="n">
         <v>2.6</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U64" t="n">
-        <v>2</v>
-      </c>
-      <c r="V64" t="n">
-        <v>2.58</v>
       </c>
       <c r="W64" t="n">
         <v>1.15</v>
@@ -9175,16 +9175,16 @@
         <v>1.5</v>
       </c>
       <c r="G65" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I65" t="n">
         <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K65" t="n">
         <v>5.4</v>
@@ -9202,16 +9202,16 @@
         <v>1.18</v>
       </c>
       <c r="P65" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q65" t="n">
         <v>1.53</v>
       </c>
       <c r="R65" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S65" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T65" t="n">
         <v>1.58</v>
@@ -9223,7 +9223,7 @@
         <v>1.16</v>
       </c>
       <c r="W65" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X65" t="n">
         <v>38</v>
@@ -9232,7 +9232,7 @@
         <v>40</v>
       </c>
       <c r="Z65" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
@@ -9244,7 +9244,7 @@
         <v>17</v>
       </c>
       <c r="AD65" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE65" t="n">
         <v>100</v>
@@ -9256,13 +9256,13 @@
         <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI65" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK65" t="n">
         <v>21</v>
@@ -9271,13 +9271,13 @@
         <v>40</v>
       </c>
       <c r="AM65" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN65" t="n">
         <v>1000</v>
       </c>
       <c r="AO65" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
@@ -9331,22 +9331,22 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
       </c>
       <c r="P66" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q66" t="n">
         <v>1.46</v>
       </c>
       <c r="R66" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S66" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H67" t="n">
         <v>1.96</v>
@@ -9532,7 +9532,7 @@
         <v>27</v>
       </c>
       <c r="AJ67" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK67" t="n">
         <v>40</v>
@@ -9613,10 +9613,10 @@
         <v>1.94</v>
       </c>
       <c r="R68" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S68" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9751,7 +9751,7 @@
         <v>2.02</v>
       </c>
       <c r="S69" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T69" t="n">
         <v>1.53</v>
@@ -9769,7 +9769,7 @@
         <v>42</v>
       </c>
       <c r="Y69" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z69" t="n">
         <v>14</v>
@@ -9886,7 +9886,7 @@
         <v>1.38</v>
       </c>
       <c r="S70" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T70" t="n">
         <v>1.79</v>
@@ -9988,7 +9988,7 @@
         <v>2.06</v>
       </c>
       <c r="H71" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
         <v>4.1</v>
@@ -10009,7 +10009,7 @@
         <v>4.1</v>
       </c>
       <c r="O71" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P71" t="n">
         <v>2.06</v>
@@ -10045,7 +10045,7 @@
         <v>29</v>
       </c>
       <c r="AA71" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB71" t="n">
         <v>10</v>
@@ -10141,10 +10141,10 @@
         <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O72" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -10156,7 +10156,7 @@
         <v>1.38</v>
       </c>
       <c r="S72" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T72" t="n">
         <v>1.81</v>
@@ -10276,7 +10276,7 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="O73" t="n">
         <v>1.01</v>
@@ -10285,10 +10285,10 @@
         <v>1.9</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="R73" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S73" t="n">
         <v>2.58</v>
@@ -10660,13 +10660,13 @@
         <v>2.74</v>
       </c>
       <c r="G76" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I76" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J76" t="n">
         <v>3.45</v>
@@ -10687,7 +10687,7 @@
         <v>1.27</v>
       </c>
       <c r="P76" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q76" t="n">
         <v>1.94</v>
@@ -10696,7 +10696,7 @@
         <v>1.32</v>
       </c>
       <c r="S76" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T76" t="n">
         <v>1.74</v>
@@ -10708,25 +10708,25 @@
         <v>1.56</v>
       </c>
       <c r="W76" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X76" t="n">
         <v>18</v>
       </c>
       <c r="Y76" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z76" t="n">
         <v>21</v>
       </c>
       <c r="AA76" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB76" t="n">
         <v>14</v>
       </c>
       <c r="AC76" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD76" t="n">
         <v>14.5</v>
@@ -10738,7 +10738,7 @@
         <v>24</v>
       </c>
       <c r="AG76" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH76" t="n">
         <v>23</v>
@@ -10750,13 +10750,13 @@
         <v>60</v>
       </c>
       <c r="AK76" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL76" t="n">
         <v>55</v>
       </c>
       <c r="AM76" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN76" t="n">
         <v>38</v>
@@ -10828,10 +10828,10 @@
         <v>1.74</v>
       </c>
       <c r="R77" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="S77" t="n">
-        <v>2.44</v>
+        <v>1.74</v>
       </c>
       <c r="T77" t="n">
         <v>1.01</v>
@@ -10930,13 +10930,13 @@
         <v>2.08</v>
       </c>
       <c r="G78" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>3.15</v>
       </c>
       <c r="I78" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J78" t="n">
         <v>3.7</v>
@@ -10963,7 +10963,7 @@
         <v>1.62</v>
       </c>
       <c r="R78" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S78" t="n">
         <v>2.54</v>
@@ -10978,13 +10978,13 @@
         <v>1.38</v>
       </c>
       <c r="W78" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X78" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z78" t="n">
         <v>28</v>
@@ -10996,10 +10996,10 @@
         <v>16</v>
       </c>
       <c r="AC78" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE78" t="n">
         <v>36</v>
@@ -11008,22 +11008,22 @@
         <v>20</v>
       </c>
       <c r="AG78" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI78" t="n">
         <v>46</v>
       </c>
       <c r="AJ78" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL78" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM78" t="n">
         <v>70</v>
@@ -11077,7 +11077,7 @@
         <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L79" t="n">
         <v>1.32</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G81" t="n">
         <v>2.36</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I81" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J81" t="n">
         <v>3.55</v>
       </c>
       <c r="K81" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L81" t="n">
         <v>1.38</v>
@@ -11377,10 +11377,10 @@
         <v>1.65</v>
       </c>
       <c r="U81" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V81" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W81" t="n">
         <v>1.73</v>
@@ -11392,7 +11392,7 @@
         <v>20</v>
       </c>
       <c r="Z81" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA81" t="n">
         <v>95</v>
@@ -11470,13 +11470,13 @@
         <v>3.5</v>
       </c>
       <c r="G82" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>2.2</v>
       </c>
       <c r="I82" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J82" t="n">
         <v>3.3</v>
@@ -11488,91 +11488,91 @@
         <v>1.43</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>1.76</v>
+        <v>3.25</v>
       </c>
       <c r="O82" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P82" t="n">
         <v>1.76</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R82" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S82" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T82" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="U82" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W82" t="n">
         <v>1.35</v>
       </c>
       <c r="X82" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y82" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB82" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z82" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA82" t="n">
+      <c r="AC82" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI82" t="n">
         <v>44</v>
       </c>
-      <c r="AB82" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI82" t="n">
+      <c r="AJ82" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL82" t="n">
         <v>60</v>
       </c>
-      <c r="AJ82" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>80</v>
-      </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN82" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AO82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G83" t="n">
         <v>1.85</v>
@@ -11611,7 +11611,7 @@
         <v>4.9</v>
       </c>
       <c r="I83" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
         <v>3.85</v>
@@ -11638,19 +11638,19 @@
         <v>1.87</v>
       </c>
       <c r="R83" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S83" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T83" t="n">
         <v>1.73</v>
       </c>
       <c r="U83" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V83" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W83" t="n">
         <v>2.16</v>
@@ -11740,10 +11740,10 @@
         <v>2.08</v>
       </c>
       <c r="G84" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H84" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3.9</v>
@@ -11761,28 +11761,28 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O84" t="n">
         <v>1.26</v>
       </c>
       <c r="P84" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="R84" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S84" t="n">
         <v>2.84</v>
       </c>
       <c r="T84" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U84" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V84" t="n">
         <v>1.35</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I86" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J86" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K86" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12040,13 +12040,13 @@
         <v>1.68</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R86" t="n">
         <v>1.24</v>
       </c>
       <c r="S86" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,10 +12055,10 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W86" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12118,7 +12118,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,31 +12133,31 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.65</v>
+        <v>1.64</v>
       </c>
       <c r="G87" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.3</v>
       </c>
-      <c r="H87" t="n">
-        <v>2.16</v>
-      </c>
       <c r="I87" t="n">
-        <v>2.42</v>
+        <v>7.2</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="K87" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12166,79 +12166,79 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>1.59</v>
+        <v>1.99</v>
       </c>
       <c r="O87" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="P87" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="R87" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="S87" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="T87" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U87" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V87" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="W87" t="n">
-        <v>1.31</v>
+        <v>2.18</v>
       </c>
       <c r="X87" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Y87" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Z87" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AA87" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC87" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD87" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AE87" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AG87" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH87" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI87" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK87" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AL87" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM87" t="n">
         <v>1000</v>
@@ -12286,10 +12286,10 @@
         <v>4.5</v>
       </c>
       <c r="I88" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K88" t="n">
         <v>6.4</v>
@@ -12301,28 +12301,28 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="R88" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S88" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T88" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U88" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V88" t="n">
         <v>1.14</v>
@@ -12415,7 +12415,7 @@
         <v>1.73</v>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H89" t="n">
         <v>4.2</v>
@@ -12424,13 +12424,13 @@
         <v>7</v>
       </c>
       <c r="J89" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K89" t="n">
         <v>5.6</v>
       </c>
       <c r="L89" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M89" t="n">
         <v>1.04</v>
@@ -12442,10 +12442,10 @@
         <v>1.32</v>
       </c>
       <c r="P89" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.32</v>
+        <v>1.82</v>
       </c>
       <c r="R89" t="n">
         <v>1.27</v>
@@ -12463,7 +12463,7 @@
         <v>1.18</v>
       </c>
       <c r="W89" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12571,7 +12571,7 @@
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O90" t="n">
         <v>1.2</v>
@@ -12580,13 +12580,13 @@
         <v>2.34</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R90" t="n">
         <v>1.55</v>
       </c>
       <c r="S90" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T90" t="n">
         <v>1.53</v>
@@ -12631,7 +12631,7 @@
         <v>16</v>
       </c>
       <c r="AH90" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI90" t="n">
         <v>32</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G91" t="n">
         <v>1.71</v>
@@ -12697,7 +12697,7 @@
         <v>3.9</v>
       </c>
       <c r="K91" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
@@ -12820,22 +12820,22 @@
         <v>1.82</v>
       </c>
       <c r="G92" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H92" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K92" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L92" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
@@ -12868,7 +12868,7 @@
         <v>1.25</v>
       </c>
       <c r="W92" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X92" t="n">
         <v>1000</v>
@@ -13105,31 +13105,31 @@
         <v>3.65</v>
       </c>
       <c r="L94" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M94" t="n">
         <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O94" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P94" t="n">
         <v>2.12</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R94" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S94" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T94" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U94" t="n">
         <v>2.34</v>
@@ -13240,31 +13240,31 @@
         <v>3.9</v>
       </c>
       <c r="L95" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M95" t="n">
         <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O95" t="n">
         <v>1.32</v>
       </c>
       <c r="P95" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q95" t="n">
         <v>1.92</v>
       </c>
       <c r="R95" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S95" t="n">
         <v>3.35</v>
       </c>
       <c r="T95" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U95" t="n">
         <v>2.08</v>
@@ -13504,10 +13504,10 @@
         <v>13.5</v>
       </c>
       <c r="J97" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K97" t="n">
         <v>7</v>
-      </c>
-      <c r="K97" t="n">
-        <v>7.2</v>
       </c>
       <c r="L97" t="n">
         <v>1.27</v>
@@ -13516,7 +13516,7 @@
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O97" t="n">
         <v>1.18</v>
@@ -13525,28 +13525,28 @@
         <v>2.74</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R97" t="n">
         <v>1.69</v>
       </c>
       <c r="S97" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T97" t="n">
         <v>2.08</v>
       </c>
       <c r="U97" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V97" t="n">
         <v>1.08</v>
       </c>
       <c r="W97" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X97" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y97" t="n">
         <v>44</v>
@@ -13567,10 +13567,10 @@
         <v>46</v>
       </c>
       <c r="AE97" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF97" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG97" t="n">
         <v>11</v>
@@ -13594,7 +13594,7 @@
         <v>150</v>
       </c>
       <c r="AN97" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO97" t="n">
         <v>200</v>
@@ -13633,16 +13633,16 @@
         <v>1.16</v>
       </c>
       <c r="H98" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I98" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J98" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="L98" t="n">
         <v>1.21</v>
@@ -13657,22 +13657,22 @@
         <v>1.12</v>
       </c>
       <c r="P98" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q98" t="n">
         <v>1.37</v>
       </c>
       <c r="R98" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S98" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="T98" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U98" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="V98" t="n">
         <v>1.03</v>
@@ -13681,7 +13681,7 @@
         <v>7.2</v>
       </c>
       <c r="X98" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y98" t="n">
         <v>110</v>
@@ -13705,7 +13705,7 @@
         <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AG98" t="n">
         <v>970</v>
@@ -13714,22 +13714,22 @@
         <v>60</v>
       </c>
       <c r="AI98" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ98" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AK98" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AL98" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM98" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN98" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="AO98" t="n">
         <v>1000</v>
@@ -13738,7 +13738,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -13753,112 +13753,112 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.56</v>
+        <v>3.7</v>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H99" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="I99" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="J99" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S99" t="n">
         <v>4</v>
       </c>
-      <c r="L99" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N99" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P99" t="n">
+      <c r="T99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V99" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q99" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R99" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S99" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T99" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U99" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V99" t="n">
-        <v>1.39</v>
-      </c>
       <c r="W99" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="X99" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z99" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB99" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC99" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD99" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE99" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF99" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG99" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AH99" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI99" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ99" t="n">
         <v>1000</v>
       </c>
       <c r="AK99" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AL99" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM99" t="n">
         <v>1000</v>
@@ -13888,76 +13888,76 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.64</v>
+        <v>2.58</v>
       </c>
       <c r="G100" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
-        <v>4.3</v>
+        <v>2.82</v>
       </c>
       <c r="I100" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="J100" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K100" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
       </c>
       <c r="M100" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N100" t="n">
-        <v>1.99</v>
+        <v>2.9</v>
       </c>
       <c r="O100" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P100" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="R100" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="S100" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="T100" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U100" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="W100" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="X100" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="Y100" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z100" t="n">
         <v>29</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>1000</v>
       </c>
       <c r="AA100" t="n">
         <v>1000</v>
@@ -13969,28 +13969,28 @@
         <v>970</v>
       </c>
       <c r="AD100" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AE100" t="n">
         <v>1000</v>
       </c>
       <c r="AF100" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG100" t="n">
         <v>970</v>
       </c>
       <c r="AH100" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI100" t="n">
         <v>1000</v>
       </c>
       <c r="AJ100" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK100" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AL100" t="n">
         <v>1000</v>
@@ -14074,10 +14074,10 @@
         <v>4.3</v>
       </c>
       <c r="T101" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U101" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V101" t="n">
         <v>1.36</v>
@@ -14086,7 +14086,7 @@
         <v>1.77</v>
       </c>
       <c r="X101" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y101" t="n">
         <v>12</v>
@@ -14191,7 +14191,7 @@
         <v>1.13</v>
       </c>
       <c r="N102" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O102" t="n">
         <v>1.55</v>
@@ -14302,19 +14302,19 @@
         </is>
       </c>
       <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I103" t="n">
         <v>2.96</v>
       </c>
-      <c r="G103" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.05</v>
-      </c>
       <c r="J103" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K103" t="n">
         <v>3.1</v>
@@ -14326,16 +14326,16 @@
         <v>1.1</v>
       </c>
       <c r="N103" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="O103" t="n">
         <v>1.58</v>
       </c>
       <c r="P103" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R103" t="n">
         <v>1.16</v>
@@ -14347,31 +14347,31 @@
         <v>1.96</v>
       </c>
       <c r="U103" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V103" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W103" t="n">
         <v>1.45</v>
       </c>
       <c r="X103" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y103" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>11</v>
       </c>
       <c r="Z103" t="n">
         <v>24</v>
       </c>
       <c r="AA103" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB103" t="n">
         <v>12</v>
       </c>
       <c r="AC103" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD103" t="n">
         <v>19.5</v>
@@ -14383,13 +14383,13 @@
         <v>27</v>
       </c>
       <c r="AG103" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH103" t="n">
         <v>32</v>
       </c>
       <c r="AI103" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ103" t="n">
         <v>80</v>
@@ -14407,7 +14407,7 @@
         <v>85</v>
       </c>
       <c r="AO103" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104">
@@ -14449,7 +14449,7 @@
         <v>6.8</v>
       </c>
       <c r="J104" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K104" t="n">
         <v>7.2</v>
@@ -14470,10 +14470,10 @@
         <v>1.97</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R104" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S104" t="n">
         <v>2.52</v>
@@ -14581,10 +14581,10 @@
         <v>5.3</v>
       </c>
       <c r="I105" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J105" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K105" t="n">
         <v>3.3</v>
@@ -14593,19 +14593,19 @@
         <v>1.63</v>
       </c>
       <c r="M105" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N105" t="n">
-        <v>1.51</v>
+        <v>2.42</v>
       </c>
       <c r="O105" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="P105" t="n">
         <v>1.51</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R105" t="n">
         <v>1.18</v>
@@ -14614,13 +14614,13 @@
         <v>5.1</v>
       </c>
       <c r="T105" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U105" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="V105" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W105" t="n">
         <v>2.04</v>
@@ -14629,16 +14629,16 @@
         <v>9.6</v>
       </c>
       <c r="Y105" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA105" t="n">
         <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC105" t="n">
         <v>10.5</v>
@@ -14707,13 +14707,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G106" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H106" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I106" t="n">
         <v>2.98</v>
@@ -14731,13 +14731,13 @@
         <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O106" t="n">
         <v>1.3</v>
       </c>
       <c r="P106" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q106" t="n">
         <v>2.02</v>
@@ -14746,19 +14746,19 @@
         <v>1.3</v>
       </c>
       <c r="S106" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T106" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U106" t="n">
         <v>1.91</v>
       </c>
       <c r="V106" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W106" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X106" t="n">
         <v>970</v>
@@ -14797,7 +14797,7 @@
         <v>55</v>
       </c>
       <c r="AJ106" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK106" t="n">
         <v>42</v>
@@ -14845,10 +14845,10 @@
         <v>4.8</v>
       </c>
       <c r="G107" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H107" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I107" t="n">
         <v>1.66</v>
@@ -14878,10 +14878,10 @@
         <v>1.33</v>
       </c>
       <c r="R107" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S107" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T107" t="n">
         <v>1.44</v>
@@ -14890,10 +14890,10 @@
         <v>2.78</v>
       </c>
       <c r="V107" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W107" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X107" t="n">
         <v>48</v>
@@ -14905,10 +14905,10 @@
         <v>970</v>
       </c>
       <c r="AA107" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB107" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC107" t="n">
         <v>15</v>
@@ -14920,13 +14920,13 @@
         <v>970</v>
       </c>
       <c r="AF107" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG107" t="n">
         <v>24</v>
       </c>
       <c r="AH107" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI107" t="n">
         <v>22</v>
@@ -14935,16 +14935,16 @@
         <v>130</v>
       </c>
       <c r="AK107" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL107" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM107" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN107" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AO107" t="n">
         <v>4.9</v>
@@ -14977,28 +14977,28 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G108" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H108" t="n">
         <v>3.85</v>
       </c>
       <c r="I108" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J108" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K108" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
       </c>
       <c r="M108" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N108" t="n">
         <v>5.7</v>
@@ -15007,10 +15007,10 @@
         <v>1.17</v>
       </c>
       <c r="P108" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R108" t="n">
         <v>1.65</v>
@@ -15019,13 +15019,13 @@
         <v>2.24</v>
       </c>
       <c r="T108" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="U108" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="V108" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W108" t="n">
         <v>2.02</v>
@@ -15043,7 +15043,7 @@
         <v>95</v>
       </c>
       <c r="AB108" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC108" t="n">
         <v>13</v>
@@ -15112,19 +15112,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G109" t="n">
         <v>5.1</v>
       </c>
       <c r="H109" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I109" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J109" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K109" t="n">
         <v>3.55</v>
@@ -15136,7 +15136,7 @@
         <v>1.11</v>
       </c>
       <c r="N109" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O109" t="n">
         <v>1.47</v>
@@ -15151,7 +15151,7 @@
         <v>1.21</v>
       </c>
       <c r="S109" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T109" t="n">
         <v>2.02</v>
@@ -15160,7 +15160,7 @@
         <v>1.78</v>
       </c>
       <c r="V109" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W109" t="n">
         <v>1.24</v>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G112" t="n">
         <v>1.81</v>
@@ -15547,13 +15547,13 @@
         <v>1.13</v>
       </c>
       <c r="P112" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R112" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S112" t="n">
         <v>1.01</v>
@@ -15565,7 +15565,7 @@
         <v>2.12</v>
       </c>
       <c r="V112" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W112" t="n">
         <v>2.22</v>
@@ -15589,10 +15589,10 @@
         <v>970</v>
       </c>
       <c r="AD112" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE112" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF112" t="n">
         <v>22</v>
@@ -15616,7 +15616,7 @@
         <v>34</v>
       </c>
       <c r="AM112" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN112" t="n">
         <v>1000</v>
@@ -15655,13 +15655,13 @@
         <v>1.61</v>
       </c>
       <c r="G113" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H113" t="n">
         <v>4.9</v>
       </c>
       <c r="I113" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J113" t="n">
         <v>4.2</v>
@@ -15682,7 +15682,7 @@
         <v>1.21</v>
       </c>
       <c r="P113" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q113" t="n">
         <v>1.62</v>
@@ -15694,7 +15694,7 @@
         <v>2.56</v>
       </c>
       <c r="T113" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U113" t="n">
         <v>2.16</v>
@@ -15703,13 +15703,13 @@
         <v>1.2</v>
       </c>
       <c r="W113" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X113" t="n">
         <v>28</v>
       </c>
       <c r="Y113" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z113" t="n">
         <v>55</v>
@@ -15745,7 +15745,7 @@
         <v>21</v>
       </c>
       <c r="AK113" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL113" t="n">
         <v>36</v>
@@ -15754,7 +15754,7 @@
         <v>110</v>
       </c>
       <c r="AN113" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO113" t="n">
         <v>70</v>
@@ -15793,7 +15793,7 @@
         <v>4.8</v>
       </c>
       <c r="H114" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I114" t="n">
         <v>1.95</v>
@@ -15841,7 +15841,7 @@
         <v>1.27</v>
       </c>
       <c r="X114" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y114" t="n">
         <v>13</v>
@@ -15928,10 +15928,10 @@
         <v>3.85</v>
       </c>
       <c r="H115" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I115" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J115" t="n">
         <v>3.55</v>
@@ -15946,22 +15946,22 @@
         <v>1.05</v>
       </c>
       <c r="N115" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O115" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R115" t="n">
         <v>1.32</v>
       </c>
       <c r="S115" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T115" t="n">
         <v>1.01</v>
@@ -15970,7 +15970,7 @@
         <v>2</v>
       </c>
       <c r="V115" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W115" t="n">
         <v>1.35</v>
@@ -15979,10 +15979,10 @@
         <v>1000</v>
       </c>
       <c r="Y115" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z115" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA115" t="n">
         <v>40</v>
@@ -15994,10 +15994,10 @@
         <v>12.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF115" t="n">
         <v>40</v>
@@ -16012,19 +16012,19 @@
         <v>50</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK115" t="n">
         <v>1000</v>
       </c>
       <c r="AL115" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM115" t="n">
         <v>1000</v>
       </c>
       <c r="AN115" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO115" t="n">
         <v>1000</v>
@@ -16060,7 +16060,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H116" t="n">
         <v>3.85</v>
@@ -16084,7 +16084,7 @@
         <v>3.7</v>
       </c>
       <c r="O116" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P116" t="n">
         <v>1.93</v>
@@ -16093,22 +16093,22 @@
         <v>1.92</v>
       </c>
       <c r="R116" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S116" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T116" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U116" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V116" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W116" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X116" t="n">
         <v>18</v>
@@ -16195,16 +16195,16 @@
         <v>5.1</v>
       </c>
       <c r="G117" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H117" t="n">
         <v>1.75</v>
       </c>
       <c r="I117" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J117" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K117" t="n">
         <v>4.3</v>
@@ -16222,10 +16222,10 @@
         <v>1.26</v>
       </c>
       <c r="P117" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R117" t="n">
         <v>1.47</v>
@@ -16234,7 +16234,7 @@
         <v>2.96</v>
       </c>
       <c r="T117" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U117" t="n">
         <v>2.16</v>
@@ -16330,7 +16330,7 @@
         <v>1.8</v>
       </c>
       <c r="G118" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H118" t="n">
         <v>3.3</v>
@@ -16339,34 +16339,34 @@
         <v>5.5</v>
       </c>
       <c r="J118" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K118" t="n">
         <v>7</v>
       </c>
       <c r="L118" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M118" t="n">
         <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="O118" t="n">
         <v>1.27</v>
       </c>
       <c r="P118" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q118" t="n">
         <v>1.67</v>
       </c>
       <c r="R118" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S118" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="T118" t="n">
         <v>1.01</v>
@@ -16378,7 +16378,7 @@
         <v>1.22</v>
       </c>
       <c r="W118" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X118" t="n">
         <v>1000</v>
@@ -16462,58 +16462,58 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G119" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H119" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I119" t="n">
         <v>3.35</v>
       </c>
       <c r="J119" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K119" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L119" t="n">
         <v>1.01</v>
       </c>
       <c r="M119" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N119" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O119" t="n">
         <v>1.35</v>
       </c>
       <c r="P119" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="Q119" t="n">
         <v>2.04</v>
       </c>
       <c r="R119" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="S119" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="T119" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U119" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V119" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W119" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X119" t="n">
         <v>14.5</v>
@@ -16522,13 +16522,13 @@
         <v>13</v>
       </c>
       <c r="Z119" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA119" t="n">
         <v>55</v>
       </c>
       <c r="AB119" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC119" t="n">
         <v>8.4</v>
@@ -16558,16 +16558,16 @@
         <v>29</v>
       </c>
       <c r="AL119" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM119" t="n">
         <v>120</v>
       </c>
       <c r="AN119" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AO119" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120">
@@ -16603,16 +16603,16 @@
         <v>3.45</v>
       </c>
       <c r="H120" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="I120" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J120" t="n">
         <v>3.1</v>
       </c>
       <c r="K120" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>
@@ -16636,7 +16636,7 @@
         <v>1.3</v>
       </c>
       <c r="S120" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T120" t="n">
         <v>1.01</v>
@@ -16645,7 +16645,7 @@
         <v>1.01</v>
       </c>
       <c r="V120" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W120" t="n">
         <v>1.41</v>
@@ -16732,19 +16732,19 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G121" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H121" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I121" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J121" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K121" t="n">
         <v>6.2</v>
@@ -16756,13 +16756,13 @@
         <v>1.02</v>
       </c>
       <c r="N121" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O121" t="n">
         <v>1.18</v>
       </c>
       <c r="P121" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q121" t="n">
         <v>1.54</v>
@@ -16774,16 +16774,16 @@
         <v>2.34</v>
       </c>
       <c r="T121" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U121" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V121" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W121" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X121" t="n">
         <v>32</v>
@@ -16795,7 +16795,7 @@
         <v>70</v>
       </c>
       <c r="AA121" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB121" t="n">
         <v>14</v>
@@ -16819,31 +16819,31 @@
         <v>24</v>
       </c>
       <c r="AI121" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ121" t="n">
         <v>18</v>
       </c>
       <c r="AK121" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL121" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM121" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN121" t="n">
         <v>7.2</v>
       </c>
       <c r="AO121" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -16858,127 +16858,127 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="G122" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="H122" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="I122" t="n">
-        <v>2.4</v>
+        <v>1.69</v>
       </c>
       <c r="J122" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="K122" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L122" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M122" t="n">
         <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>2.18</v>
+        <v>4.6</v>
       </c>
       <c r="O122" t="n">
         <v>1.24</v>
       </c>
       <c r="P122" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R122" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="S122" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="T122" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="U122" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="V122" t="n">
-        <v>1.72</v>
+        <v>2.44</v>
       </c>
       <c r="W122" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="X122" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y122" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE122" t="n">
         <v>17</v>
       </c>
-      <c r="Z122" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>34</v>
-      </c>
       <c r="AF122" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AG122" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH122" t="n">
         <v>21</v>
       </c>
-      <c r="AH122" t="n">
-        <v>24</v>
-      </c>
       <c r="AI122" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AJ122" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AK122" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AL122" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM122" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN122" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO122" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -16993,121 +16993,121 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5.4</v>
+        <v>2.12</v>
       </c>
       <c r="G123" t="n">
-        <v>6</v>
+        <v>2.26</v>
       </c>
       <c r="H123" t="n">
-        <v>1.66</v>
+        <v>3.15</v>
       </c>
       <c r="I123" t="n">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="J123" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K123" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L123" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M123" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N123" t="n">
-        <v>4.6</v>
+        <v>2.52</v>
       </c>
       <c r="O123" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P123" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="R123" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="S123" t="n">
-        <v>2.72</v>
+        <v>1.55</v>
       </c>
       <c r="T123" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U123" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V123" t="n">
-        <v>2.44</v>
+        <v>1.4</v>
       </c>
       <c r="W123" t="n">
-        <v>1.2</v>
+        <v>1.79</v>
       </c>
       <c r="X123" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Y123" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="Z123" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AA123" t="n">
-        <v>17.5</v>
+        <v>85</v>
       </c>
       <c r="AB123" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC123" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD123" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE123" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG123" t="n">
         <v>17</v>
       </c>
-      <c r="AF123" t="n">
+      <c r="AH123" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI123" t="n">
         <v>50</v>
       </c>
-      <c r="AG123" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ123" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK123" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AL123" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AM123" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN123" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO123" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="124">
@@ -17170,13 +17170,13 @@
         <v>1.87</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R124" t="n">
         <v>1.31</v>
       </c>
       <c r="S124" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T124" t="n">
         <v>1.01</v>
@@ -17263,121 +17263,121 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="G125" t="n">
-        <v>2.34</v>
+        <v>3.55</v>
       </c>
       <c r="H125" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="I125" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="J125" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K125" t="n">
         <v>3.95</v>
       </c>
-      <c r="K125" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L125" t="n">
         <v>1.01</v>
       </c>
       <c r="M125" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N125" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="O125" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P125" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R125" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S125" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="T125" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U125" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W125" t="n">
         <v>1.4</v>
       </c>
-      <c r="W125" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X125" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y125" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA125" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AB125" t="n">
         <v>21</v>
       </c>
       <c r="AC125" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE125" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI125" t="n">
         <v>48</v>
       </c>
-      <c r="AF125" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI125" t="n">
+      <c r="AJ125" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK125" t="n">
         <v>50</v>
       </c>
-      <c r="AJ125" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>30</v>
-      </c>
       <c r="AL125" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM125" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN125" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO125" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="126">
@@ -17410,7 +17410,7 @@
         <v>1.58</v>
       </c>
       <c r="G126" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>6.6</v>
@@ -17437,7 +17437,7 @@
         <v>1.28</v>
       </c>
       <c r="P126" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q126" t="n">
         <v>1.84</v>
@@ -17455,10 +17455,10 @@
         <v>1.99</v>
       </c>
       <c r="V126" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W126" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X126" t="n">
         <v>17</v>
@@ -17518,7 +17518,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -17533,31 +17533,31 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ethnikos Achnas</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.31</v>
+        <v>3.2</v>
       </c>
       <c r="G127" t="n">
-        <v>1.49</v>
+        <v>5.6</v>
       </c>
       <c r="H127" t="n">
-        <v>6.8</v>
+        <v>1.09</v>
       </c>
       <c r="I127" t="n">
-        <v>42</v>
+        <v>2.12</v>
       </c>
       <c r="J127" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="K127" t="n">
-        <v>11</v>
+        <v>950</v>
       </c>
       <c r="L127" t="n">
         <v>1.01</v>
@@ -17566,34 +17566,34 @@
         <v>1.01</v>
       </c>
       <c r="N127" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="O127" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="P127" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="R127" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S127" t="n">
-        <v>1.47</v>
+        <v>3.6</v>
       </c>
       <c r="T127" t="n">
         <v>1.01</v>
       </c>
       <c r="U127" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V127" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="W127" t="n">
-        <v>3</v>
+        <v>1.27</v>
       </c>
       <c r="X127" t="n">
         <v>1000</v>
@@ -17653,7 +17653,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -17668,31 +17668,31 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FC Kosice</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Ethnikos Achnas</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4.8</v>
+        <v>1.31</v>
       </c>
       <c r="G128" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.8</v>
       </c>
-      <c r="H128" t="n">
-        <v>1.61</v>
-      </c>
       <c r="I128" t="n">
-        <v>1.76</v>
+        <v>42</v>
       </c>
       <c r="J128" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K128" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L128" t="n">
         <v>1.01</v>
@@ -17701,22 +17701,22 @@
         <v>1.01</v>
       </c>
       <c r="N128" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="O128" t="n">
         <v>1.17</v>
       </c>
       <c r="P128" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R128" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="S128" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="T128" t="n">
         <v>1.01</v>
@@ -17725,10 +17725,10 @@
         <v>1.01</v>
       </c>
       <c r="V128" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="W128" t="n">
-        <v>1.17</v>
+        <v>3</v>
       </c>
       <c r="X128" t="n">
         <v>1000</v>
@@ -17788,7 +17788,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -17803,31 +17803,31 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>FC Kosice</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.94</v>
+        <v>4.8</v>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="H129" t="n">
-        <v>1.09</v>
+        <v>1.61</v>
       </c>
       <c r="I129" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="J129" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K129" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L129" t="n">
         <v>1.01</v>
@@ -17836,34 +17836,34 @@
         <v>1.01</v>
       </c>
       <c r="N129" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="O129" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="P129" t="n">
-        <v>1.62</v>
+        <v>2.42</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="R129" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="S129" t="n">
-        <v>3.55</v>
+        <v>2.16</v>
       </c>
       <c r="T129" t="n">
         <v>1.01</v>
       </c>
       <c r="U129" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V129" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="W129" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X129" t="n">
         <v>1000</v>
@@ -17923,7 +17923,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -17938,127 +17938,127 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.69</v>
+        <v>4.3</v>
       </c>
       <c r="G130" t="n">
-        <v>2.02</v>
+        <v>4.5</v>
       </c>
       <c r="H130" t="n">
-        <v>3.85</v>
+        <v>1.77</v>
       </c>
       <c r="I130" t="n">
-        <v>6.4</v>
+        <v>1.79</v>
       </c>
       <c r="J130" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="K130" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="L130" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M130" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N130" t="n">
-        <v>2.06</v>
+        <v>8</v>
       </c>
       <c r="O130" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="P130" t="n">
-        <v>2.06</v>
+        <v>3.4</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="R130" t="n">
-        <v>1.37</v>
+        <v>1.99</v>
       </c>
       <c r="S130" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="T130" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U130" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="V130" t="n">
-        <v>1.18</v>
+        <v>2.26</v>
       </c>
       <c r="W130" t="n">
-        <v>1.98</v>
+        <v>1.28</v>
       </c>
       <c r="X130" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y130" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z130" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB130" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC130" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD130" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE130" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF130" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG130" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH130" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI130" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AJ130" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK130" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL130" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM130" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN130" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO130" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -18073,127 +18073,127 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="G131" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H131" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="I131" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="J131" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K131" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="L131" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M131" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N131" t="n">
-        <v>5</v>
+        <v>1.87</v>
       </c>
       <c r="O131" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P131" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="R131" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="S131" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="T131" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="U131" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="V131" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="W131" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X131" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y131" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z131" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA131" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB131" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC131" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD131" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE131" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF131" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG131" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH131" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI131" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ131" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK131" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL131" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM131" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN131" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO131" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -18208,127 +18208,127 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="G132" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="H132" t="n">
-        <v>4.4</v>
+        <v>2.34</v>
       </c>
       <c r="I132" t="n">
-        <v>4.6</v>
+        <v>2.54</v>
       </c>
       <c r="J132" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="K132" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M132" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N132" t="n">
-        <v>6.6</v>
+        <v>1.72</v>
       </c>
       <c r="O132" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="P132" t="n">
-        <v>2.92</v>
+        <v>1.72</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.49</v>
+        <v>2.22</v>
       </c>
       <c r="R132" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="S132" t="n">
-        <v>2.18</v>
+        <v>3.55</v>
       </c>
       <c r="T132" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="U132" t="n">
-        <v>2.84</v>
+        <v>1.78</v>
       </c>
       <c r="V132" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="W132" t="n">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="X132" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y132" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Z132" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AA132" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AB132" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC132" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD132" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE132" t="n">
         <v>44</v>
       </c>
       <c r="AF132" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AG132" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AH132" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AI132" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AJ132" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AK132" t="n">
-        <v>15.5</v>
+        <v>65</v>
       </c>
       <c r="AL132" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="AM132" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN132" t="n">
-        <v>6.8</v>
+        <v>75</v>
       </c>
       <c r="AO132" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -18343,127 +18343,127 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="G133" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="I133" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="J133" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L133" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M133" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N133" t="n">
-        <v>1.87</v>
+        <v>4.9</v>
       </c>
       <c r="O133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P133" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S133" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W133" t="n">
         <v>1.29</v>
       </c>
-      <c r="P133" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R133" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S133" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T133" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U133" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V133" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W133" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X133" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y133" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z133" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA133" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB133" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC133" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD133" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE133" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG133" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH133" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI133" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ133" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK133" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL133" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM133" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN133" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO133" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -18478,127 +18478,127 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4.2</v>
+        <v>1.69</v>
       </c>
       <c r="G134" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="H134" t="n">
-        <v>1.77</v>
+        <v>3.85</v>
       </c>
       <c r="I134" t="n">
-        <v>1.79</v>
+        <v>6.4</v>
       </c>
       <c r="J134" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="K134" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="L134" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="M134" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N134" t="n">
-        <v>8</v>
+        <v>2.06</v>
       </c>
       <c r="O134" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="P134" t="n">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="R134" t="n">
-        <v>1.99</v>
+        <v>1.37</v>
       </c>
       <c r="S134" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="T134" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="U134" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="V134" t="n">
-        <v>2.26</v>
+        <v>1.18</v>
       </c>
       <c r="W134" t="n">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="X134" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y134" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z134" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA134" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB134" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC134" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD134" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE134" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF134" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG134" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH134" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI134" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AJ134" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK134" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL134" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM134" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AN134" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO134" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -18613,121 +18613,121 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="G135" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="H135" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="I135" t="n">
-        <v>2.54</v>
+        <v>4.6</v>
       </c>
       <c r="J135" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="K135" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L135" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M135" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N135" t="n">
-        <v>1.72</v>
+        <v>6.8</v>
       </c>
       <c r="O135" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="P135" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.22</v>
+        <v>1.49</v>
       </c>
       <c r="R135" t="n">
-        <v>1.23</v>
+        <v>1.79</v>
       </c>
       <c r="S135" t="n">
-        <v>3.55</v>
+        <v>2.2</v>
       </c>
       <c r="T135" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="U135" t="n">
-        <v>1.78</v>
+        <v>2.84</v>
       </c>
       <c r="V135" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="W135" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="X135" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Y135" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Z135" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AA135" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AB135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC135" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD135" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE135" t="n">
         <v>44</v>
       </c>
       <c r="AF135" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AG135" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ135" t="n">
         <v>21</v>
       </c>
-      <c r="AH135" t="n">
+      <c r="AK135" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO135" t="n">
         <v>28</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM135" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN135" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO135" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="136">
@@ -18766,13 +18766,13 @@
         <v>1.86</v>
       </c>
       <c r="I136" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J136" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K136" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L136" t="n">
         <v>1.01</v>
@@ -18805,10 +18805,10 @@
         <v>2.24</v>
       </c>
       <c r="V136" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W136" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X136" t="n">
         <v>25</v>
@@ -18844,10 +18844,10 @@
         <v>970</v>
       </c>
       <c r="AI136" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ136" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK136" t="n">
         <v>55</v>
@@ -18856,10 +18856,10 @@
         <v>55</v>
       </c>
       <c r="AM136" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN136" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO136" t="n">
         <v>11</v>
@@ -18892,19 +18892,19 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G137" t="n">
         <v>12</v>
       </c>
       <c r="H137" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="I137" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="J137" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K137" t="n">
         <v>4.9</v>
@@ -18916,13 +18916,13 @@
         <v>1.01</v>
       </c>
       <c r="N137" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="O137" t="n">
         <v>1.36</v>
       </c>
       <c r="P137" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q137" t="n">
         <v>2.06</v>
@@ -18931,7 +18931,7 @@
         <v>1.24</v>
       </c>
       <c r="S137" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T137" t="n">
         <v>1.01</v>
@@ -18940,7 +18940,7 @@
         <v>1.01</v>
       </c>
       <c r="V137" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="W137" t="n">
         <v>1.09</v>
@@ -19030,10 +19030,10 @@
         <v>2.68</v>
       </c>
       <c r="G138" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H138" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I138" t="n">
         <v>2.9</v>
@@ -19051,10 +19051,10 @@
         <v>1.07</v>
       </c>
       <c r="N138" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O138" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P138" t="n">
         <v>1.96</v>
@@ -19066,19 +19066,19 @@
         <v>1.37</v>
       </c>
       <c r="S138" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T138" t="n">
         <v>1.76</v>
       </c>
       <c r="U138" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V138" t="n">
         <v>1.52</v>
       </c>
       <c r="W138" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X138" t="n">
         <v>14</v>
@@ -19168,13 +19168,13 @@
         <v>3.35</v>
       </c>
       <c r="H139" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="I139" t="n">
         <v>2.68</v>
       </c>
       <c r="J139" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K139" t="n">
         <v>3.45</v>
@@ -19567,19 +19567,19 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H142" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I142" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J142" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K142" t="n">
         <v>3.75</v>
@@ -19615,10 +19615,10 @@
         <v>1.01</v>
       </c>
       <c r="V142" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W142" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X142" t="n">
         <v>1000</v>
@@ -19708,19 +19708,19 @@
         <v>2.28</v>
       </c>
       <c r="H143" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I143" t="n">
         <v>4.7</v>
       </c>
       <c r="J143" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K143" t="n">
         <v>3.7</v>
       </c>
       <c r="L143" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M143" t="n">
         <v>1.01</v>
@@ -19780,7 +19780,7 @@
         <v>85</v>
       </c>
       <c r="AF143" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG143" t="n">
         <v>15.5</v>
@@ -19813,7 +19813,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -19828,127 +19828,127 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="G144" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="H144" t="n">
         <v>2.8</v>
       </c>
       <c r="I144" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="J144" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K144" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L144" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N144" t="n">
         <v>1.05</v>
       </c>
-      <c r="N144" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O144" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P144" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="R144" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S144" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="T144" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="U144" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="V144" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="W144" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X144" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y144" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z144" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA144" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB144" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC144" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD144" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE144" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF144" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG144" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH144" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI144" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ144" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK144" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL144" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM144" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN144" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO144" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -19963,121 +19963,121 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="F145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P145" t="n">
         <v>2.16</v>
       </c>
-      <c r="G145" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M145" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N145" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P145" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Q145" t="n">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="R145" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S145" t="n">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="T145" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U145" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V145" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="W145" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X145" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y145" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z145" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA145" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB145" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC145" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD145" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE145" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF145" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG145" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH145" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI145" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ145" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK145" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL145" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM145" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN145" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO145" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
@@ -20116,10 +20116,10 @@
         <v>1.84</v>
       </c>
       <c r="I146" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J146" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K146" t="n">
         <v>6.6</v>
@@ -20155,7 +20155,7 @@
         <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="W146" t="n">
         <v>1.25</v>
@@ -20386,7 +20386,7 @@
         <v>2.22</v>
       </c>
       <c r="I148" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J148" t="n">
         <v>3.35</v>
@@ -20401,10 +20401,10 @@
         <v>1.01</v>
       </c>
       <c r="N148" t="n">
-        <v>2.82</v>
+        <v>1.87</v>
       </c>
       <c r="O148" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P148" t="n">
         <v>1.78</v>
@@ -20425,10 +20425,10 @@
         <v>1.94</v>
       </c>
       <c r="V148" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W148" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X148" t="n">
         <v>18</v>
@@ -20521,10 +20521,10 @@
         <v>4.3</v>
       </c>
       <c r="I149" t="n">
-        <v>970</v>
+        <v>6.2</v>
       </c>
       <c r="J149" t="n">
-        <v>2.26</v>
+        <v>3.45</v>
       </c>
       <c r="K149" t="n">
         <v>4.5</v>
@@ -20545,7 +20545,7 @@
         <v>2.14</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R149" t="n">
         <v>1.54</v>
@@ -20557,7 +20557,7 @@
         <v>1.01</v>
       </c>
       <c r="U149" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V149" t="n">
         <v>1.26</v>
@@ -20647,22 +20647,22 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G150" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H150" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J150" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K150" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L150" t="n">
         <v>1.01</v>
@@ -20698,7 +20698,7 @@
         <v>1.36</v>
       </c>
       <c r="W150" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X150" t="n">
         <v>1000</v>
@@ -20782,13 +20782,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G151" t="n">
         <v>1.88</v>
       </c>
       <c r="H151" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I151" t="n">
         <v>4.3</v>
@@ -20854,7 +20854,7 @@
         <v>12.5</v>
       </c>
       <c r="AD151" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE151" t="n">
         <v>42</v>
@@ -20929,7 +20929,7 @@
         <v>1.7</v>
       </c>
       <c r="J152" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K152" t="n">
         <v>4.3</v>
@@ -20944,13 +20944,13 @@
         <v>3.75</v>
       </c>
       <c r="O152" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P152" t="n">
         <v>1.95</v>
       </c>
       <c r="Q152" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R152" t="n">
         <v>1.36</v>
@@ -20959,7 +20959,7 @@
         <v>3.6</v>
       </c>
       <c r="T152" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U152" t="n">
         <v>1.95</v>
@@ -21058,13 +21058,13 @@
         <v>1.21</v>
       </c>
       <c r="H153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I153" t="n">
         <v>18</v>
       </c>
       <c r="J153" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K153" t="n">
         <v>9.6</v>
@@ -21094,7 +21094,7 @@
         <v>1.72</v>
       </c>
       <c r="T153" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U153" t="n">
         <v>1.01</v>
@@ -21103,7 +21103,7 @@
         <v>1.06</v>
       </c>
       <c r="W153" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X153" t="n">
         <v>70</v>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G154" t="n">
         <v>6.2</v>
@@ -21220,7 +21220,7 @@
         <v>2.06</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R154" t="n">
         <v>1.41</v>
@@ -21328,13 +21328,13 @@
         <v>3.7</v>
       </c>
       <c r="H155" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I155" t="n">
         <v>2.36</v>
       </c>
       <c r="J155" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K155" t="n">
         <v>3.4</v>
@@ -21364,13 +21364,13 @@
         <v>4.5</v>
       </c>
       <c r="T155" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U155" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V155" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W155" t="n">
         <v>1.37</v>
@@ -21409,7 +21409,7 @@
         <v>21</v>
       </c>
       <c r="AI155" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ155" t="n">
         <v>70</v>
@@ -21427,7 +21427,7 @@
         <v>60</v>
       </c>
       <c r="AO155" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
@@ -21460,10 +21460,10 @@
         <v>1.32</v>
       </c>
       <c r="G156" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H156" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I156" t="n">
         <v>11</v>
@@ -21481,28 +21481,28 @@
         <v>1.02</v>
       </c>
       <c r="N156" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O156" t="n">
         <v>1.14</v>
       </c>
       <c r="P156" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q156" t="n">
         <v>1.43</v>
       </c>
       <c r="R156" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S156" t="n">
         <v>2.08</v>
       </c>
       <c r="T156" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U156" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V156" t="n">
         <v>1.1</v>
@@ -21523,7 +21523,7 @@
         <v>380</v>
       </c>
       <c r="AB156" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC156" t="n">
         <v>15.5</v>
@@ -21532,7 +21532,7 @@
         <v>38</v>
       </c>
       <c r="AE156" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF156" t="n">
         <v>10.5</v>
@@ -21547,7 +21547,7 @@
         <v>110</v>
       </c>
       <c r="AJ156" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK156" t="n">
         <v>12.5</v>
@@ -21559,7 +21559,7 @@
         <v>110</v>
       </c>
       <c r="AN156" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AO156" t="n">
         <v>120</v>
@@ -21613,7 +21613,7 @@
         <v>1.44</v>
       </c>
       <c r="M157" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N157" t="n">
         <v>1.06</v>
@@ -21634,10 +21634,10 @@
         <v>3.2</v>
       </c>
       <c r="T157" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U157" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V157" t="n">
         <v>1.77</v>
@@ -21727,22 +21727,22 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G158" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H158" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J158" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K158" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L158" t="n">
         <v>1.01</v>
@@ -21775,10 +21775,10 @@
         <v>1.01</v>
       </c>
       <c r="V158" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W158" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X158" t="n">
         <v>1000</v>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="G159" t="n">
         <v>1.5</v>
@@ -21877,7 +21877,7 @@
         <v>4.1</v>
       </c>
       <c r="K159" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="L159" t="n">
         <v>1.01</v>
@@ -21886,7 +21886,7 @@
         <v>1.06</v>
       </c>
       <c r="N159" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O159" t="n">
         <v>1.32</v>
@@ -21907,7 +21907,7 @@
         <v>2.14</v>
       </c>
       <c r="U159" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V159" t="n">
         <v>1.1</v>
@@ -22000,28 +22000,28 @@
         <v>2.36</v>
       </c>
       <c r="G160" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H160" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I160" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J160" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K160" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L160" t="n">
         <v>1.31</v>
       </c>
       <c r="M160" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N160" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O160" t="n">
         <v>1.28</v>
@@ -22030,13 +22030,13 @@
         <v>2</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="R160" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S160" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T160" t="n">
         <v>1.67</v>
@@ -22045,13 +22045,13 @@
         <v>2.22</v>
       </c>
       <c r="V160" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W160" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="X160" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y160" t="n">
         <v>15</v>
@@ -22075,7 +22075,7 @@
         <v>36</v>
       </c>
       <c r="AF160" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG160" t="n">
         <v>12</v>
@@ -22102,7 +22102,7 @@
         <v>18.5</v>
       </c>
       <c r="AO160" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
@@ -22132,28 +22132,28 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G161" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="H161" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="I161" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J161" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K161" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L161" t="n">
         <v>1.01</v>
       </c>
       <c r="M161" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N161" t="n">
         <v>2.06</v>
@@ -22171,7 +22171,7 @@
         <v>1.42</v>
       </c>
       <c r="S161" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="T161" t="n">
         <v>1.01</v>
@@ -22180,7 +22180,7 @@
         <v>1.01</v>
       </c>
       <c r="V161" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W161" t="n">
         <v>1.22</v>
@@ -22222,7 +22222,7 @@
         <v>1000</v>
       </c>
       <c r="AJ161" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK161" t="n">
         <v>1000</v>
@@ -22267,22 +22267,22 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G162" t="n">
         <v>1.72</v>
       </c>
       <c r="H162" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I162" t="n">
         <v>7</v>
       </c>
       <c r="J162" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K162" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L162" t="n">
         <v>1.32</v>
@@ -22291,31 +22291,31 @@
         <v>1.05</v>
       </c>
       <c r="N162" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O162" t="n">
         <v>1.3</v>
       </c>
       <c r="P162" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R162" t="n">
         <v>1.37</v>
       </c>
       <c r="S162" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T162" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U162" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V162" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W162" t="n">
         <v>2.38</v>
@@ -22333,10 +22333,10 @@
         <v>1000</v>
       </c>
       <c r="AB162" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC162" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD162" t="n">
         <v>1000</v>
@@ -22348,7 +22348,7 @@
         <v>1000</v>
       </c>
       <c r="AG162" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH162" t="n">
         <v>1000</v>
@@ -22366,7 +22366,7 @@
         <v>1000</v>
       </c>
       <c r="AM162" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN162" t="n">
         <v>1000</v>
@@ -22537,22 +22537,22 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G164" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="H164" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="I164" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J164" t="n">
         <v>4.9</v>
       </c>
       <c r="K164" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>1.24</v>
       </c>
       <c r="P164" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q164" t="n">
         <v>1.58</v>
@@ -22696,7 +22696,7 @@
         <v>1.01</v>
       </c>
       <c r="N165" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O165" t="n">
         <v>1.21</v>
@@ -22807,19 +22807,19 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="G166" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="H166" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="I166" t="n">
-        <v>2.36</v>
+        <v>7.2</v>
       </c>
       <c r="J166" t="n">
-        <v>2.5</v>
+        <v>1.34</v>
       </c>
       <c r="K166" t="n">
         <v>950</v>
@@ -22834,13 +22834,13 @@
         <v>1.01</v>
       </c>
       <c r="O166" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P166" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R166" t="n">
         <v>0</v>
@@ -22966,13 +22966,13 @@
         <v>1.01</v>
       </c>
       <c r="N167" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="O167" t="n">
         <v>1.01</v>
       </c>
       <c r="P167" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q167" t="n">
         <v>1.01</v>
@@ -23048,6 +23048,276 @@
       </c>
       <c r="AO167" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Jorge Wilstermann</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K168" t="n">
+        <v>950</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W168" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="X168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H169" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K169" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N169" t="n">
+        <v>6</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P169" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X169" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-06.xlsx
@@ -682,7 +682,7 @@
         <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -691,16 +691,16 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
@@ -709,7 +709,7 @@
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>1.97</v>
@@ -718,7 +718,7 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X2" t="n">
         <v>17.5</v>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
         <v>9.199999999999999</v>
@@ -763,13 +763,13 @@
         <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
         <v>130</v>
@@ -802,43 +802,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G3" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
         <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
         <v>2.52</v>
@@ -847,19 +847,19 @@
         <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="X3" t="n">
         <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="n">
         <v>130</v>
@@ -868,13 +868,13 @@
         <v>520</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="n">
         <v>230</v>
@@ -892,7 +892,7 @@
         <v>170</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK3" t="n">
         <v>17.5</v>
@@ -904,7 +904,7 @@
         <v>200</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.24</v>
@@ -949,40 +949,40 @@
         <v>2.38</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
         <v>1.72</v>
@@ -1015,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>17.5</v>
@@ -1030,7 +1030,7 @@
         <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL4" t="n">
         <v>60</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1090,43 +1090,43 @@
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.52</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1135,25 +1135,25 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>1.28</v>
@@ -1243,10 +1243,10 @@
         <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
@@ -1264,55 +1264,55 @@
         <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="n">
         <v>140</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG6" t="n">
         <v>11</v>
       </c>
-      <c r="AD6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1345,106 +1345,106 @@
         <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
         <v>38</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1489,19 +1489,19 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1525,10 +1525,10 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X8" t="n">
         <v>25</v>
@@ -1558,16 +1558,16 @@
         <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
         <v>19</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,25 +1615,25 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>2.78</v>
@@ -1654,10 +1654,10 @@
         <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
         <v>1.44</v>
@@ -1681,7 +1681,7 @@
         <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
         <v>42</v>
@@ -1711,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
         <v>38</v>
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
         <v>1.99</v>
@@ -1798,7 +1798,7 @@
         <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>4.6</v>
@@ -1897,10 +1897,10 @@
         <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1912,7 +1912,7 @@
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -1936,10 +1936,10 @@
         <v>2.04</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
         <v>44</v>
@@ -1948,43 +1948,43 @@
         <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>90</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>180</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
         <v>120</v>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
         <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
         <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.19</v>
@@ -2053,16 +2053,16 @@
         <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
         <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V12" t="n">
         <v>1.62</v>
@@ -2080,13 +2080,13 @@
         <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>15</v>
@@ -2101,19 +2101,19 @@
         <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
         <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
         <v>70</v>
@@ -2161,13 +2161,13 @@
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2182,7 +2182,7 @@
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q13" t="n">
         <v>1.6</v>
@@ -2194,13 +2194,13 @@
         <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
         <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
         <v>1.35</v>
@@ -2254,10 +2254,10 @@
         <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G14" t="n">
         <v>5.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2320,7 +2320,7 @@
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
@@ -2332,10 +2332,10 @@
         <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W14" t="n">
         <v>1.21</v>
@@ -3124,7 +3124,7 @@
         <v>1.32</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
         <v>1.32</v>
@@ -3376,13 +3376,13 @@
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.37</v>
@@ -3505,7 +3505,7 @@
         <v>2.94</v>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H23" t="n">
         <v>1.98</v>
@@ -3526,28 +3526,28 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
         <v>2.04</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>1.69</v>
@@ -3679,7 +3679,7 @@
         <v>2.52</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U24" t="n">
         <v>1.04</v>
@@ -3916,7 +3916,7 @@
         <v>2.48</v>
       </c>
       <c r="I26" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3925,7 +3925,7 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -3940,10 +3940,10 @@
         <v>1.87</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S26" t="n">
         <v>3.7</v>
@@ -3952,7 +3952,7 @@
         <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V26" t="n">
         <v>1.58</v>
@@ -3964,34 +3964,34 @@
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
         <v>48</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>14.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4045,10 +4045,10 @@
         <v>2.28</v>
       </c>
       <c r="G27" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
         <v>3.95</v>
@@ -4057,7 +4057,7 @@
         <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4093,7 +4093,7 @@
         <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H28" t="n">
         <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J28" t="n">
         <v>3.8</v>
@@ -4210,13 +4210,13 @@
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S28" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T28" t="n">
         <v>1.66</v>
@@ -4225,16 +4225,16 @@
         <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X28" t="n">
         <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z28" t="n">
         <v>30</v>
@@ -4270,7 +4270,7 @@
         <v>25</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
         <v>32</v>
@@ -4279,7 +4279,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO28" t="n">
         <v>36</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G29" t="n">
         <v>2.22</v>
@@ -4327,13 +4327,13 @@
         <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
         <v>4</v>
@@ -4348,25 +4348,25 @@
         <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S29" t="n">
         <v>2.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
         <v>1.81</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
         <v>970</v>
@@ -4375,7 +4375,7 @@
         <v>38</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB29" t="n">
         <v>13</v>
@@ -4399,13 +4399,13 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
         <v>40</v>
@@ -4414,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>55</v>
@@ -4450,16 +4450,16 @@
         <v>1.94</v>
       </c>
       <c r="G30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
         <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>4.2</v>
@@ -4477,13 +4477,13 @@
         <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S30" t="n">
         <v>2.6</v>
@@ -4498,7 +4498,7 @@
         <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
         <v>26</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>
@@ -4612,13 +4612,13 @@
         <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q31" t="n">
         <v>1.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S31" t="n">
         <v>2.6</v>
@@ -4627,13 +4627,13 @@
         <v>1.57</v>
       </c>
       <c r="U31" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V31" t="n">
         <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X31" t="n">
         <v>26</v>
@@ -4681,7 +4681,7 @@
         <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN31" t="n">
         <v>16</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
         <v>2.54</v>
@@ -4729,10 +4729,10 @@
         <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.33</v>
@@ -4750,16 +4750,16 @@
         <v>2.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R32" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S32" t="n">
         <v>2.74</v>
       </c>
       <c r="T32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
         <v>2.42</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G34" t="n">
         <v>4.6</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4.7</v>
       </c>
       <c r="H34" t="n">
         <v>1.97</v>
@@ -4999,10 +4999,10 @@
         <v>1.98</v>
       </c>
       <c r="J34" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.43</v>
@@ -5068,7 +5068,7 @@
         <v>32</v>
       </c>
       <c r="AG34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
@@ -5155,7 +5155,7 @@
         <v>1.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="R35" t="n">
         <v>1.16</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P36" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S36" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="T36" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U36" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5572,7 +5572,7 @@
         <v>1.66</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
         <v>2.48</v>
@@ -5686,13 +5686,13 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="O39" t="n">
         <v>1.27</v>
       </c>
       <c r="P39" t="n">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="Q39" t="n">
         <v>1.29</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G40" t="n">
         <v>1.65</v>
@@ -5821,7 +5821,7 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O40" t="n">
         <v>1.41</v>
@@ -5836,7 +5836,7 @@
         <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T40" t="n">
         <v>2.2</v>
@@ -5884,7 +5884,7 @@
         <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ40" t="n">
         <v>15</v>
@@ -5896,7 +5896,7 @@
         <v>48</v>
       </c>
       <c r="AM40" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN40" t="n">
         <v>12</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="G41" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5980,10 +5980,10 @@
         <v>2.14</v>
       </c>
       <c r="V41" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6076,7 +6076,7 @@
         <v>2.84</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
         <v>3.6</v>
@@ -6214,7 +6214,7 @@
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
         <v>4.1</v>
@@ -6253,7 +6253,7 @@
         <v>1.31</v>
       </c>
       <c r="W43" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X43" t="n">
         <v>19</v>
@@ -6340,19 +6340,19 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H44" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I44" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J44" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K44" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6367,13 +6367,13 @@
         <v>1.15</v>
       </c>
       <c r="P44" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q44" t="n">
         <v>1.44</v>
       </c>
       <c r="R44" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S44" t="n">
         <v>1.98</v>
@@ -6385,7 +6385,7 @@
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W44" t="n">
         <v>1.2</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="G45" t="n">
         <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I45" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
         <v>3.9</v>
       </c>
       <c r="K45" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6520,10 +6520,10 @@
         <v>1.81</v>
       </c>
       <c r="V45" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W45" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G46" t="n">
         <v>2.04</v>
@@ -6619,19 +6619,19 @@
         <v>4.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>4.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
         <v>1.28</v>
@@ -6643,16 +6643,16 @@
         <v>1.71</v>
       </c>
       <c r="R46" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="S46" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V46" t="n">
         <v>1.29</v>
@@ -6661,58 +6661,58 @@
         <v>1.97</v>
       </c>
       <c r="X46" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y46" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB46" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD46" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE46" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF46" t="n">
         <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI46" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AK46" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -6763,34 +6763,34 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
         <v>2.54</v>
       </c>
       <c r="O47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P47" t="n">
         <v>1.53</v>
       </c>
-      <c r="P47" t="n">
-        <v>1.51</v>
-      </c>
       <c r="Q47" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R47" t="n">
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="T47" t="n">
         <v>2.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W47" t="n">
         <v>1.52</v>
@@ -6799,7 +6799,7 @@
         <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z47" t="n">
         <v>22</v>
@@ -6820,13 +6820,13 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG47" t="n">
         <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6835,7 +6835,7 @@
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
         <v>1000</v>
@@ -6925,7 +6925,7 @@
         <v>1.78</v>
       </c>
       <c r="V48" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W48" t="n">
         <v>1.24</v>
@@ -7018,7 +7018,7 @@
         <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I49" t="n">
         <v>1.76</v>
@@ -7027,10 +7027,10 @@
         <v>3.6</v>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L49" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -7048,7 +7048,7 @@
         <v>1.8</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
         <v>1.8</v>
@@ -7063,7 +7063,7 @@
         <v>2.32</v>
       </c>
       <c r="W49" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="G50" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I50" t="n">
         <v>3.1</v>
       </c>
-      <c r="H50" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7177,31 +7177,31 @@
         <v>1.34</v>
       </c>
       <c r="P50" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R50" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S50" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T50" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U50" t="n">
         <v>2.08</v>
       </c>
       <c r="V50" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W50" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="X50" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
         <v>1000</v>
@@ -7219,7 +7219,7 @@
         <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE50" t="n">
         <v>1000</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="G52" t="n">
         <v>1.78</v>
       </c>
       <c r="H52" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I52" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>1.71</v>
+        <v>3.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S52" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V52" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W52" t="n">
         <v>2.28</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53">
@@ -7690,22 +7690,22 @@
         <v>1.95</v>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J54" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K54" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L54" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -7717,16 +7717,16 @@
         <v>1.28</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="R54" t="n">
         <v>1.41</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T54" t="n">
         <v>1.71</v>
@@ -7774,7 +7774,7 @@
         <v>970</v>
       </c>
       <c r="AI54" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ54" t="n">
         <v>26</v>
@@ -7789,7 +7789,7 @@
         <v>110</v>
       </c>
       <c r="AN54" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO54" t="n">
         <v>55</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G55" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="I55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J55" t="n">
         <v>2.62</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L55" t="n">
         <v>1.47</v>
@@ -7870,10 +7870,10 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W55" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H56" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I56" t="n">
         <v>2.62</v>
@@ -7993,7 +7993,7 @@
         <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S56" t="n">
         <v>2.9</v>
@@ -8008,7 +8008,7 @@
         <v>1.61</v>
       </c>
       <c r="W56" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="X56" t="n">
         <v>22</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G57" t="n">
         <v>2.18</v>
@@ -8134,7 +8134,7 @@
         <v>2.3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U57" t="n">
         <v>1.01</v>
@@ -8158,7 +8158,7 @@
         <v>90</v>
       </c>
       <c r="AB57" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="n">
         <v>14.5</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H59" t="n">
         <v>6.4</v>
       </c>
       <c r="I59" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J59" t="n">
         <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8398,7 +8398,7 @@
         <v>1.39</v>
       </c>
       <c r="R59" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="S59" t="n">
         <v>1.96</v>
@@ -8410,10 +8410,10 @@
         <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W59" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G60" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I60" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J60" t="n">
         <v>3.3</v>
@@ -8527,7 +8527,7 @@
         <v>1.39</v>
       </c>
       <c r="P60" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q60" t="n">
         <v>2.2</v>
@@ -8539,16 +8539,16 @@
         <v>4</v>
       </c>
       <c r="T60" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U60" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V60" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W60" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X60" t="n">
         <v>11</v>
@@ -8581,10 +8581,10 @@
         <v>13</v>
       </c>
       <c r="AH60" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI60" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ60" t="n">
         <v>48</v>
@@ -8593,10 +8593,10 @@
         <v>36</v>
       </c>
       <c r="AL60" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM60" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN60" t="n">
         <v>34</v>
@@ -8635,10 +8635,10 @@
         <v>2.1</v>
       </c>
       <c r="G61" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H61" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I61" t="n">
         <v>4</v>
@@ -8647,7 +8647,7 @@
         <v>3.6</v>
       </c>
       <c r="K61" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L61" t="n">
         <v>1.37</v>
@@ -8662,13 +8662,13 @@
         <v>1.27</v>
       </c>
       <c r="P61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R61" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S61" t="n">
         <v>3</v>
@@ -8683,7 +8683,7 @@
         <v>1.33</v>
       </c>
       <c r="W61" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X61" t="n">
         <v>21</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="G62" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="H62" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K62" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8806,19 +8806,19 @@
         <v>1.31</v>
       </c>
       <c r="S62" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T62" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W62" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8902,112 +8902,112 @@
         </is>
       </c>
       <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S63" t="n">
         <v>4.1</v>
       </c>
-      <c r="G63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K63" t="n">
-        <v>950</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S63" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T63" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U63" t="n">
         <v>1.84</v>
       </c>
-      <c r="U63" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V63" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="W63" t="n">
         <v>1.22</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y63" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z63" t="n">
         <v>970</v>
       </c>
       <c r="AA63" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AB63" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AC63" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD63" t="n">
         <v>970</v>
       </c>
       <c r="AE63" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AF63" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG63" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AH63" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI63" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK63" t="n">
         <v>100</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="64">
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="H64" t="n">
         <v>1.51</v>
@@ -9049,7 +9049,7 @@
         <v>1.61</v>
       </c>
       <c r="J64" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K64" t="n">
         <v>4.9</v>
@@ -9070,25 +9070,25 @@
         <v>2.16</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R64" t="n">
         <v>1.43</v>
       </c>
       <c r="S64" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T64" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U64" t="n">
         <v>1.98</v>
       </c>
       <c r="V64" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W64" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X64" t="n">
         <v>20</v>
@@ -9106,10 +9106,10 @@
         <v>27</v>
       </c>
       <c r="AC64" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD64" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE64" t="n">
         <v>970</v>
@@ -9121,7 +9121,7 @@
         <v>30</v>
       </c>
       <c r="AH64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI64" t="n">
         <v>36</v>
@@ -9313,16 +9313,16 @@
         <v>2.6</v>
       </c>
       <c r="H66" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I66" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K66" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9331,7 +9331,7 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
@@ -9340,7 +9340,7 @@
         <v>2.2</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R66" t="n">
         <v>1.54</v>
@@ -9349,13 +9349,13 @@
         <v>2.18</v>
       </c>
       <c r="T66" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U66" t="n">
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W66" t="n">
         <v>1.62</v>
@@ -9442,13 +9442,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H67" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I67" t="n">
         <v>1.98</v>
@@ -9460,7 +9460,7 @@
         <v>4.2</v>
       </c>
       <c r="L67" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -9478,7 +9478,7 @@
         <v>1.66</v>
       </c>
       <c r="R67" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S67" t="n">
         <v>2.64</v>
@@ -9487,7 +9487,7 @@
         <v>1.63</v>
       </c>
       <c r="U67" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V67" t="n">
         <v>2.02</v>
@@ -9523,7 +9523,7 @@
         <v>32</v>
       </c>
       <c r="AG67" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH67" t="n">
         <v>15.5</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G68" t="n">
         <v>2.82</v>
@@ -9592,7 +9592,7 @@
         <v>3.1</v>
       </c>
       <c r="K68" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9619,10 +9619,10 @@
         <v>3.4</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V68" t="n">
         <v>1.31</v>
@@ -9718,16 +9718,16 @@
         <v>6.4</v>
       </c>
       <c r="H69" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I69" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J69" t="n">
         <v>5.4</v>
       </c>
       <c r="K69" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L69" t="n">
         <v>1.19</v>
@@ -9745,7 +9745,7 @@
         <v>3.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R69" t="n">
         <v>2.02</v>
@@ -9760,16 +9760,16 @@
         <v>2.76</v>
       </c>
       <c r="V69" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="W69" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X69" t="n">
         <v>42</v>
       </c>
       <c r="Y69" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z69" t="n">
         <v>14</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G70" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H70" t="n">
         <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
@@ -9877,28 +9877,28 @@
         <v>1.32</v>
       </c>
       <c r="P70" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q70" t="n">
         <v>1.98</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.97</v>
       </c>
       <c r="R70" t="n">
         <v>1.38</v>
       </c>
       <c r="S70" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T70" t="n">
         <v>1.79</v>
       </c>
       <c r="U70" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V70" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W70" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X70" t="n">
         <v>14</v>
@@ -9925,7 +9925,7 @@
         <v>44</v>
       </c>
       <c r="AF70" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG70" t="n">
         <v>11</v>
@@ -9985,7 +9985,7 @@
         <v>2.02</v>
       </c>
       <c r="G71" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -9997,7 +9997,7 @@
         <v>3.8</v>
       </c>
       <c r="K71" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10033,7 +10033,7 @@
         <v>1.32</v>
       </c>
       <c r="W71" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X71" t="n">
         <v>15.5</v>
@@ -10045,7 +10045,7 @@
         <v>29</v>
       </c>
       <c r="AA71" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB71" t="n">
         <v>10</v>
@@ -10123,7 +10123,7 @@
         <v>4.4</v>
       </c>
       <c r="H72" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
         <v>2.04</v>
@@ -10141,13 +10141,13 @@
         <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O72" t="n">
         <v>1.31</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q72" t="n">
         <v>1.96</v>
@@ -10162,13 +10162,13 @@
         <v>1.81</v>
       </c>
       <c r="U72" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V72" t="n">
         <v>1.97</v>
       </c>
       <c r="W72" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X72" t="n">
         <v>14.5</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G73" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="I73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
         <v>3.2</v>
       </c>
       <c r="K73" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10300,10 +10300,10 @@
         <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W73" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X73" t="n">
         <v>26</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="H74" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I74" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="J74" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K74" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L74" t="n">
         <v>1.31</v>
@@ -10435,10 +10435,10 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="W74" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10660,7 +10660,7 @@
         <v>2.74</v>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H76" t="n">
         <v>2.44</v>
@@ -10675,16 +10675,16 @@
         <v>4.1</v>
       </c>
       <c r="L76" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M76" t="n">
         <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O76" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P76" t="n">
         <v>1.87</v>
@@ -10696,13 +10696,13 @@
         <v>1.32</v>
       </c>
       <c r="S76" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T76" t="n">
         <v>1.74</v>
       </c>
       <c r="U76" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V76" t="n">
         <v>1.56</v>
@@ -10930,13 +10930,13 @@
         <v>2.08</v>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H78" t="n">
         <v>3.15</v>
       </c>
       <c r="I78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J78" t="n">
         <v>3.7</v>
@@ -10969,16 +10969,16 @@
         <v>2.54</v>
       </c>
       <c r="T78" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U78" t="n">
         <v>2.38</v>
       </c>
       <c r="V78" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W78" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X78" t="n">
         <v>23</v>
@@ -10993,7 +10993,7 @@
         <v>60</v>
       </c>
       <c r="AB78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC78" t="n">
         <v>11</v>
@@ -11005,7 +11005,7 @@
         <v>36</v>
       </c>
       <c r="AF78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG78" t="n">
         <v>13.5</v>
@@ -11017,10 +11017,10 @@
         <v>46</v>
       </c>
       <c r="AJ78" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL78" t="n">
         <v>36</v>
@@ -11065,7 +11065,7 @@
         <v>1.58</v>
       </c>
       <c r="G79" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H79" t="n">
         <v>6.2</v>
@@ -11203,13 +11203,13 @@
         <v>3.15</v>
       </c>
       <c r="H80" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I80" t="n">
         <v>2.7</v>
       </c>
       <c r="J80" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K80" t="n">
         <v>4.1</v>
@@ -11245,10 +11245,10 @@
         <v>2.28</v>
       </c>
       <c r="V80" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W80" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X80" t="n">
         <v>21</v>
@@ -11287,7 +11287,7 @@
         <v>36</v>
       </c>
       <c r="AJ80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK80" t="n">
         <v>32</v>
@@ -11335,31 +11335,31 @@
         <v>2.18</v>
       </c>
       <c r="G81" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H81" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J81" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K81" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L81" t="n">
         <v>1.38</v>
       </c>
       <c r="M81" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>1.94</v>
+        <v>3.7</v>
       </c>
       <c r="O81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P81" t="n">
         <v>1.94</v>
@@ -11368,76 +11368,76 @@
         <v>2.04</v>
       </c>
       <c r="R81" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S81" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="T81" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="U81" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="V81" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W81" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X81" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA81" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB81" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC81" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD81" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE81" t="n">
         <v>60</v>
       </c>
       <c r="AF81" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG81" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH81" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI81" t="n">
         <v>70</v>
       </c>
       <c r="AJ81" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL81" t="n">
         <v>44</v>
       </c>
-      <c r="AK81" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>50</v>
-      </c>
       <c r="AM81" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN81" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO81" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
@@ -11479,7 +11479,7 @@
         <v>2.36</v>
       </c>
       <c r="J82" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K82" t="n">
         <v>3.55</v>
@@ -11488,13 +11488,13 @@
         <v>1.43</v>
       </c>
       <c r="M82" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N82" t="n">
         <v>3.25</v>
       </c>
       <c r="O82" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P82" t="n">
         <v>1.76</v>
@@ -11503,10 +11503,10 @@
         <v>2.12</v>
       </c>
       <c r="R82" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S82" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T82" t="n">
         <v>1.86</v>
@@ -11551,7 +11551,7 @@
         <v>16</v>
       </c>
       <c r="AH82" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI82" t="n">
         <v>44</v>
@@ -11560,7 +11560,7 @@
         <v>90</v>
       </c>
       <c r="AK82" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL82" t="n">
         <v>60</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G83" t="n">
         <v>1.85</v>
@@ -11623,13 +11623,13 @@
         <v>1.38</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>1.98</v>
+        <v>3.8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P83" t="n">
         <v>1.98</v>
@@ -11638,16 +11638,16 @@
         <v>1.87</v>
       </c>
       <c r="R83" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S83" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="T83" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="U83" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V83" t="n">
         <v>1.22</v>
@@ -11704,7 +11704,7 @@
         <v>130</v>
       </c>
       <c r="AN83" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO83" t="n">
         <v>100</v>
@@ -11740,10 +11740,10 @@
         <v>2.08</v>
       </c>
       <c r="G84" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="I84" t="n">
         <v>3.9</v>
@@ -11752,7 +11752,7 @@
         <v>3.2</v>
       </c>
       <c r="K84" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11761,37 +11761,37 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O84" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P84" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="R84" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S84" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="T84" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="U84" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V84" t="n">
         <v>1.35</v>
       </c>
       <c r="W84" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="X84" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y84" t="n">
         <v>970</v>
@@ -11800,7 +11800,7 @@
         <v>32</v>
       </c>
       <c r="AA84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB84" t="n">
         <v>970</v>
@@ -11812,7 +11812,7 @@
         <v>970</v>
       </c>
       <c r="AE84" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF84" t="n">
         <v>970</v>
@@ -11821,28 +11821,28 @@
         <v>970</v>
       </c>
       <c r="AH84" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI84" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ84" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK84" t="n">
         <v>27</v>
       </c>
       <c r="AL84" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN84" t="n">
         <v>970</v>
       </c>
       <c r="AO84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G85" t="n">
         <v>6.2</v>
@@ -11887,7 +11887,7 @@
         <v>3.3</v>
       </c>
       <c r="K85" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,13 +11896,13 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O85" t="n">
         <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q85" t="n">
         <v>1.01</v>
@@ -12058,7 +12058,7 @@
         <v>1.22</v>
       </c>
       <c r="W86" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12154,10 +12154,10 @@
         <v>7.2</v>
       </c>
       <c r="J87" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K87" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12172,7 +12172,7 @@
         <v>1.28</v>
       </c>
       <c r="P87" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="Q87" t="n">
         <v>1.7</v>
@@ -12199,7 +12199,7 @@
         <v>24</v>
       </c>
       <c r="Y87" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z87" t="n">
         <v>65</v>
@@ -12208,10 +12208,10 @@
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC87" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AD87" t="n">
         <v>32</v>
@@ -12223,7 +12223,7 @@
         <v>970</v>
       </c>
       <c r="AG87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH87" t="n">
         <v>30</v>
@@ -12232,13 +12232,13 @@
         <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK87" t="n">
         <v>26</v>
       </c>
       <c r="AL87" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM87" t="n">
         <v>1000</v>
@@ -12301,16 +12301,16 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q88" t="n">
         <v>1.79</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1.77</v>
       </c>
       <c r="R88" t="n">
         <v>1.3</v>
@@ -12418,16 +12418,16 @@
         <v>2.08</v>
       </c>
       <c r="H89" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="I89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K89" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
         <v>1.33</v>
@@ -12436,31 +12436,31 @@
         <v>1.04</v>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="O89" t="n">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="P89" t="n">
         <v>1.82</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R89" t="n">
         <v>1.27</v>
       </c>
       <c r="S89" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="U89" t="n">
         <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W89" t="n">
         <v>1.92</v>
@@ -12547,52 +12547,52 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G90" t="n">
         <v>2.78</v>
       </c>
       <c r="H90" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I90" t="n">
         <v>2.66</v>
       </c>
       <c r="J90" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K90" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O90" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P90" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R90" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="S90" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T90" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U90" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V90" t="n">
         <v>1.6</v>
@@ -12604,19 +12604,19 @@
         <v>23</v>
       </c>
       <c r="Y90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z90" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA90" t="n">
         <v>38</v>
       </c>
       <c r="AB90" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AC90" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD90" t="n">
         <v>13</v>
@@ -12625,13 +12625,13 @@
         <v>26</v>
       </c>
       <c r="AF90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG90" t="n">
         <v>16</v>
       </c>
       <c r="AH90" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI90" t="n">
         <v>32</v>
@@ -12640,7 +12640,7 @@
         <v>50</v>
       </c>
       <c r="AK90" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL90" t="n">
         <v>36</v>
@@ -12823,7 +12823,7 @@
         <v>2.22</v>
       </c>
       <c r="H92" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -12832,7 +12832,7 @@
         <v>3.45</v>
       </c>
       <c r="K92" t="n">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="L92" t="n">
         <v>1.29</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G93" t="n">
         <v>3.45</v>
@@ -12991,7 +12991,7 @@
         <v>1.55</v>
       </c>
       <c r="S93" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T93" t="n">
         <v>1.61</v>
@@ -13000,7 +13000,7 @@
         <v>2.54</v>
       </c>
       <c r="V93" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W93" t="n">
         <v>1.4</v>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G94" t="n">
         <v>2.42</v>
@@ -13096,7 +13096,7 @@
         <v>3.2</v>
       </c>
       <c r="I94" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J94" t="n">
         <v>3.6</v>
@@ -13111,7 +13111,7 @@
         <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O94" t="n">
         <v>1.28</v>
@@ -13126,13 +13126,13 @@
         <v>1.44</v>
       </c>
       <c r="S94" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T94" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U94" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V94" t="n">
         <v>1.44</v>
@@ -13153,7 +13153,7 @@
         <v>55</v>
       </c>
       <c r="AB94" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC94" t="n">
         <v>7.8</v>
@@ -13192,7 +13192,7 @@
         <v>17</v>
       </c>
       <c r="AO94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
@@ -13234,13 +13234,13 @@
         <v>3.9</v>
       </c>
       <c r="J95" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K95" t="n">
         <v>3.9</v>
       </c>
       <c r="L95" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M95" t="n">
         <v>1.07</v>
@@ -13252,10 +13252,10 @@
         <v>1.32</v>
       </c>
       <c r="P95" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R95" t="n">
         <v>1.34</v>
@@ -13273,7 +13273,7 @@
         <v>1.34</v>
       </c>
       <c r="W95" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X95" t="n">
         <v>17.5</v>
@@ -13363,10 +13363,10 @@
         <v>1.31</v>
       </c>
       <c r="H96" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I96" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J96" t="n">
         <v>6.4</v>
@@ -13381,7 +13381,7 @@
         <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O96" t="n">
         <v>1.21</v>
@@ -13411,7 +13411,7 @@
         <v>4.2</v>
       </c>
       <c r="X96" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y96" t="n">
         <v>40</v>
@@ -13420,7 +13420,7 @@
         <v>120</v>
       </c>
       <c r="AA96" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="AB96" t="n">
         <v>9.4</v>
@@ -13522,7 +13522,7 @@
         <v>1.18</v>
       </c>
       <c r="P97" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q97" t="n">
         <v>1.56</v>
@@ -13564,7 +13564,7 @@
         <v>15</v>
       </c>
       <c r="AD97" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE97" t="n">
         <v>200</v>
@@ -13579,7 +13579,7 @@
         <v>30</v>
       </c>
       <c r="AI97" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ97" t="n">
         <v>9.6</v>
@@ -13633,46 +13633,46 @@
         <v>1.16</v>
       </c>
       <c r="H98" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I98" t="n">
         <v>38</v>
       </c>
       <c r="J98" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K98" t="n">
         <v>12</v>
       </c>
       <c r="L98" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M98" t="n">
         <v>1.02</v>
       </c>
       <c r="N98" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="O98" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P98" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R98" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S98" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="T98" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="U98" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V98" t="n">
         <v>1.03</v>
@@ -13705,7 +13705,7 @@
         <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG98" t="n">
         <v>970</v>
@@ -13714,22 +13714,22 @@
         <v>60</v>
       </c>
       <c r="AI98" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AJ98" t="n">
         <v>8.6</v>
       </c>
       <c r="AK98" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL98" t="n">
         <v>55</v>
       </c>
       <c r="AM98" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AN98" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="AO98" t="n">
         <v>1000</v>
@@ -13786,10 +13786,10 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O99" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P99" t="n">
         <v>1.58</v>
@@ -13798,7 +13798,7 @@
         <v>2.38</v>
       </c>
       <c r="R99" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S99" t="n">
         <v>4</v>
@@ -13900,31 +13900,31 @@
         <v>2.58</v>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H100" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I100" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J100" t="n">
         <v>3.1</v>
       </c>
       <c r="K100" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
       </c>
       <c r="M100" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N100" t="n">
         <v>2.9</v>
       </c>
       <c r="O100" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P100" t="n">
         <v>1.72</v>
@@ -13936,73 +13936,73 @@
         <v>1.24</v>
       </c>
       <c r="S100" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T100" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U100" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V100" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W100" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X100" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z100" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA100" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB100" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC100" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD100" t="n">
         <v>970</v>
       </c>
       <c r="AE100" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF100" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG100" t="n">
         <v>970</v>
       </c>
       <c r="AH100" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI100" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK100" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO100" t="n">
         <v>46</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="101">
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G101" t="n">
         <v>2.3</v>
@@ -14041,7 +14041,7 @@
         <v>3.7</v>
       </c>
       <c r="I101" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J101" t="n">
         <v>3.4</v>
@@ -14212,7 +14212,7 @@
         <v>2.14</v>
       </c>
       <c r="U102" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V102" t="n">
         <v>1.48</v>
@@ -14311,10 +14311,10 @@
         <v>2.8</v>
       </c>
       <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
         <v>2.96</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2.94</v>
       </c>
       <c r="K103" t="n">
         <v>3.1</v>
@@ -14329,28 +14329,28 @@
         <v>2.36</v>
       </c>
       <c r="O103" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P103" t="n">
         <v>1.45</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
       <c r="R103" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S103" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T103" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="U103" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V103" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W103" t="n">
         <v>1.45</v>
@@ -14461,16 +14461,16 @@
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="O104" t="n">
         <v>1.24</v>
       </c>
       <c r="P104" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R104" t="n">
         <v>1.37</v>
@@ -14479,7 +14479,7 @@
         <v>2.52</v>
       </c>
       <c r="T104" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U104" t="n">
         <v>1.01</v>
@@ -14575,7 +14575,7 @@
         <v>1.91</v>
       </c>
       <c r="G105" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H105" t="n">
         <v>5.3</v>
@@ -14584,7 +14584,7 @@
         <v>5.8</v>
       </c>
       <c r="J105" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K105" t="n">
         <v>3.3</v>
@@ -14593,91 +14593,91 @@
         <v>1.63</v>
       </c>
       <c r="M105" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N105" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="O105" t="n">
         <v>1.59</v>
       </c>
       <c r="P105" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R105" t="n">
         <v>1.18</v>
       </c>
       <c r="S105" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="T105" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U105" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="V105" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W105" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X105" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y105" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Z105" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA105" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB105" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AC105" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF105" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD105" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG105" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH105" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI105" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ105" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AK105" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL105" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM105" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN105" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO105" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106">
@@ -14707,55 +14707,55 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G106" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H106" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I106" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="J106" t="n">
         <v>3.2</v>
       </c>
       <c r="K106" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L106" t="n">
         <v>1.01</v>
       </c>
       <c r="M106" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P106" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R106" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S106" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T106" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="U106" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V106" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W106" t="n">
         <v>1.46</v>
@@ -14764,16 +14764,16 @@
         <v>970</v>
       </c>
       <c r="Y106" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA106" t="n">
         <v>55</v>
       </c>
       <c r="AB106" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC106" t="n">
         <v>9.4</v>
@@ -14782,10 +14782,10 @@
         <v>970</v>
       </c>
       <c r="AE106" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF106" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG106" t="n">
         <v>970</v>
@@ -14794,25 +14794,25 @@
         <v>22</v>
       </c>
       <c r="AI106" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ106" t="n">
         <v>60</v>
       </c>
       <c r="AK106" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL106" t="n">
         <v>60</v>
       </c>
       <c r="AM106" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN106" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO106" t="n">
         <v>40</v>
-      </c>
-      <c r="AO106" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="107">
@@ -14842,10 +14842,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G107" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H107" t="n">
         <v>1.62</v>
@@ -14857,7 +14857,7 @@
         <v>5.2</v>
       </c>
       <c r="K107" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L107" t="n">
         <v>1.18</v>
@@ -14866,22 +14866,22 @@
         <v>1.02</v>
       </c>
       <c r="N107" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="O107" t="n">
         <v>1.11</v>
       </c>
       <c r="P107" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R107" t="n">
         <v>2.04</v>
       </c>
       <c r="S107" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T107" t="n">
         <v>1.44</v>
@@ -14893,7 +14893,7 @@
         <v>2.5</v>
       </c>
       <c r="W107" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X107" t="n">
         <v>48</v>
@@ -15010,10 +15010,10 @@
         <v>2.62</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R108" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S108" t="n">
         <v>2.24</v>
@@ -15022,7 +15022,7 @@
         <v>1.53</v>
       </c>
       <c r="U108" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V108" t="n">
         <v>1.29</v>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G109" t="n">
         <v>5.1</v>
@@ -15151,7 +15151,7 @@
         <v>1.21</v>
       </c>
       <c r="S109" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T109" t="n">
         <v>2.02</v>
@@ -15517,16 +15517,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G112" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H112" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="I112" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J112" t="n">
         <v>3.6</v>
@@ -15541,10 +15541,10 @@
         <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="O112" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P112" t="n">
         <v>2.96</v>
@@ -15553,22 +15553,22 @@
         <v>1.35</v>
       </c>
       <c r="R112" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S112" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="T112" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U112" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V112" t="n">
         <v>1.21</v>
       </c>
       <c r="W112" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X112" t="n">
         <v>50</v>
@@ -15577,7 +15577,7 @@
         <v>44</v>
       </c>
       <c r="Z112" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA112" t="n">
         <v>1000</v>
@@ -15589,13 +15589,13 @@
         <v>970</v>
       </c>
       <c r="AD112" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE112" t="n">
         <v>65</v>
       </c>
       <c r="AF112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG112" t="n">
         <v>970</v>
@@ -15604,7 +15604,7 @@
         <v>23</v>
       </c>
       <c r="AI112" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ112" t="n">
         <v>29</v>
@@ -15652,10 +15652,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G113" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H113" t="n">
         <v>4.9</v>
@@ -15673,7 +15673,7 @@
         <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N113" t="n">
         <v>4.7</v>
@@ -15694,22 +15694,22 @@
         <v>2.56</v>
       </c>
       <c r="T113" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U113" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V113" t="n">
         <v>1.2</v>
       </c>
       <c r="W113" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X113" t="n">
         <v>28</v>
       </c>
       <c r="Y113" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z113" t="n">
         <v>55</v>
@@ -15739,7 +15739,7 @@
         <v>24</v>
       </c>
       <c r="AI113" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ113" t="n">
         <v>21</v>
@@ -15793,7 +15793,7 @@
         <v>4.8</v>
       </c>
       <c r="H114" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I114" t="n">
         <v>1.95</v>
@@ -15820,25 +15820,25 @@
         <v>1.98</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R114" t="n">
         <v>1.25</v>
       </c>
       <c r="S114" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T114" t="n">
         <v>1.67</v>
       </c>
       <c r="U114" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V114" t="n">
         <v>2.06</v>
       </c>
       <c r="W114" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X114" t="n">
         <v>20</v>
@@ -15868,7 +15868,7 @@
         <v>50</v>
       </c>
       <c r="AG114" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH114" t="n">
         <v>28</v>
@@ -15889,10 +15889,10 @@
         <v>1000</v>
       </c>
       <c r="AN114" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO114" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -15928,7 +15928,7 @@
         <v>3.85</v>
       </c>
       <c r="H115" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I115" t="n">
         <v>2.24</v>
@@ -15943,13 +15943,13 @@
         <v>1.01</v>
       </c>
       <c r="M115" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N115" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O115" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
@@ -15958,16 +15958,16 @@
         <v>1.87</v>
       </c>
       <c r="R115" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S115" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="T115" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U115" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V115" t="n">
         <v>1.8</v>
@@ -15976,58 +15976,58 @@
         <v>1.35</v>
       </c>
       <c r="X115" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y115" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z115" t="n">
         <v>15</v>
       </c>
-      <c r="Z115" t="n">
-        <v>20</v>
-      </c>
       <c r="AA115" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AB115" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AC115" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD115" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF115" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AG115" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AH115" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI115" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AJ115" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AK115" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL115" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM115" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN115" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO115" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -16060,13 +16060,13 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H116" t="n">
         <v>3.85</v>
       </c>
       <c r="I116" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J116" t="n">
         <v>3.55</v>
@@ -16075,7 +16075,7 @@
         <v>3.85</v>
       </c>
       <c r="L116" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M116" t="n">
         <v>1.07</v>
@@ -16087,7 +16087,7 @@
         <v>1.31</v>
       </c>
       <c r="P116" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q116" t="n">
         <v>1.92</v>
@@ -16108,7 +16108,7 @@
         <v>1.32</v>
       </c>
       <c r="W116" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X116" t="n">
         <v>18</v>
@@ -16117,31 +16117,31 @@
         <v>18</v>
       </c>
       <c r="Z116" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA116" t="n">
         <v>110</v>
       </c>
       <c r="AB116" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC116" t="n">
         <v>9.6</v>
       </c>
       <c r="AD116" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE116" t="n">
         <v>65</v>
       </c>
       <c r="AF116" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH116" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI116" t="n">
         <v>60</v>
@@ -16150,7 +16150,7 @@
         <v>30</v>
       </c>
       <c r="AK116" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL116" t="n">
         <v>44</v>
@@ -16162,7 +16162,7 @@
         <v>18.5</v>
       </c>
       <c r="AO116" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
@@ -16222,7 +16222,7 @@
         <v>1.26</v>
       </c>
       <c r="P117" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q117" t="n">
         <v>1.79</v>
@@ -16282,7 +16282,7 @@
         <v>32</v>
       </c>
       <c r="AJ117" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK117" t="n">
         <v>65</v>
@@ -16327,46 +16327,46 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G118" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H118" t="n">
         <v>3.3</v>
       </c>
       <c r="I118" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J118" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K118" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L118" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M118" t="n">
         <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="O118" t="n">
         <v>1.27</v>
       </c>
       <c r="P118" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="R118" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S118" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="T118" t="n">
         <v>1.01</v>
@@ -16375,10 +16375,10 @@
         <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W118" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X118" t="n">
         <v>1000</v>
@@ -16462,19 +16462,19 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G119" t="n">
         <v>2.66</v>
       </c>
       <c r="H119" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>3.35</v>
       </c>
       <c r="J119" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K119" t="n">
         <v>3.65</v>
@@ -16486,31 +16486,31 @@
         <v>1.08</v>
       </c>
       <c r="N119" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O119" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P119" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R119" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S119" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T119" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U119" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V119" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W119" t="n">
         <v>1.6</v>
@@ -16537,7 +16537,7 @@
         <v>14</v>
       </c>
       <c r="AE119" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF119" t="n">
         <v>18</v>
@@ -16549,7 +16549,7 @@
         <v>18</v>
       </c>
       <c r="AI119" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ119" t="n">
         <v>36</v>
@@ -16558,16 +16558,16 @@
         <v>29</v>
       </c>
       <c r="AL119" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM119" t="n">
         <v>120</v>
       </c>
       <c r="AN119" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO119" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G120" t="n">
         <v>3.45</v>
@@ -16609,10 +16609,10 @@
         <v>3.3</v>
       </c>
       <c r="J120" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K120" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>
@@ -16621,19 +16621,19 @@
         <v>1.01</v>
       </c>
       <c r="N120" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O120" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P120" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R120" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S120" t="n">
         <v>2.84</v>
@@ -16732,10 +16732,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G121" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>6</v>
@@ -16756,7 +16756,7 @@
         <v>1.02</v>
       </c>
       <c r="N121" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O121" t="n">
         <v>1.18</v>
@@ -16771,7 +16771,7 @@
         <v>1.59</v>
       </c>
       <c r="S121" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T121" t="n">
         <v>1.7</v>
@@ -16783,7 +16783,7 @@
         <v>1.13</v>
       </c>
       <c r="W121" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X121" t="n">
         <v>32</v>
@@ -16804,7 +16804,7 @@
         <v>14</v>
       </c>
       <c r="AD121" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE121" t="n">
         <v>95</v>
@@ -16816,7 +16816,7 @@
         <v>12.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI121" t="n">
         <v>85</v>
@@ -16867,55 +16867,55 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H122" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="I122" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="J122" t="n">
         <v>4.4</v>
       </c>
       <c r="K122" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L122" t="n">
         <v>1.35</v>
       </c>
       <c r="M122" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O122" t="n">
         <v>1.24</v>
       </c>
       <c r="P122" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R122" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S122" t="n">
         <v>2.72</v>
       </c>
       <c r="T122" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U122" t="n">
         <v>2.14</v>
       </c>
       <c r="V122" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W122" t="n">
         <v>1.2</v>
@@ -16966,13 +16966,13 @@
         <v>70</v>
       </c>
       <c r="AM122" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN122" t="n">
         <v>75</v>
       </c>
       <c r="AO122" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="123">
@@ -17017,7 +17017,7 @@
         <v>3.95</v>
       </c>
       <c r="K123" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L123" t="n">
         <v>1.01</v>
@@ -17026,10 +17026,10 @@
         <v>1.03</v>
       </c>
       <c r="N123" t="n">
-        <v>2.52</v>
+        <v>5.5</v>
       </c>
       <c r="O123" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P123" t="n">
         <v>2.52</v>
@@ -17041,7 +17041,7 @@
         <v>1.25</v>
       </c>
       <c r="S123" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="T123" t="n">
         <v>1.01</v>
@@ -17056,58 +17056,58 @@
         <v>1.79</v>
       </c>
       <c r="X123" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y123" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z123" t="n">
         <v>40</v>
       </c>
       <c r="AA123" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB123" t="n">
         <v>21</v>
       </c>
       <c r="AC123" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD123" t="n">
         <v>21</v>
       </c>
       <c r="AE123" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF123" t="n">
         <v>25</v>
       </c>
       <c r="AG123" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH123" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI123" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ123" t="n">
         <v>40</v>
       </c>
       <c r="AK123" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL123" t="n">
         <v>40</v>
       </c>
       <c r="AM123" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN123" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO123" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
@@ -17140,19 +17140,19 @@
         <v>1.9</v>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H124" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I124" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J124" t="n">
         <v>3.25</v>
       </c>
       <c r="K124" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L124" t="n">
         <v>1.01</v>
@@ -17179,16 +17179,16 @@
         <v>2.84</v>
       </c>
       <c r="T124" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U124" t="n">
         <v>1.01</v>
       </c>
       <c r="V124" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W124" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X124" t="n">
         <v>1000</v>
@@ -17278,7 +17278,7 @@
         <v>3.55</v>
       </c>
       <c r="H125" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I125" t="n">
         <v>2.38</v>
@@ -17296,7 +17296,7 @@
         <v>1.05</v>
       </c>
       <c r="N125" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O125" t="n">
         <v>1.24</v>
@@ -17305,7 +17305,7 @@
         <v>2.16</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R125" t="n">
         <v>1.18</v>
@@ -17317,7 +17317,7 @@
         <v>1.45</v>
       </c>
       <c r="U125" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V125" t="n">
         <v>1.73</v>
@@ -17329,13 +17329,13 @@
         <v>1000</v>
       </c>
       <c r="Y125" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z125" t="n">
         <v>23</v>
       </c>
       <c r="AA125" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB125" t="n">
         <v>21</v>
@@ -17344,7 +17344,7 @@
         <v>12.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE125" t="n">
         <v>34</v>
@@ -17374,10 +17374,10 @@
         <v>100</v>
       </c>
       <c r="AN125" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO125" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
@@ -17407,13 +17407,13 @@
         </is>
       </c>
       <c r="F126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G126" t="n">
         <v>1.58</v>
       </c>
-      <c r="G126" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H126" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I126" t="n">
         <v>7</v>
@@ -17455,10 +17455,10 @@
         <v>1.99</v>
       </c>
       <c r="V126" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W126" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X126" t="n">
         <v>17</v>
@@ -17497,7 +17497,7 @@
         <v>90</v>
       </c>
       <c r="AJ126" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK126" t="n">
         <v>16</v>
@@ -17551,7 +17551,7 @@
         <v>1.09</v>
       </c>
       <c r="I127" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J127" t="n">
         <v>3.5</v>
@@ -17566,16 +17566,16 @@
         <v>1.01</v>
       </c>
       <c r="N127" t="n">
-        <v>2.36</v>
+        <v>1.64</v>
       </c>
       <c r="O127" t="n">
         <v>1.02</v>
       </c>
       <c r="P127" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R127" t="n">
         <v>1.24</v>
@@ -17587,7 +17587,7 @@
         <v>1.01</v>
       </c>
       <c r="U127" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V127" t="n">
         <v>1.9</v>
@@ -17713,7 +17713,7 @@
         <v>1.47</v>
       </c>
       <c r="R128" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S128" t="n">
         <v>1.47</v>
@@ -17815,13 +17815,13 @@
         <v>4.8</v>
       </c>
       <c r="G129" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H129" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I129" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J129" t="n">
         <v>4.3</v>
@@ -17836,31 +17836,31 @@
         <v>1.01</v>
       </c>
       <c r="N129" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O129" t="n">
         <v>1.17</v>
       </c>
       <c r="P129" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R129" t="n">
         <v>1.5</v>
       </c>
       <c r="S129" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T129" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="U129" t="n">
         <v>1.01</v>
       </c>
       <c r="V129" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W129" t="n">
         <v>1.17</v>
@@ -17977,10 +17977,10 @@
         <v>1.13</v>
       </c>
       <c r="P130" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R130" t="n">
         <v>1.99</v>
@@ -17992,7 +17992,7 @@
         <v>1.46</v>
       </c>
       <c r="U130" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V130" t="n">
         <v>2.26</v>
@@ -18082,22 +18082,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G131" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="H131" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="I131" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="J131" t="n">
         <v>3.55</v>
       </c>
       <c r="K131" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L131" t="n">
         <v>1.01</v>
@@ -18109,31 +18109,31 @@
         <v>1.87</v>
       </c>
       <c r="O131" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P131" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.29</v>
+        <v>1.81</v>
       </c>
       <c r="R131" t="n">
         <v>1.18</v>
       </c>
       <c r="S131" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T131" t="n">
         <v>1.01</v>
       </c>
       <c r="U131" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V131" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="W131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18220,16 +18220,16 @@
         <v>3.25</v>
       </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H132" t="n">
         <v>2.34</v>
       </c>
       <c r="I132" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J132" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K132" t="n">
         <v>3.5</v>
@@ -18238,10 +18238,10 @@
         <v>1.48</v>
       </c>
       <c r="M132" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N132" t="n">
-        <v>1.72</v>
+        <v>3.1</v>
       </c>
       <c r="O132" t="n">
         <v>1.42</v>
@@ -18253,76 +18253,76 @@
         <v>2.22</v>
       </c>
       <c r="R132" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S132" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T132" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="U132" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V132" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W132" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X132" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y132" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z132" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA132" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AB132" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AC132" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD132" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE132" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AF132" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AG132" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH132" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO132" t="n">
         <v>28</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO132" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="133">
@@ -18382,7 +18382,7 @@
         <v>1.24</v>
       </c>
       <c r="P133" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q133" t="n">
         <v>1.72</v>
@@ -18397,13 +18397,13 @@
         <v>1.67</v>
       </c>
       <c r="U133" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V133" t="n">
         <v>2.1</v>
       </c>
       <c r="W133" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X133" t="n">
         <v>20</v>
@@ -18454,7 +18454,7 @@
         <v>75</v>
       </c>
       <c r="AN133" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO133" t="n">
         <v>9.6</v>
@@ -18496,7 +18496,7 @@
         <v>3.85</v>
       </c>
       <c r="I134" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J134" t="n">
         <v>3.55</v>
@@ -18514,7 +18514,7 @@
         <v>2.06</v>
       </c>
       <c r="O134" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P134" t="n">
         <v>2.06</v>
@@ -18523,10 +18523,10 @@
         <v>1.62</v>
       </c>
       <c r="R134" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S134" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T134" t="n">
         <v>1.01</v>
@@ -18535,7 +18535,7 @@
         <v>1.01</v>
       </c>
       <c r="V134" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W134" t="n">
         <v>1.94</v>
@@ -18625,7 +18625,7 @@
         <v>1.8</v>
       </c>
       <c r="G135" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H135" t="n">
         <v>4.4</v>
@@ -18640,7 +18640,7 @@
         <v>4.5</v>
       </c>
       <c r="L135" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="M135" t="n">
         <v>1.03</v>
@@ -18655,10 +18655,10 @@
         <v>2.9</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S135" t="n">
         <v>2.2</v>
@@ -18760,19 +18760,19 @@
         <v>4.3</v>
       </c>
       <c r="G136" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H136" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I136" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J136" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K136" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L136" t="n">
         <v>1.01</v>
@@ -18781,22 +18781,22 @@
         <v>1.05</v>
       </c>
       <c r="N136" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O136" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P136" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R136" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S136" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T136" t="n">
         <v>1.66</v>
@@ -18805,10 +18805,10 @@
         <v>2.24</v>
       </c>
       <c r="V136" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W136" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X136" t="n">
         <v>25</v>
@@ -18844,7 +18844,7 @@
         <v>970</v>
       </c>
       <c r="AI136" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ136" t="n">
         <v>110</v>
@@ -18862,7 +18862,7 @@
         <v>46</v>
       </c>
       <c r="AO136" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="137">
@@ -18892,22 +18892,22 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="G137" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H137" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I137" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="J137" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="K137" t="n">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L137" t="n">
         <v>1.01</v>
@@ -18916,34 +18916,34 @@
         <v>1.01</v>
       </c>
       <c r="N137" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="O137" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P137" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.06</v>
+        <v>1.35</v>
       </c>
       <c r="R137" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="S137" t="n">
         <v>3.4</v>
       </c>
       <c r="T137" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U137" t="n">
         <v>1.01</v>
       </c>
       <c r="V137" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="W137" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X137" t="n">
         <v>1000</v>
@@ -19027,16 +19027,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G138" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H138" t="n">
         <v>2.84</v>
       </c>
       <c r="I138" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J138" t="n">
         <v>3.5</v>
@@ -19051,10 +19051,10 @@
         <v>1.07</v>
       </c>
       <c r="N138" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O138" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P138" t="n">
         <v>1.96</v>
@@ -19066,19 +19066,19 @@
         <v>1.37</v>
       </c>
       <c r="S138" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T138" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U138" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V138" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W138" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X138" t="n">
         <v>14</v>
@@ -19105,7 +19105,7 @@
         <v>32</v>
       </c>
       <c r="AF138" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG138" t="n">
         <v>12</v>
@@ -19120,7 +19120,7 @@
         <v>40</v>
       </c>
       <c r="AK138" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL138" t="n">
         <v>42</v>
@@ -19129,7 +19129,7 @@
         <v>90</v>
       </c>
       <c r="AN138" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO138" t="n">
         <v>28</v>
@@ -19162,34 +19162,34 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G139" t="n">
         <v>3.35</v>
       </c>
       <c r="H139" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I139" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J139" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K139" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L139" t="n">
         <v>1.48</v>
       </c>
       <c r="M139" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N139" t="n">
-        <v>1.73</v>
+        <v>3.2</v>
       </c>
       <c r="O139" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P139" t="n">
         <v>1.73</v>
@@ -19198,25 +19198,25 @@
         <v>2.24</v>
       </c>
       <c r="R139" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S139" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T139" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U139" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V139" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="W139" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X139" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y139" t="n">
         <v>9.6</v>
@@ -19249,7 +19249,7 @@
         <v>970</v>
       </c>
       <c r="AI139" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ139" t="n">
         <v>60</v>
@@ -19264,7 +19264,7 @@
         <v>140</v>
       </c>
       <c r="AN139" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO139" t="n">
         <v>29</v>
@@ -19567,16 +19567,16 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="G142" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="I142" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J142" t="n">
         <v>3.25</v>
@@ -19603,10 +19603,10 @@
         <v>1.94</v>
       </c>
       <c r="R142" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S142" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T142" t="n">
         <v>1.01</v>
@@ -19615,7 +19615,7 @@
         <v>1.01</v>
       </c>
       <c r="V142" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W142" t="n">
         <v>1.58</v>
@@ -19702,16 +19702,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G143" t="n">
         <v>2.28</v>
       </c>
       <c r="H143" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I143" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J143" t="n">
         <v>3.2</v>
@@ -19720,28 +19720,28 @@
         <v>3.7</v>
       </c>
       <c r="L143" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M143" t="n">
         <v>1.01</v>
       </c>
       <c r="N143" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O143" t="n">
         <v>1.42</v>
       </c>
       <c r="P143" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q143" t="n">
         <v>2.16</v>
       </c>
       <c r="R143" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S143" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T143" t="n">
         <v>1.01</v>
@@ -19768,7 +19768,7 @@
         <v>1000</v>
       </c>
       <c r="AB143" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC143" t="n">
         <v>10.5</v>
@@ -19792,13 +19792,13 @@
         <v>100</v>
       </c>
       <c r="AJ143" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK143" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AL143" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM143" t="n">
         <v>1000</v>
@@ -19837,19 +19837,19 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G144" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H144" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J144" t="n">
         <v>3.7</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.65</v>
       </c>
       <c r="K144" t="n">
         <v>4.1</v>
@@ -19861,88 +19861,88 @@
         <v>1.04</v>
       </c>
       <c r="N144" t="n">
-        <v>1.05</v>
+        <v>4.7</v>
       </c>
       <c r="O144" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P144" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="R144" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S144" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V144" t="n">
         <v>1.45</v>
       </c>
-      <c r="S144" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T144" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="U144" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V144" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W144" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X144" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y144" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z144" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA144" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB144" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC144" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD144" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE144" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF144" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG144" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI144" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ144" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK144" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL144" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM144" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN144" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO144" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -19972,19 +19972,19 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G145" t="n">
         <v>2.72</v>
       </c>
       <c r="H145" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I145" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J145" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K145" t="n">
         <v>3.75</v>
@@ -20005,25 +20005,25 @@
         <v>2.16</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R145" t="n">
         <v>1.46</v>
       </c>
       <c r="S145" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W145" t="n">
         <v>1.6</v>
-      </c>
-      <c r="U145" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V145" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W145" t="n">
-        <v>1.58</v>
       </c>
       <c r="X145" t="n">
         <v>19.5</v>
@@ -20041,13 +20041,13 @@
         <v>14</v>
       </c>
       <c r="AC145" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD145" t="n">
         <v>14</v>
       </c>
       <c r="AE145" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF145" t="n">
         <v>19</v>
@@ -20074,7 +20074,7 @@
         <v>70</v>
       </c>
       <c r="AN145" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO145" t="n">
         <v>23</v>
@@ -20116,7 +20116,7 @@
         <v>1.84</v>
       </c>
       <c r="I146" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J146" t="n">
         <v>3.5</v>
@@ -20143,10 +20143,10 @@
         <v>1.57</v>
       </c>
       <c r="R146" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S146" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T146" t="n">
         <v>1.01</v>
@@ -20155,7 +20155,7 @@
         <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W146" t="n">
         <v>1.25</v>
@@ -20242,22 +20242,22 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="H147" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I147" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J147" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="K147" t="n">
-        <v>950</v>
+        <v>9.4</v>
       </c>
       <c r="L147" t="n">
         <v>1.01</v>
@@ -20266,22 +20266,22 @@
         <v>1.01</v>
       </c>
       <c r="N147" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="O147" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P147" t="n">
-        <v>1.71</v>
+        <v>2.72</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="R147" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="S147" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="T147" t="n">
         <v>1.01</v>
@@ -20290,64 +20290,64 @@
         <v>1.01</v>
       </c>
       <c r="V147" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W147" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="X147" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y147" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z147" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA147" t="n">
         <v>1000</v>
       </c>
       <c r="AB147" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC147" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD147" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE147" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF147" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG147" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH147" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI147" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ147" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK147" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL147" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM147" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN147" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO147" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148">
@@ -20380,19 +20380,19 @@
         <v>3.35</v>
       </c>
       <c r="G148" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H148" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I148" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J148" t="n">
         <v>3.35</v>
       </c>
       <c r="K148" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L148" t="n">
         <v>1.01</v>
@@ -20401,7 +20401,7 @@
         <v>1.01</v>
       </c>
       <c r="N148" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="O148" t="n">
         <v>1.37</v>
@@ -20413,7 +20413,7 @@
         <v>2.08</v>
       </c>
       <c r="R148" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S148" t="n">
         <v>3.3</v>
@@ -20425,10 +20425,10 @@
         <v>1.94</v>
       </c>
       <c r="V148" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W148" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X148" t="n">
         <v>18</v>
@@ -20437,7 +20437,7 @@
         <v>13.5</v>
       </c>
       <c r="Z148" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA148" t="n">
         <v>48</v>
@@ -20521,10 +20521,10 @@
         <v>4.3</v>
       </c>
       <c r="I149" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J149" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K149" t="n">
         <v>4.5</v>
@@ -20647,22 +20647,22 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G150" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H150" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I150" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J150" t="n">
         <v>3.85</v>
       </c>
-      <c r="J150" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K150" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L150" t="n">
         <v>1.01</v>
@@ -20683,10 +20683,10 @@
         <v>1.7</v>
       </c>
       <c r="R150" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S150" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T150" t="n">
         <v>1.59</v>
@@ -20698,10 +20698,10 @@
         <v>1.36</v>
       </c>
       <c r="W150" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X150" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y150" t="n">
         <v>25</v>
@@ -20725,7 +20725,7 @@
         <v>55</v>
       </c>
       <c r="AF150" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG150" t="n">
         <v>16</v>
@@ -20818,7 +20818,7 @@
         <v>1.47</v>
       </c>
       <c r="R151" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S151" t="n">
         <v>2.16</v>
@@ -20833,7 +20833,7 @@
         <v>1.3</v>
       </c>
       <c r="W151" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X151" t="n">
         <v>34</v>
@@ -20917,7 +20917,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G152" t="n">
         <v>5.8</v>
@@ -20926,16 +20926,16 @@
         <v>1.69</v>
       </c>
       <c r="I152" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="J152" t="n">
         <v>4.1</v>
       </c>
       <c r="K152" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L152" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M152" t="n">
         <v>1.07</v>
@@ -20950,7 +20950,7 @@
         <v>1.95</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R152" t="n">
         <v>1.36</v>
@@ -20965,7 +20965,7 @@
         <v>1.95</v>
       </c>
       <c r="V152" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W152" t="n">
         <v>1.2</v>
@@ -21055,7 +21055,7 @@
         <v>1.19</v>
       </c>
       <c r="G153" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H153" t="n">
         <v>13</v>
@@ -21097,13 +21097,13 @@
         <v>1.72</v>
       </c>
       <c r="U153" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V153" t="n">
         <v>1.06</v>
       </c>
       <c r="W153" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X153" t="n">
         <v>70</v>
@@ -21265,7 +21265,7 @@
         <v>17.5</v>
       </c>
       <c r="AF154" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG154" t="n">
         <v>22</v>
@@ -21289,7 +21289,7 @@
         <v>130</v>
       </c>
       <c r="AN154" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO154" t="n">
         <v>9.6</v>
@@ -21325,22 +21325,22 @@
         <v>3.55</v>
       </c>
       <c r="G155" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H155" t="n">
         <v>2.34</v>
       </c>
       <c r="I155" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J155" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K155" t="n">
         <v>3.4</v>
       </c>
       <c r="L155" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M155" t="n">
         <v>1.1</v>
@@ -21364,16 +21364,16 @@
         <v>4.5</v>
       </c>
       <c r="T155" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U155" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V155" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W155" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X155" t="n">
         <v>10.5</v>
@@ -21388,7 +21388,7 @@
         <v>32</v>
       </c>
       <c r="AB155" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC155" t="n">
         <v>7.4</v>
@@ -21460,10 +21460,10 @@
         <v>1.32</v>
       </c>
       <c r="G156" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H156" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I156" t="n">
         <v>11</v>
@@ -21475,7 +21475,7 @@
         <v>7</v>
       </c>
       <c r="L156" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M156" t="n">
         <v>1.02</v>
@@ -21493,13 +21493,13 @@
         <v>1.43</v>
       </c>
       <c r="R156" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S156" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T156" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="U156" t="n">
         <v>2.14</v>
@@ -21508,13 +21508,13 @@
         <v>1.1</v>
       </c>
       <c r="W156" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X156" t="n">
         <v>38</v>
       </c>
       <c r="Y156" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z156" t="n">
         <v>120</v>
@@ -21532,7 +21532,7 @@
         <v>38</v>
       </c>
       <c r="AE156" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF156" t="n">
         <v>10.5</v>
@@ -21553,7 +21553,7 @@
         <v>12.5</v>
       </c>
       <c r="AL156" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM156" t="n">
         <v>110</v>
@@ -21595,7 +21595,7 @@
         <v>3.55</v>
       </c>
       <c r="G157" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H157" t="n">
         <v>2.26</v>
@@ -21634,7 +21634,7 @@
         <v>3.2</v>
       </c>
       <c r="T157" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U157" t="n">
         <v>1.86</v>
@@ -21727,19 +21727,19 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="G158" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H158" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I158" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J158" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K158" t="n">
         <v>4.5</v>
@@ -21748,37 +21748,37 @@
         <v>1.01</v>
       </c>
       <c r="M158" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>1.83</v>
+        <v>3.7</v>
       </c>
       <c r="O158" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P158" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="R158" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="S158" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T158" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U158" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V158" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W158" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X158" t="n">
         <v>1000</v>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G159" t="n">
         <v>1.5</v>
@@ -21871,13 +21871,13 @@
         <v>7.6</v>
       </c>
       <c r="I159" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J159" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K159" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L159" t="n">
         <v>1.01</v>
@@ -21892,16 +21892,16 @@
         <v>1.32</v>
       </c>
       <c r="P159" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R159" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S159" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T159" t="n">
         <v>2.14</v>
@@ -21964,7 +21964,7 @@
         <v>1000</v>
       </c>
       <c r="AN159" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO159" t="n">
         <v>1000</v>
@@ -22000,19 +22000,19 @@
         <v>2.36</v>
       </c>
       <c r="G160" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H160" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I160" t="n">
         <v>3.45</v>
       </c>
       <c r="J160" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K160" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L160" t="n">
         <v>1.31</v>
@@ -22030,13 +22030,13 @@
         <v>2</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R160" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S160" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T160" t="n">
         <v>1.67</v>
@@ -22048,7 +22048,7 @@
         <v>1.41</v>
       </c>
       <c r="W160" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X160" t="n">
         <v>15</v>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G161" t="n">
         <v>6.8</v>
@@ -22141,7 +22141,7 @@
         <v>1.67</v>
       </c>
       <c r="I161" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="J161" t="n">
         <v>4.2</v>
@@ -22156,13 +22156,13 @@
         <v>1.03</v>
       </c>
       <c r="N161" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O161" t="n">
         <v>1.24</v>
       </c>
       <c r="P161" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q161" t="n">
         <v>1.24</v>
@@ -22180,7 +22180,7 @@
         <v>1.01</v>
       </c>
       <c r="V161" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="W161" t="n">
         <v>1.22</v>
@@ -22267,22 +22267,22 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G162" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="H162" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I162" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J162" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K162" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L162" t="n">
         <v>1.32</v>
@@ -22291,7 +22291,7 @@
         <v>1.05</v>
       </c>
       <c r="N162" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O162" t="n">
         <v>1.3</v>
@@ -22300,7 +22300,7 @@
         <v>1.97</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R162" t="n">
         <v>1.37</v>
@@ -22309,7 +22309,7 @@
         <v>2.9</v>
       </c>
       <c r="T162" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="U162" t="n">
         <v>2</v>
@@ -22318,7 +22318,7 @@
         <v>1.2</v>
       </c>
       <c r="W162" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="X162" t="n">
         <v>1000</v>
@@ -22540,16 +22540,16 @@
         <v>1.37</v>
       </c>
       <c r="G164" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="H164" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="I164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J164" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="K164" t="n">
         <v>6.2</v>
@@ -22564,13 +22564,13 @@
         <v>4</v>
       </c>
       <c r="O164" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P164" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="R164" t="n">
         <v>0</v>
@@ -22684,7 +22684,7 @@
         <v>1000</v>
       </c>
       <c r="J165" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K165" t="n">
         <v>950</v>
@@ -22696,7 +22696,7 @@
         <v>1.01</v>
       </c>
       <c r="N165" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O165" t="n">
         <v>1.21</v>
@@ -22807,19 +22807,19 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="G166" t="n">
-        <v>4.7</v>
+        <v>28</v>
       </c>
       <c r="H166" t="n">
         <v>1.09</v>
       </c>
       <c r="I166" t="n">
-        <v>7.2</v>
+        <v>2.26</v>
       </c>
       <c r="J166" t="n">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="K166" t="n">
         <v>950</v>
@@ -22975,7 +22975,7 @@
         <v>1.34</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R167" t="n">
         <v>1.18</v>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G169" t="n">
         <v>1.72</v>
@@ -23233,31 +23233,31 @@
         <v>1.01</v>
       </c>
       <c r="M169" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N169" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O169" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P169" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q169" t="n">
         <v>1.46</v>
       </c>
       <c r="R169" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="S169" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T169" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="U169" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="V169" t="n">
         <v>1.21</v>
@@ -23266,7 +23266,7 @@
         <v>2.38</v>
       </c>
       <c r="X169" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y169" t="n">
         <v>29</v>
@@ -23299,7 +23299,7 @@
         <v>18</v>
       </c>
       <c r="AI169" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ169" t="n">
         <v>18.5</v>
@@ -23314,7 +23314,7 @@
         <v>65</v>
       </c>
       <c r="AN169" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO169" t="n">
         <v>40</v>
